--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -1009,14 +1009,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>FB1010201</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>errors.nothing</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>なし。</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1087,6 +1079,14 @@
   </si>
   <si>
     <t>/client/:client_id</t>
+  </si>
+  <si>
+    <t>FB1999903</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>errors.nothing</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1873,6 +1873,117 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1909,161 +2020,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2101,41 +2137,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2146,15 +2173,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2164,59 +2182,95 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2227,99 +2281,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2357,6 +2318,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2419,6 +2383,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2428,68 +2395,101 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6678,57 +6678,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="188" t="s">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="206" t="s">
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="207"/>
-      <c r="X1" s="207"/>
-      <c r="Y1" s="207"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="194" t="s">
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="151" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="181">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="154">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="182"/>
-      <c r="AI1" s="183"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="156"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -6736,53 +6736,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="188" t="s">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="194" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="191" t="str">
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="164" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="192"/>
-      <c r="AE2" s="192"/>
-      <c r="AF2" s="193"/>
-      <c r="AG2" s="181" t="str">
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="154" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="182"/>
-      <c r="AI2" s="183"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="156"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -6790,45 +6790,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="188" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="213"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="183"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="151"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="156"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -6865,1030 +6865,1186 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="185"/>
-      <c r="D7" s="184" t="s">
+      <c r="C7" s="158"/>
+      <c r="D7" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="184" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="186"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="187" t="s">
+      <c r="H7" s="159"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="184" t="s">
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="186"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="186"/>
-      <c r="U7" s="186"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="186"/>
-      <c r="Y7" s="186"/>
-      <c r="Z7" s="186"/>
-      <c r="AA7" s="186"/>
-      <c r="AB7" s="186"/>
-      <c r="AC7" s="186"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="185"/>
-      <c r="AF7" s="184" t="s">
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="186"/>
-      <c r="AH7" s="186"/>
-      <c r="AI7" s="185"/>
+      <c r="AG7" s="159"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="158"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="166">
+      <c r="C8" s="201"/>
+      <c r="D8" s="202">
         <v>43718</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169" t="s">
+      <c r="E8" s="203"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="205" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="170"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="176"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="176"/>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="177"/>
-      <c r="AF8" s="174" t="s">
+      <c r="H8" s="206"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
+      <c r="N8" s="208"/>
+      <c r="O8" s="208"/>
+      <c r="P8" s="209"/>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="212"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="212"/>
+      <c r="U8" s="212"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="212"/>
+      <c r="X8" s="212"/>
+      <c r="Y8" s="212"/>
+      <c r="Z8" s="212"/>
+      <c r="AA8" s="212"/>
+      <c r="AB8" s="212"/>
+      <c r="AC8" s="212"/>
+      <c r="AD8" s="212"/>
+      <c r="AE8" s="213"/>
+      <c r="AF8" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="AG8" s="172"/>
-      <c r="AH8" s="172"/>
-      <c r="AI8" s="173"/>
+      <c r="AG8" s="208"/>
+      <c r="AH8" s="208"/>
+      <c r="AI8" s="209"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="118"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="161"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="161"/>
-      <c r="AA9" s="161"/>
-      <c r="AB9" s="161"/>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
-      <c r="AE9" s="162"/>
-      <c r="AF9" s="157"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="159"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="195"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="197"/>
+      <c r="R9" s="198"/>
+      <c r="S9" s="198"/>
+      <c r="T9" s="198"/>
+      <c r="U9" s="198"/>
+      <c r="V9" s="198"/>
+      <c r="W9" s="198"/>
+      <c r="X9" s="198"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="198"/>
+      <c r="AA9" s="198"/>
+      <c r="AB9" s="198"/>
+      <c r="AC9" s="198"/>
+      <c r="AD9" s="198"/>
+      <c r="AE9" s="199"/>
+      <c r="AF9" s="194"/>
+      <c r="AG9" s="195"/>
+      <c r="AH9" s="195"/>
+      <c r="AI9" s="196"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="118"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="161"/>
-      <c r="AB10" s="161"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="161"/>
-      <c r="AE10" s="162"/>
-      <c r="AF10" s="157"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="159"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="195"/>
+      <c r="O10" s="195"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="197"/>
+      <c r="R10" s="198"/>
+      <c r="S10" s="198"/>
+      <c r="T10" s="198"/>
+      <c r="U10" s="198"/>
+      <c r="V10" s="198"/>
+      <c r="W10" s="198"/>
+      <c r="X10" s="198"/>
+      <c r="Y10" s="198"/>
+      <c r="Z10" s="198"/>
+      <c r="AA10" s="198"/>
+      <c r="AB10" s="198"/>
+      <c r="AC10" s="198"/>
+      <c r="AD10" s="198"/>
+      <c r="AE10" s="199"/>
+      <c r="AF10" s="194"/>
+      <c r="AG10" s="195"/>
+      <c r="AH10" s="195"/>
+      <c r="AI10" s="196"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="161"/>
-      <c r="AB11" s="161"/>
-      <c r="AC11" s="161"/>
-      <c r="AD11" s="161"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="157"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="158"/>
-      <c r="AI11" s="159"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="191"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="195"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="198"/>
+      <c r="T11" s="198"/>
+      <c r="U11" s="198"/>
+      <c r="V11" s="198"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="198"/>
+      <c r="Y11" s="198"/>
+      <c r="Z11" s="198"/>
+      <c r="AA11" s="198"/>
+      <c r="AB11" s="198"/>
+      <c r="AC11" s="198"/>
+      <c r="AD11" s="198"/>
+      <c r="AE11" s="199"/>
+      <c r="AF11" s="194"/>
+      <c r="AG11" s="195"/>
+      <c r="AH11" s="195"/>
+      <c r="AI11" s="196"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="161"/>
-      <c r="T12" s="161"/>
-      <c r="U12" s="161"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="161"/>
-      <c r="AA12" s="161"/>
-      <c r="AB12" s="161"/>
-      <c r="AC12" s="161"/>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="159"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="195"/>
+      <c r="O12" s="195"/>
+      <c r="P12" s="196"/>
+      <c r="Q12" s="197"/>
+      <c r="R12" s="198"/>
+      <c r="S12" s="198"/>
+      <c r="T12" s="198"/>
+      <c r="U12" s="198"/>
+      <c r="V12" s="198"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="198"/>
+      <c r="Z12" s="198"/>
+      <c r="AA12" s="198"/>
+      <c r="AB12" s="198"/>
+      <c r="AC12" s="198"/>
+      <c r="AD12" s="198"/>
+      <c r="AE12" s="199"/>
+      <c r="AF12" s="194"/>
+      <c r="AG12" s="195"/>
+      <c r="AH12" s="195"/>
+      <c r="AI12" s="196"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="161"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="161"/>
-      <c r="X13" s="161"/>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="161"/>
-      <c r="AA13" s="161"/>
-      <c r="AB13" s="161"/>
-      <c r="AC13" s="161"/>
-      <c r="AD13" s="161"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="159"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="195"/>
+      <c r="O13" s="195"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="197"/>
+      <c r="R13" s="198"/>
+      <c r="S13" s="198"/>
+      <c r="T13" s="198"/>
+      <c r="U13" s="198"/>
+      <c r="V13" s="198"/>
+      <c r="W13" s="198"/>
+      <c r="X13" s="198"/>
+      <c r="Y13" s="198"/>
+      <c r="Z13" s="198"/>
+      <c r="AA13" s="198"/>
+      <c r="AB13" s="198"/>
+      <c r="AC13" s="198"/>
+      <c r="AD13" s="198"/>
+      <c r="AE13" s="199"/>
+      <c r="AF13" s="194"/>
+      <c r="AG13" s="195"/>
+      <c r="AH13" s="195"/>
+      <c r="AI13" s="196"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="161"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="161"/>
-      <c r="AB14" s="161"/>
-      <c r="AC14" s="161"/>
-      <c r="AD14" s="161"/>
-      <c r="AE14" s="162"/>
-      <c r="AF14" s="157"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="159"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="195"/>
+      <c r="M14" s="195"/>
+      <c r="N14" s="195"/>
+      <c r="O14" s="195"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="197"/>
+      <c r="R14" s="198"/>
+      <c r="S14" s="198"/>
+      <c r="T14" s="198"/>
+      <c r="U14" s="198"/>
+      <c r="V14" s="198"/>
+      <c r="W14" s="198"/>
+      <c r="X14" s="198"/>
+      <c r="Y14" s="198"/>
+      <c r="Z14" s="198"/>
+      <c r="AA14" s="198"/>
+      <c r="AB14" s="198"/>
+      <c r="AC14" s="198"/>
+      <c r="AD14" s="198"/>
+      <c r="AE14" s="199"/>
+      <c r="AF14" s="194"/>
+      <c r="AG14" s="195"/>
+      <c r="AH14" s="195"/>
+      <c r="AI14" s="196"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="161"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="161"/>
-      <c r="Y15" s="161"/>
-      <c r="Z15" s="161"/>
-      <c r="AA15" s="161"/>
-      <c r="AB15" s="161"/>
-      <c r="AC15" s="161"/>
-      <c r="AD15" s="161"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="158"/>
-      <c r="AI15" s="159"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="195"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="195"/>
+      <c r="P15" s="196"/>
+      <c r="Q15" s="197"/>
+      <c r="R15" s="198"/>
+      <c r="S15" s="198"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="198"/>
+      <c r="V15" s="198"/>
+      <c r="W15" s="198"/>
+      <c r="X15" s="198"/>
+      <c r="Y15" s="198"/>
+      <c r="Z15" s="198"/>
+      <c r="AA15" s="198"/>
+      <c r="AB15" s="198"/>
+      <c r="AC15" s="198"/>
+      <c r="AD15" s="198"/>
+      <c r="AE15" s="199"/>
+      <c r="AF15" s="194"/>
+      <c r="AG15" s="195"/>
+      <c r="AH15" s="195"/>
+      <c r="AI15" s="196"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="161"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="161"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="161"/>
-      <c r="Z16" s="161"/>
-      <c r="AA16" s="161"/>
-      <c r="AB16" s="161"/>
-      <c r="AC16" s="161"/>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="159"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="195"/>
+      <c r="N16" s="195"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="196"/>
+      <c r="Q16" s="197"/>
+      <c r="R16" s="198"/>
+      <c r="S16" s="198"/>
+      <c r="T16" s="198"/>
+      <c r="U16" s="198"/>
+      <c r="V16" s="198"/>
+      <c r="W16" s="198"/>
+      <c r="X16" s="198"/>
+      <c r="Y16" s="198"/>
+      <c r="Z16" s="198"/>
+      <c r="AA16" s="198"/>
+      <c r="AB16" s="198"/>
+      <c r="AC16" s="198"/>
+      <c r="AD16" s="198"/>
+      <c r="AE16" s="199"/>
+      <c r="AF16" s="194"/>
+      <c r="AG16" s="195"/>
+      <c r="AH16" s="195"/>
+      <c r="AI16" s="196"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="161"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="161"/>
-      <c r="X17" s="161"/>
-      <c r="Y17" s="161"/>
-      <c r="Z17" s="161"/>
-      <c r="AA17" s="161"/>
-      <c r="AB17" s="161"/>
-      <c r="AC17" s="161"/>
-      <c r="AD17" s="161"/>
-      <c r="AE17" s="162"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="158"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="159"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="195"/>
+      <c r="N17" s="195"/>
+      <c r="O17" s="195"/>
+      <c r="P17" s="196"/>
+      <c r="Q17" s="197"/>
+      <c r="R17" s="198"/>
+      <c r="S17" s="198"/>
+      <c r="T17" s="198"/>
+      <c r="U17" s="198"/>
+      <c r="V17" s="198"/>
+      <c r="W17" s="198"/>
+      <c r="X17" s="198"/>
+      <c r="Y17" s="198"/>
+      <c r="Z17" s="198"/>
+      <c r="AA17" s="198"/>
+      <c r="AB17" s="198"/>
+      <c r="AC17" s="198"/>
+      <c r="AD17" s="198"/>
+      <c r="AE17" s="199"/>
+      <c r="AF17" s="194"/>
+      <c r="AG17" s="195"/>
+      <c r="AH17" s="195"/>
+      <c r="AI17" s="196"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="161"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="161"/>
-      <c r="X18" s="161"/>
-      <c r="Y18" s="161"/>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="161"/>
-      <c r="AB18" s="161"/>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="161"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="159"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="195"/>
+      <c r="L18" s="195"/>
+      <c r="M18" s="195"/>
+      <c r="N18" s="195"/>
+      <c r="O18" s="195"/>
+      <c r="P18" s="196"/>
+      <c r="Q18" s="197"/>
+      <c r="R18" s="198"/>
+      <c r="S18" s="198"/>
+      <c r="T18" s="198"/>
+      <c r="U18" s="198"/>
+      <c r="V18" s="198"/>
+      <c r="W18" s="198"/>
+      <c r="X18" s="198"/>
+      <c r="Y18" s="198"/>
+      <c r="Z18" s="198"/>
+      <c r="AA18" s="198"/>
+      <c r="AB18" s="198"/>
+      <c r="AC18" s="198"/>
+      <c r="AD18" s="198"/>
+      <c r="AE18" s="199"/>
+      <c r="AF18" s="194"/>
+      <c r="AG18" s="195"/>
+      <c r="AH18" s="195"/>
+      <c r="AI18" s="196"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="161"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="161"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="161"/>
-      <c r="AC19" s="161"/>
-      <c r="AD19" s="161"/>
-      <c r="AE19" s="162"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="159"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="197"/>
+      <c r="R19" s="198"/>
+      <c r="S19" s="198"/>
+      <c r="T19" s="198"/>
+      <c r="U19" s="198"/>
+      <c r="V19" s="198"/>
+      <c r="W19" s="198"/>
+      <c r="X19" s="198"/>
+      <c r="Y19" s="198"/>
+      <c r="Z19" s="198"/>
+      <c r="AA19" s="198"/>
+      <c r="AB19" s="198"/>
+      <c r="AC19" s="198"/>
+      <c r="AD19" s="198"/>
+      <c r="AE19" s="199"/>
+      <c r="AF19" s="194"/>
+      <c r="AG19" s="195"/>
+      <c r="AH19" s="195"/>
+      <c r="AI19" s="196"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="161"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="161"/>
-      <c r="X20" s="161"/>
-      <c r="Y20" s="161"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="161"/>
-      <c r="AB20" s="161"/>
-      <c r="AC20" s="161"/>
-      <c r="AD20" s="161"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="159"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="195"/>
+      <c r="L20" s="195"/>
+      <c r="M20" s="195"/>
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="196"/>
+      <c r="Q20" s="197"/>
+      <c r="R20" s="198"/>
+      <c r="S20" s="198"/>
+      <c r="T20" s="198"/>
+      <c r="U20" s="198"/>
+      <c r="V20" s="198"/>
+      <c r="W20" s="198"/>
+      <c r="X20" s="198"/>
+      <c r="Y20" s="198"/>
+      <c r="Z20" s="198"/>
+      <c r="AA20" s="198"/>
+      <c r="AB20" s="198"/>
+      <c r="AC20" s="198"/>
+      <c r="AD20" s="198"/>
+      <c r="AE20" s="199"/>
+      <c r="AF20" s="194"/>
+      <c r="AG20" s="195"/>
+      <c r="AH20" s="195"/>
+      <c r="AI20" s="196"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="161"/>
-      <c r="T21" s="161"/>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="161"/>
-      <c r="X21" s="161"/>
-      <c r="Y21" s="161"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="161"/>
-      <c r="AB21" s="161"/>
-      <c r="AC21" s="161"/>
-      <c r="AD21" s="161"/>
-      <c r="AE21" s="162"/>
-      <c r="AF21" s="157"/>
-      <c r="AG21" s="158"/>
-      <c r="AH21" s="158"/>
-      <c r="AI21" s="159"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="195"/>
+      <c r="O21" s="195"/>
+      <c r="P21" s="196"/>
+      <c r="Q21" s="197"/>
+      <c r="R21" s="198"/>
+      <c r="S21" s="198"/>
+      <c r="T21" s="198"/>
+      <c r="U21" s="198"/>
+      <c r="V21" s="198"/>
+      <c r="W21" s="198"/>
+      <c r="X21" s="198"/>
+      <c r="Y21" s="198"/>
+      <c r="Z21" s="198"/>
+      <c r="AA21" s="198"/>
+      <c r="AB21" s="198"/>
+      <c r="AC21" s="198"/>
+      <c r="AD21" s="198"/>
+      <c r="AE21" s="199"/>
+      <c r="AF21" s="194"/>
+      <c r="AG21" s="195"/>
+      <c r="AH21" s="195"/>
+      <c r="AI21" s="196"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="161"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="161"/>
-      <c r="AC22" s="161"/>
-      <c r="AD22" s="161"/>
-      <c r="AE22" s="162"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="159"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="195"/>
+      <c r="O22" s="195"/>
+      <c r="P22" s="196"/>
+      <c r="Q22" s="197"/>
+      <c r="R22" s="198"/>
+      <c r="S22" s="198"/>
+      <c r="T22" s="198"/>
+      <c r="U22" s="198"/>
+      <c r="V22" s="198"/>
+      <c r="W22" s="198"/>
+      <c r="X22" s="198"/>
+      <c r="Y22" s="198"/>
+      <c r="Z22" s="198"/>
+      <c r="AA22" s="198"/>
+      <c r="AB22" s="198"/>
+      <c r="AC22" s="198"/>
+      <c r="AD22" s="198"/>
+      <c r="AE22" s="199"/>
+      <c r="AF22" s="194"/>
+      <c r="AG22" s="195"/>
+      <c r="AH22" s="195"/>
+      <c r="AI22" s="196"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="161"/>
-      <c r="T23" s="161"/>
-      <c r="U23" s="161"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="161"/>
-      <c r="X23" s="161"/>
-      <c r="Y23" s="161"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="161"/>
-      <c r="AB23" s="161"/>
-      <c r="AC23" s="161"/>
-      <c r="AD23" s="161"/>
-      <c r="AE23" s="162"/>
-      <c r="AF23" s="157"/>
-      <c r="AG23" s="158"/>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="159"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="195"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="195"/>
+      <c r="P23" s="196"/>
+      <c r="Q23" s="197"/>
+      <c r="R23" s="198"/>
+      <c r="S23" s="198"/>
+      <c r="T23" s="198"/>
+      <c r="U23" s="198"/>
+      <c r="V23" s="198"/>
+      <c r="W23" s="198"/>
+      <c r="X23" s="198"/>
+      <c r="Y23" s="198"/>
+      <c r="Z23" s="198"/>
+      <c r="AA23" s="198"/>
+      <c r="AB23" s="198"/>
+      <c r="AC23" s="198"/>
+      <c r="AD23" s="198"/>
+      <c r="AE23" s="199"/>
+      <c r="AF23" s="194"/>
+      <c r="AG23" s="195"/>
+      <c r="AH23" s="195"/>
+      <c r="AI23" s="196"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="161"/>
-      <c r="T24" s="161"/>
-      <c r="U24" s="161"/>
-      <c r="V24" s="161"/>
-      <c r="W24" s="161"/>
-      <c r="X24" s="161"/>
-      <c r="Y24" s="161"/>
-      <c r="Z24" s="161"/>
-      <c r="AA24" s="161"/>
-      <c r="AB24" s="161"/>
-      <c r="AC24" s="161"/>
-      <c r="AD24" s="161"/>
-      <c r="AE24" s="162"/>
-      <c r="AF24" s="157"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="159"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="190"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="195"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="195"/>
+      <c r="O24" s="195"/>
+      <c r="P24" s="196"/>
+      <c r="Q24" s="197"/>
+      <c r="R24" s="198"/>
+      <c r="S24" s="198"/>
+      <c r="T24" s="198"/>
+      <c r="U24" s="198"/>
+      <c r="V24" s="198"/>
+      <c r="W24" s="198"/>
+      <c r="X24" s="198"/>
+      <c r="Y24" s="198"/>
+      <c r="Z24" s="198"/>
+      <c r="AA24" s="198"/>
+      <c r="AB24" s="198"/>
+      <c r="AC24" s="198"/>
+      <c r="AD24" s="198"/>
+      <c r="AE24" s="199"/>
+      <c r="AF24" s="194"/>
+      <c r="AG24" s="195"/>
+      <c r="AH24" s="195"/>
+      <c r="AI24" s="196"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="161"/>
-      <c r="S25" s="161"/>
-      <c r="T25" s="161"/>
-      <c r="U25" s="161"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="161"/>
-      <c r="X25" s="161"/>
-      <c r="Y25" s="161"/>
-      <c r="Z25" s="161"/>
-      <c r="AA25" s="161"/>
-      <c r="AB25" s="161"/>
-      <c r="AC25" s="161"/>
-      <c r="AD25" s="161"/>
-      <c r="AE25" s="162"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="158"/>
-      <c r="AI25" s="159"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="195"/>
+      <c r="L25" s="195"/>
+      <c r="M25" s="195"/>
+      <c r="N25" s="195"/>
+      <c r="O25" s="195"/>
+      <c r="P25" s="196"/>
+      <c r="Q25" s="197"/>
+      <c r="R25" s="198"/>
+      <c r="S25" s="198"/>
+      <c r="T25" s="198"/>
+      <c r="U25" s="198"/>
+      <c r="V25" s="198"/>
+      <c r="W25" s="198"/>
+      <c r="X25" s="198"/>
+      <c r="Y25" s="198"/>
+      <c r="Z25" s="198"/>
+      <c r="AA25" s="198"/>
+      <c r="AB25" s="198"/>
+      <c r="AC25" s="198"/>
+      <c r="AD25" s="198"/>
+      <c r="AE25" s="199"/>
+      <c r="AF25" s="194"/>
+      <c r="AG25" s="195"/>
+      <c r="AH25" s="195"/>
+      <c r="AI25" s="196"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="161"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="161"/>
-      <c r="Z26" s="161"/>
-      <c r="AA26" s="161"/>
-      <c r="AB26" s="161"/>
-      <c r="AC26" s="161"/>
-      <c r="AD26" s="161"/>
-      <c r="AE26" s="162"/>
-      <c r="AF26" s="157"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="159"/>
+      <c r="B26" s="188"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="195"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="195"/>
+      <c r="O26" s="195"/>
+      <c r="P26" s="196"/>
+      <c r="Q26" s="197"/>
+      <c r="R26" s="198"/>
+      <c r="S26" s="198"/>
+      <c r="T26" s="198"/>
+      <c r="U26" s="198"/>
+      <c r="V26" s="198"/>
+      <c r="W26" s="198"/>
+      <c r="X26" s="198"/>
+      <c r="Y26" s="198"/>
+      <c r="Z26" s="198"/>
+      <c r="AA26" s="198"/>
+      <c r="AB26" s="198"/>
+      <c r="AC26" s="198"/>
+      <c r="AD26" s="198"/>
+      <c r="AE26" s="199"/>
+      <c r="AF26" s="194"/>
+      <c r="AG26" s="195"/>
+      <c r="AH26" s="195"/>
+      <c r="AI26" s="196"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="161"/>
-      <c r="S27" s="161"/>
-      <c r="T27" s="161"/>
-      <c r="U27" s="161"/>
-      <c r="V27" s="161"/>
-      <c r="W27" s="161"/>
-      <c r="X27" s="161"/>
-      <c r="Y27" s="161"/>
-      <c r="Z27" s="161"/>
-      <c r="AA27" s="161"/>
-      <c r="AB27" s="161"/>
-      <c r="AC27" s="161"/>
-      <c r="AD27" s="161"/>
-      <c r="AE27" s="162"/>
-      <c r="AF27" s="157"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="159"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="196"/>
+      <c r="Q27" s="197"/>
+      <c r="R27" s="198"/>
+      <c r="S27" s="198"/>
+      <c r="T27" s="198"/>
+      <c r="U27" s="198"/>
+      <c r="V27" s="198"/>
+      <c r="W27" s="198"/>
+      <c r="X27" s="198"/>
+      <c r="Y27" s="198"/>
+      <c r="Z27" s="198"/>
+      <c r="AA27" s="198"/>
+      <c r="AB27" s="198"/>
+      <c r="AC27" s="198"/>
+      <c r="AD27" s="198"/>
+      <c r="AE27" s="199"/>
+      <c r="AF27" s="194"/>
+      <c r="AG27" s="195"/>
+      <c r="AH27" s="195"/>
+      <c r="AI27" s="196"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="161"/>
-      <c r="S28" s="161"/>
-      <c r="T28" s="161"/>
-      <c r="U28" s="161"/>
-      <c r="V28" s="161"/>
-      <c r="W28" s="161"/>
-      <c r="X28" s="161"/>
-      <c r="Y28" s="161"/>
-      <c r="Z28" s="161"/>
-      <c r="AA28" s="161"/>
-      <c r="AB28" s="161"/>
-      <c r="AC28" s="161"/>
-      <c r="AD28" s="161"/>
-      <c r="AE28" s="162"/>
-      <c r="AF28" s="157"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="159"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="195"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="195"/>
+      <c r="O28" s="195"/>
+      <c r="P28" s="196"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="198"/>
+      <c r="S28" s="198"/>
+      <c r="T28" s="198"/>
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="198"/>
+      <c r="X28" s="198"/>
+      <c r="Y28" s="198"/>
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="198"/>
+      <c r="AB28" s="198"/>
+      <c r="AC28" s="198"/>
+      <c r="AD28" s="198"/>
+      <c r="AE28" s="199"/>
+      <c r="AF28" s="194"/>
+      <c r="AG28" s="195"/>
+      <c r="AH28" s="195"/>
+      <c r="AI28" s="196"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="161"/>
-      <c r="S29" s="161"/>
-      <c r="T29" s="161"/>
-      <c r="U29" s="161"/>
-      <c r="V29" s="161"/>
-      <c r="W29" s="161"/>
-      <c r="X29" s="161"/>
-      <c r="Y29" s="161"/>
-      <c r="Z29" s="161"/>
-      <c r="AA29" s="161"/>
-      <c r="AB29" s="161"/>
-      <c r="AC29" s="161"/>
-      <c r="AD29" s="161"/>
-      <c r="AE29" s="162"/>
-      <c r="AF29" s="157"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="159"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="195"/>
+      <c r="P29" s="196"/>
+      <c r="Q29" s="197"/>
+      <c r="R29" s="198"/>
+      <c r="S29" s="198"/>
+      <c r="T29" s="198"/>
+      <c r="U29" s="198"/>
+      <c r="V29" s="198"/>
+      <c r="W29" s="198"/>
+      <c r="X29" s="198"/>
+      <c r="Y29" s="198"/>
+      <c r="Z29" s="198"/>
+      <c r="AA29" s="198"/>
+      <c r="AB29" s="198"/>
+      <c r="AC29" s="198"/>
+      <c r="AD29" s="198"/>
+      <c r="AE29" s="199"/>
+      <c r="AF29" s="194"/>
+      <c r="AG29" s="195"/>
+      <c r="AH29" s="195"/>
+      <c r="AI29" s="196"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="161"/>
-      <c r="S30" s="161"/>
-      <c r="T30" s="161"/>
-      <c r="U30" s="161"/>
-      <c r="V30" s="161"/>
-      <c r="W30" s="161"/>
-      <c r="X30" s="161"/>
-      <c r="Y30" s="161"/>
-      <c r="Z30" s="161"/>
-      <c r="AA30" s="161"/>
-      <c r="AB30" s="161"/>
-      <c r="AC30" s="161"/>
-      <c r="AD30" s="161"/>
-      <c r="AE30" s="162"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="159"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="195"/>
+      <c r="L30" s="195"/>
+      <c r="M30" s="195"/>
+      <c r="N30" s="195"/>
+      <c r="O30" s="195"/>
+      <c r="P30" s="196"/>
+      <c r="Q30" s="197"/>
+      <c r="R30" s="198"/>
+      <c r="S30" s="198"/>
+      <c r="T30" s="198"/>
+      <c r="U30" s="198"/>
+      <c r="V30" s="198"/>
+      <c r="W30" s="198"/>
+      <c r="X30" s="198"/>
+      <c r="Y30" s="198"/>
+      <c r="Z30" s="198"/>
+      <c r="AA30" s="198"/>
+      <c r="AB30" s="198"/>
+      <c r="AC30" s="198"/>
+      <c r="AD30" s="198"/>
+      <c r="AE30" s="199"/>
+      <c r="AF30" s="194"/>
+      <c r="AG30" s="195"/>
+      <c r="AH30" s="195"/>
+      <c r="AI30" s="196"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="161"/>
-      <c r="S31" s="161"/>
-      <c r="T31" s="161"/>
-      <c r="U31" s="161"/>
-      <c r="V31" s="161"/>
-      <c r="W31" s="161"/>
-      <c r="X31" s="161"/>
-      <c r="Y31" s="161"/>
-      <c r="Z31" s="161"/>
-      <c r="AA31" s="161"/>
-      <c r="AB31" s="161"/>
-      <c r="AC31" s="161"/>
-      <c r="AD31" s="161"/>
-      <c r="AE31" s="162"/>
-      <c r="AF31" s="157"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="159"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="195"/>
+      <c r="L31" s="195"/>
+      <c r="M31" s="195"/>
+      <c r="N31" s="195"/>
+      <c r="O31" s="195"/>
+      <c r="P31" s="196"/>
+      <c r="Q31" s="197"/>
+      <c r="R31" s="198"/>
+      <c r="S31" s="198"/>
+      <c r="T31" s="198"/>
+      <c r="U31" s="198"/>
+      <c r="V31" s="198"/>
+      <c r="W31" s="198"/>
+      <c r="X31" s="198"/>
+      <c r="Y31" s="198"/>
+      <c r="Z31" s="198"/>
+      <c r="AA31" s="198"/>
+      <c r="AB31" s="198"/>
+      <c r="AC31" s="198"/>
+      <c r="AD31" s="198"/>
+      <c r="AE31" s="199"/>
+      <c r="AF31" s="194"/>
+      <c r="AG31" s="195"/>
+      <c r="AH31" s="195"/>
+      <c r="AI31" s="196"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="161"/>
-      <c r="T32" s="161"/>
-      <c r="U32" s="161"/>
-      <c r="V32" s="161"/>
-      <c r="W32" s="161"/>
-      <c r="X32" s="161"/>
-      <c r="Y32" s="161"/>
-      <c r="Z32" s="161"/>
-      <c r="AA32" s="161"/>
-      <c r="AB32" s="161"/>
-      <c r="AC32" s="161"/>
-      <c r="AD32" s="161"/>
-      <c r="AE32" s="162"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="159"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="195"/>
+      <c r="N32" s="195"/>
+      <c r="O32" s="195"/>
+      <c r="P32" s="196"/>
+      <c r="Q32" s="197"/>
+      <c r="R32" s="198"/>
+      <c r="S32" s="198"/>
+      <c r="T32" s="198"/>
+      <c r="U32" s="198"/>
+      <c r="V32" s="198"/>
+      <c r="W32" s="198"/>
+      <c r="X32" s="198"/>
+      <c r="Y32" s="198"/>
+      <c r="Z32" s="198"/>
+      <c r="AA32" s="198"/>
+      <c r="AB32" s="198"/>
+      <c r="AC32" s="198"/>
+      <c r="AD32" s="198"/>
+      <c r="AE32" s="199"/>
+      <c r="AF32" s="194"/>
+      <c r="AG32" s="195"/>
+      <c r="AH32" s="195"/>
+      <c r="AI32" s="196"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="161"/>
-      <c r="S33" s="161"/>
-      <c r="T33" s="161"/>
-      <c r="U33" s="161"/>
-      <c r="V33" s="161"/>
-      <c r="W33" s="161"/>
-      <c r="X33" s="161"/>
-      <c r="Y33" s="161"/>
-      <c r="Z33" s="161"/>
-      <c r="AA33" s="161"/>
-      <c r="AB33" s="161"/>
-      <c r="AC33" s="161"/>
-      <c r="AD33" s="161"/>
-      <c r="AE33" s="162"/>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="159"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="195"/>
+      <c r="M33" s="195"/>
+      <c r="N33" s="195"/>
+      <c r="O33" s="195"/>
+      <c r="P33" s="196"/>
+      <c r="Q33" s="197"/>
+      <c r="R33" s="198"/>
+      <c r="S33" s="198"/>
+      <c r="T33" s="198"/>
+      <c r="U33" s="198"/>
+      <c r="V33" s="198"/>
+      <c r="W33" s="198"/>
+      <c r="X33" s="198"/>
+      <c r="Y33" s="198"/>
+      <c r="Z33" s="198"/>
+      <c r="AA33" s="198"/>
+      <c r="AB33" s="198"/>
+      <c r="AC33" s="198"/>
+      <c r="AD33" s="198"/>
+      <c r="AE33" s="199"/>
+      <c r="AF33" s="194"/>
+      <c r="AG33" s="195"/>
+      <c r="AH33" s="195"/>
+      <c r="AI33" s="196"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7912,162 +8068,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8224,157 +8224,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="188" t="str">
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="230" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="218" t="str">
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="230" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="227" t="s">
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="215">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="227">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="217"/>
+      <c r="AH1" s="228"/>
+      <c r="AI1" s="229"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="188" t="str">
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="233"/>
-      <c r="P2" s="234"/>
-      <c r="Q2" s="234"/>
-      <c r="R2" s="235"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="227" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="222"/>
+      <c r="Q2" s="222"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="229"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AB2" s="217"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="215" t="str">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="227" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="217"/>
+      <c r="AH2" s="228"/>
+      <c r="AI2" s="229"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="227" t="s">
+      <c r="A3" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="188" t="str">
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="237"/>
-      <c r="Q3" s="237"/>
-      <c r="R3" s="238"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="226"/>
-      <c r="AA3" s="227"/>
-      <c r="AB3" s="229"/>
-      <c r="AC3" s="178" t="str">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="224"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="217"/>
+      <c r="AC3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="215" t="str">
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="227" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="216"/>
-      <c r="AI3" s="217"/>
+      <c r="AH3" s="228"/>
+      <c r="AI3" s="229"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="44"/>
@@ -9841,14 +9841,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9858,6 +9850,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -9886,157 +9886,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="188" t="str">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="218" t="str">
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="230" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="194" t="s">
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="249">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="240">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="251"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="188" t="str">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="194" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="249" t="str">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="250"/>
-      <c r="AI2" s="251"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="188" t="str">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="226"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="178" t="str">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="249" t="str">
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="250"/>
-      <c r="AI3" s="251"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
       <c r="A4" s="30"/>
@@ -10192,92 +10192,92 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="242" t="s">
+      <c r="D8" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="252" t="s">
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="253"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="253"/>
-      <c r="M8" s="253"/>
-      <c r="N8" s="253"/>
-      <c r="O8" s="253"/>
-      <c r="P8" s="253"/>
-      <c r="Q8" s="253"/>
-      <c r="R8" s="253"/>
-      <c r="S8" s="253"/>
-      <c r="T8" s="253"/>
-      <c r="U8" s="253"/>
-      <c r="V8" s="253"/>
-      <c r="W8" s="253"/>
-      <c r="X8" s="253"/>
-      <c r="Y8" s="253"/>
-      <c r="Z8" s="253"/>
-      <c r="AA8" s="253"/>
-      <c r="AB8" s="253"/>
-      <c r="AC8" s="253"/>
-      <c r="AD8" s="253"/>
-      <c r="AE8" s="253"/>
-      <c r="AF8" s="253"/>
-      <c r="AG8" s="253"/>
-      <c r="AH8" s="253"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="244"/>
+      <c r="M8" s="244"/>
+      <c r="N8" s="244"/>
+      <c r="O8" s="244"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="244"/>
+      <c r="R8" s="244"/>
+      <c r="S8" s="244"/>
+      <c r="T8" s="244"/>
+      <c r="U8" s="244"/>
+      <c r="V8" s="244"/>
+      <c r="W8" s="244"/>
+      <c r="X8" s="244"/>
+      <c r="Y8" s="244"/>
+      <c r="Z8" s="244"/>
+      <c r="AA8" s="244"/>
+      <c r="AB8" s="244"/>
+      <c r="AC8" s="244"/>
+      <c r="AD8" s="244"/>
+      <c r="AE8" s="244"/>
+      <c r="AF8" s="244"/>
+      <c r="AG8" s="244"/>
+      <c r="AH8" s="244"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="242" t="s">
+      <c r="D9" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="248" t="s">
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="248"/>
-      <c r="J9" s="248"/>
-      <c r="K9" s="248"/>
-      <c r="L9" s="248"/>
-      <c r="M9" s="248"/>
-      <c r="N9" s="248"/>
-      <c r="O9" s="248"/>
-      <c r="P9" s="248"/>
-      <c r="Q9" s="248"/>
-      <c r="R9" s="248"/>
-      <c r="S9" s="248"/>
-      <c r="T9" s="248"/>
-      <c r="U9" s="248"/>
-      <c r="V9" s="248"/>
-      <c r="W9" s="248"/>
-      <c r="X9" s="248"/>
-      <c r="Y9" s="248"/>
-      <c r="Z9" s="248"/>
-      <c r="AA9" s="248"/>
-      <c r="AB9" s="248"/>
-      <c r="AC9" s="248"/>
-      <c r="AD9" s="248"/>
-      <c r="AE9" s="248"/>
-      <c r="AF9" s="248"/>
-      <c r="AG9" s="248"/>
-      <c r="AH9" s="248"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="239"/>
+      <c r="M9" s="239"/>
+      <c r="N9" s="239"/>
+      <c r="O9" s="239"/>
+      <c r="P9" s="239"/>
+      <c r="Q9" s="239"/>
+      <c r="R9" s="239"/>
+      <c r="S9" s="239"/>
+      <c r="T9" s="239"/>
+      <c r="U9" s="239"/>
+      <c r="V9" s="239"/>
+      <c r="W9" s="239"/>
+      <c r="X9" s="239"/>
+      <c r="Y9" s="239"/>
+      <c r="Z9" s="239"/>
+      <c r="AA9" s="239"/>
+      <c r="AB9" s="239"/>
+      <c r="AC9" s="239"/>
+      <c r="AD9" s="239"/>
+      <c r="AE9" s="239"/>
+      <c r="AF9" s="239"/>
+      <c r="AG9" s="239"/>
+      <c r="AH9" s="239"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="239" t="s">
+      <c r="D10" s="248" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="240"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="241"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="250"/>
       <c r="H10" s="103" t="s">
         <v>117</v>
       </c>
@@ -10312,172 +10312,172 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="242" t="s">
+      <c r="D11" s="245" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="252" t="s">
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="253"/>
-      <c r="N11" s="253"/>
-      <c r="O11" s="253"/>
-      <c r="P11" s="253"/>
-      <c r="Q11" s="253"/>
-      <c r="R11" s="253"/>
-      <c r="S11" s="253"/>
-      <c r="T11" s="253"/>
-      <c r="U11" s="253"/>
-      <c r="V11" s="253"/>
-      <c r="W11" s="253"/>
-      <c r="X11" s="253"/>
-      <c r="Y11" s="253"/>
-      <c r="Z11" s="253"/>
-      <c r="AA11" s="253"/>
-      <c r="AB11" s="253"/>
-      <c r="AC11" s="253"/>
-      <c r="AD11" s="253"/>
-      <c r="AE11" s="253"/>
-      <c r="AF11" s="253"/>
-      <c r="AG11" s="253"/>
-      <c r="AH11" s="253"/>
+      <c r="I11" s="244"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="244"/>
+      <c r="M11" s="244"/>
+      <c r="N11" s="244"/>
+      <c r="O11" s="244"/>
+      <c r="P11" s="244"/>
+      <c r="Q11" s="244"/>
+      <c r="R11" s="244"/>
+      <c r="S11" s="244"/>
+      <c r="T11" s="244"/>
+      <c r="U11" s="244"/>
+      <c r="V11" s="244"/>
+      <c r="W11" s="244"/>
+      <c r="X11" s="244"/>
+      <c r="Y11" s="244"/>
+      <c r="Z11" s="244"/>
+      <c r="AA11" s="244"/>
+      <c r="AB11" s="244"/>
+      <c r="AC11" s="244"/>
+      <c r="AD11" s="244"/>
+      <c r="AE11" s="244"/>
+      <c r="AF11" s="244"/>
+      <c r="AG11" s="244"/>
+      <c r="AH11" s="244"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="242" t="s">
+      <c r="D12" s="245" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="243"/>
-      <c r="F12" s="243"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="248" t="s">
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="239" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="248"/>
-      <c r="J12" s="248"/>
-      <c r="K12" s="248"/>
-      <c r="L12" s="248"/>
-      <c r="M12" s="248"/>
-      <c r="N12" s="248"/>
-      <c r="O12" s="248"/>
-      <c r="P12" s="248"/>
-      <c r="Q12" s="248"/>
-      <c r="R12" s="248"/>
-      <c r="S12" s="248"/>
-      <c r="T12" s="248"/>
-      <c r="U12" s="248"/>
-      <c r="V12" s="248"/>
-      <c r="W12" s="248"/>
-      <c r="X12" s="248"/>
-      <c r="Y12" s="248"/>
-      <c r="Z12" s="248"/>
-      <c r="AA12" s="248"/>
-      <c r="AB12" s="248"/>
-      <c r="AC12" s="248"/>
-      <c r="AD12" s="248"/>
-      <c r="AE12" s="248"/>
-      <c r="AF12" s="248"/>
-      <c r="AG12" s="248"/>
-      <c r="AH12" s="248"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="239"/>
+      <c r="M12" s="239"/>
+      <c r="N12" s="239"/>
+      <c r="O12" s="239"/>
+      <c r="P12" s="239"/>
+      <c r="Q12" s="239"/>
+      <c r="R12" s="239"/>
+      <c r="S12" s="239"/>
+      <c r="T12" s="239"/>
+      <c r="U12" s="239"/>
+      <c r="V12" s="239"/>
+      <c r="W12" s="239"/>
+      <c r="X12" s="239"/>
+      <c r="Y12" s="239"/>
+      <c r="Z12" s="239"/>
+      <c r="AA12" s="239"/>
+      <c r="AB12" s="239"/>
+      <c r="AC12" s="239"/>
+      <c r="AD12" s="239"/>
+      <c r="AE12" s="239"/>
+      <c r="AF12" s="239"/>
+      <c r="AG12" s="239"/>
+      <c r="AH12" s="239"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="242" t="s">
+      <c r="D13" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="243"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="248" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" s="248"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="248"/>
-      <c r="L13" s="248"/>
-      <c r="M13" s="248"/>
-      <c r="N13" s="248"/>
-      <c r="O13" s="248"/>
-      <c r="P13" s="248"/>
-      <c r="Q13" s="248"/>
-      <c r="R13" s="248"/>
-      <c r="S13" s="248"/>
-      <c r="T13" s="248"/>
-      <c r="U13" s="248"/>
-      <c r="V13" s="248"/>
-      <c r="W13" s="248"/>
-      <c r="X13" s="248"/>
-      <c r="Y13" s="248"/>
-      <c r="Z13" s="248"/>
-      <c r="AA13" s="248"/>
-      <c r="AB13" s="248"/>
-      <c r="AC13" s="248"/>
-      <c r="AD13" s="248"/>
-      <c r="AE13" s="248"/>
-      <c r="AF13" s="248"/>
-      <c r="AG13" s="248"/>
-      <c r="AH13" s="248"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="239" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="239"/>
+      <c r="J13" s="239"/>
+      <c r="K13" s="239"/>
+      <c r="L13" s="239"/>
+      <c r="M13" s="239"/>
+      <c r="N13" s="239"/>
+      <c r="O13" s="239"/>
+      <c r="P13" s="239"/>
+      <c r="Q13" s="239"/>
+      <c r="R13" s="239"/>
+      <c r="S13" s="239"/>
+      <c r="T13" s="239"/>
+      <c r="U13" s="239"/>
+      <c r="V13" s="239"/>
+      <c r="W13" s="239"/>
+      <c r="X13" s="239"/>
+      <c r="Y13" s="239"/>
+      <c r="Z13" s="239"/>
+      <c r="AA13" s="239"/>
+      <c r="AB13" s="239"/>
+      <c r="AC13" s="239"/>
+      <c r="AD13" s="239"/>
+      <c r="AE13" s="239"/>
+      <c r="AF13" s="239"/>
+      <c r="AG13" s="239"/>
+      <c r="AH13" s="239"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="242" t="s">
+      <c r="D14" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="243"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="248" t="s">
+      <c r="E14" s="246"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="247"/>
+      <c r="H14" s="239" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="248"/>
-      <c r="J14" s="248"/>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
-      <c r="M14" s="248"/>
-      <c r="N14" s="248"/>
-      <c r="O14" s="248"/>
-      <c r="P14" s="248"/>
-      <c r="Q14" s="248"/>
-      <c r="R14" s="248"/>
-      <c r="S14" s="248"/>
-      <c r="T14" s="248"/>
-      <c r="U14" s="248"/>
-      <c r="V14" s="248"/>
-      <c r="W14" s="248"/>
-      <c r="X14" s="248"/>
-      <c r="Y14" s="248"/>
-      <c r="Z14" s="248"/>
-      <c r="AA14" s="248"/>
-      <c r="AB14" s="248"/>
-      <c r="AC14" s="248"/>
-      <c r="AD14" s="248"/>
-      <c r="AE14" s="248"/>
-      <c r="AF14" s="248"/>
-      <c r="AG14" s="248"/>
-      <c r="AH14" s="248"/>
+      <c r="I14" s="239"/>
+      <c r="J14" s="239"/>
+      <c r="K14" s="239"/>
+      <c r="L14" s="239"/>
+      <c r="M14" s="239"/>
+      <c r="N14" s="239"/>
+      <c r="O14" s="239"/>
+      <c r="P14" s="239"/>
+      <c r="Q14" s="239"/>
+      <c r="R14" s="239"/>
+      <c r="S14" s="239"/>
+      <c r="T14" s="239"/>
+      <c r="U14" s="239"/>
+      <c r="V14" s="239"/>
+      <c r="W14" s="239"/>
+      <c r="X14" s="239"/>
+      <c r="Y14" s="239"/>
+      <c r="Z14" s="239"/>
+      <c r="AA14" s="239"/>
+      <c r="AB14" s="239"/>
+      <c r="AC14" s="239"/>
+      <c r="AD14" s="239"/>
+      <c r="AE14" s="239"/>
+      <c r="AF14" s="239"/>
+      <c r="AG14" s="239"/>
+      <c r="AH14" s="239"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="242" t="s">
+      <c r="D15" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="243"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="244"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="247"/>
       <c r="H15" s="144" t="s">
         <v>118</v>
       </c>
@@ -10629,30 +10629,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="247"/>
-      <c r="K19" s="247"/>
-      <c r="L19" s="247"/>
-      <c r="M19" s="247"/>
-      <c r="N19" s="247"/>
-      <c r="O19" s="245"/>
-      <c r="P19" s="246"/>
-      <c r="Q19" s="246"/>
-      <c r="R19" s="246"/>
-      <c r="S19" s="246"/>
-      <c r="T19" s="246"/>
-      <c r="U19" s="246"/>
-      <c r="V19" s="246"/>
-      <c r="W19" s="246"/>
-      <c r="X19" s="246"/>
-      <c r="Y19" s="246"/>
-      <c r="Z19" s="246"/>
-      <c r="AA19" s="246"/>
-      <c r="AB19" s="246"/>
-      <c r="AC19" s="246"/>
-      <c r="AD19" s="246"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="253"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="253"/>
+      <c r="M19" s="253"/>
+      <c r="N19" s="253"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="252"/>
+      <c r="Q19" s="252"/>
+      <c r="R19" s="252"/>
+      <c r="S19" s="252"/>
+      <c r="T19" s="252"/>
+      <c r="U19" s="252"/>
+      <c r="V19" s="252"/>
+      <c r="W19" s="252"/>
+      <c r="X19" s="252"/>
+      <c r="Y19" s="252"/>
+      <c r="Z19" s="252"/>
+      <c r="AA19" s="252"/>
+      <c r="AB19" s="252"/>
+      <c r="AC19" s="252"/>
+      <c r="AD19" s="252"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
@@ -11104,14 +11104,15 @@
     <row r="34" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11128,15 +11129,14 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11165,157 +11165,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="188" t="str">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="218" t="str">
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="230" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="194" t="s">
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="249">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="240">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="251"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="188" t="str">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="194" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="249" t="str">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="250"/>
-      <c r="AI2" s="251"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="188" t="str">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="226"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="178" t="str">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="249" t="str">
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="250"/>
-      <c r="AI3" s="251"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" ht="12" customHeight="1">
@@ -11325,6 +11325,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11336,12 +11342,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11361,8 +11361,8 @@
   </sheetPr>
   <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -11371,163 +11371,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="188" t="str">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="218" t="str">
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="230" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="194" t="s">
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="249">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="240">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="251"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="188" t="str">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="194" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="249" t="str">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="250"/>
-      <c r="AI2" s="251"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="188" t="str">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="226"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="178" t="str">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="249" t="str">
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="250"/>
-      <c r="AI3" s="251"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11645,65 +11645,65 @@
     <row r="8" spans="1:38">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="285" t="s">
+      <c r="D8" s="329" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="287" t="s">
+      <c r="E8" s="331" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="288"/>
-      <c r="G8" s="288"/>
-      <c r="H8" s="288"/>
-      <c r="I8" s="288"/>
-      <c r="J8" s="289"/>
-      <c r="K8" s="293" t="s">
+      <c r="F8" s="332"/>
+      <c r="G8" s="332"/>
+      <c r="H8" s="332"/>
+      <c r="I8" s="332"/>
+      <c r="J8" s="333"/>
+      <c r="K8" s="337" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="288"/>
-      <c r="M8" s="288"/>
-      <c r="N8" s="289"/>
-      <c r="O8" s="272" t="s">
+      <c r="L8" s="332"/>
+      <c r="M8" s="332"/>
+      <c r="N8" s="333"/>
+      <c r="O8" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="277" t="s">
+      <c r="P8" s="343" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="278"/>
-      <c r="R8" s="278"/>
-      <c r="S8" s="278"/>
-      <c r="T8" s="278"/>
-      <c r="U8" s="279"/>
-      <c r="V8" s="274" t="s">
+      <c r="Q8" s="344"/>
+      <c r="R8" s="344"/>
+      <c r="S8" s="344"/>
+      <c r="T8" s="344"/>
+      <c r="U8" s="345"/>
+      <c r="V8" s="340" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="274"/>
-      <c r="X8" s="274"/>
-      <c r="Y8" s="274"/>
-      <c r="Z8" s="274"/>
-      <c r="AA8" s="274"/>
-      <c r="AB8" s="274"/>
-      <c r="AC8" s="274"/>
-      <c r="AD8" s="274"/>
-      <c r="AE8" s="274"/>
-      <c r="AF8" s="274"/>
-      <c r="AG8" s="274"/>
-      <c r="AH8" s="274"/>
+      <c r="W8" s="340"/>
+      <c r="X8" s="340"/>
+      <c r="Y8" s="340"/>
+      <c r="Z8" s="340"/>
+      <c r="AA8" s="340"/>
+      <c r="AB8" s="340"/>
+      <c r="AC8" s="340"/>
+      <c r="AD8" s="340"/>
+      <c r="AE8" s="340"/>
+      <c r="AF8" s="340"/>
+      <c r="AG8" s="340"/>
+      <c r="AH8" s="340"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="286"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="291"/>
-      <c r="M9" s="291"/>
-      <c r="N9" s="292"/>
-      <c r="O9" s="273"/>
+      <c r="D9" s="330"/>
+      <c r="E9" s="334"/>
+      <c r="F9" s="335"/>
+      <c r="G9" s="335"/>
+      <c r="H9" s="335"/>
+      <c r="I9" s="335"/>
+      <c r="J9" s="336"/>
+      <c r="K9" s="334"/>
+      <c r="L9" s="335"/>
+      <c r="M9" s="335"/>
+      <c r="N9" s="336"/>
+      <c r="O9" s="339"/>
       <c r="P9" s="90" t="s">
         <v>46</v>
       </c>
@@ -11716,23 +11716,23 @@
       <c r="S9" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="275" t="s">
+      <c r="T9" s="341" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="276"/>
-      <c r="V9" s="274"/>
-      <c r="W9" s="274"/>
-      <c r="X9" s="274"/>
-      <c r="Y9" s="274"/>
-      <c r="Z9" s="274"/>
-      <c r="AA9" s="274"/>
-      <c r="AB9" s="274"/>
-      <c r="AC9" s="274"/>
-      <c r="AD9" s="274"/>
-      <c r="AE9" s="274"/>
-      <c r="AF9" s="274"/>
-      <c r="AG9" s="274"/>
-      <c r="AH9" s="274"/>
+      <c r="U9" s="342"/>
+      <c r="V9" s="340"/>
+      <c r="W9" s="340"/>
+      <c r="X9" s="340"/>
+      <c r="Y9" s="340"/>
+      <c r="Z9" s="340"/>
+      <c r="AA9" s="340"/>
+      <c r="AB9" s="340"/>
+      <c r="AC9" s="340"/>
+      <c r="AD9" s="340"/>
+      <c r="AE9" s="340"/>
+      <c r="AF9" s="340"/>
+      <c r="AG9" s="340"/>
+      <c r="AH9" s="340"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" s="30"/>
@@ -11740,20 +11740,20 @@
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="269" t="s">
+      <c r="E10" s="263" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="160" t="s">
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="162"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="199"/>
       <c r="O10" s="115" t="s">
         <v>79</v>
       </c>
@@ -11769,23 +11769,23 @@
       <c r="S10" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="270" t="s">
+      <c r="T10" s="255" t="s">
         <v>82</v>
       </c>
-      <c r="U10" s="271"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="161"/>
-      <c r="AB10" s="161"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="161"/>
-      <c r="AE10" s="161"/>
-      <c r="AF10" s="161"/>
-      <c r="AG10" s="161"/>
-      <c r="AH10" s="162"/>
+      <c r="U10" s="256"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="198"/>
+      <c r="X10" s="198"/>
+      <c r="Y10" s="198"/>
+      <c r="Z10" s="198"/>
+      <c r="AA10" s="198"/>
+      <c r="AB10" s="198"/>
+      <c r="AC10" s="198"/>
+      <c r="AD10" s="198"/>
+      <c r="AE10" s="198"/>
+      <c r="AF10" s="198"/>
+      <c r="AG10" s="198"/>
+      <c r="AH10" s="199"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" s="30"/>
@@ -11793,20 +11793,20 @@
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="269" t="s">
+      <c r="E11" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="160" t="s">
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="197" t="s">
         <v>122</v>
       </c>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="162"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="198"/>
+      <c r="N11" s="199"/>
       <c r="O11" s="116" t="s">
         <v>80</v>
       </c>
@@ -11822,23 +11822,23 @@
       <c r="S11" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="T11" s="270" t="s">
+      <c r="T11" s="255" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="271"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="161"/>
-      <c r="AB11" s="161"/>
-      <c r="AC11" s="161"/>
-      <c r="AD11" s="161"/>
-      <c r="AE11" s="161"/>
-      <c r="AF11" s="161"/>
-      <c r="AG11" s="161"/>
-      <c r="AH11" s="162"/>
+      <c r="U11" s="256"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="198"/>
+      <c r="Y11" s="198"/>
+      <c r="Z11" s="198"/>
+      <c r="AA11" s="198"/>
+      <c r="AB11" s="198"/>
+      <c r="AC11" s="198"/>
+      <c r="AD11" s="198"/>
+      <c r="AE11" s="198"/>
+      <c r="AF11" s="198"/>
+      <c r="AG11" s="198"/>
+      <c r="AH11" s="199"/>
     </row>
     <row r="12" spans="1:38">
       <c r="B12" s="30"/>
@@ -11846,20 +11846,20 @@
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="269" t="s">
+      <c r="E12" s="263" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="160" t="s">
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="162"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="199"/>
       <c r="O12" s="116" t="s">
         <v>80</v>
       </c>
@@ -11875,23 +11875,23 @@
       <c r="S12" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="T12" s="270" t="s">
+      <c r="T12" s="255" t="s">
         <v>82</v>
       </c>
-      <c r="U12" s="271"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="161"/>
-      <c r="AA12" s="161"/>
-      <c r="AB12" s="161"/>
-      <c r="AC12" s="161"/>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="161"/>
-      <c r="AF12" s="161"/>
-      <c r="AG12" s="161"/>
-      <c r="AH12" s="162"/>
+      <c r="U12" s="256"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="198"/>
+      <c r="Z12" s="198"/>
+      <c r="AA12" s="198"/>
+      <c r="AB12" s="198"/>
+      <c r="AC12" s="198"/>
+      <c r="AD12" s="198"/>
+      <c r="AE12" s="198"/>
+      <c r="AF12" s="198"/>
+      <c r="AG12" s="198"/>
+      <c r="AH12" s="199"/>
     </row>
     <row r="13" spans="1:38">
       <c r="B13" s="30"/>
@@ -12041,40 +12041,40 @@
       <c r="D17" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="282" t="s">
+      <c r="E17" s="347" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="283"/>
-      <c r="G17" s="284"/>
-      <c r="H17" s="351" t="s">
+      <c r="F17" s="348"/>
+      <c r="G17" s="349"/>
+      <c r="H17" s="260" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="352"/>
-      <c r="J17" s="352"/>
-      <c r="K17" s="352"/>
-      <c r="L17" s="352"/>
-      <c r="M17" s="352"/>
-      <c r="N17" s="352"/>
-      <c r="O17" s="352"/>
-      <c r="P17" s="352"/>
-      <c r="Q17" s="352"/>
-      <c r="R17" s="352"/>
-      <c r="S17" s="352"/>
-      <c r="T17" s="352"/>
-      <c r="U17" s="352"/>
-      <c r="V17" s="352"/>
-      <c r="W17" s="352"/>
-      <c r="X17" s="352"/>
-      <c r="Y17" s="352"/>
-      <c r="Z17" s="352"/>
-      <c r="AA17" s="352"/>
-      <c r="AB17" s="352"/>
-      <c r="AC17" s="352"/>
-      <c r="AD17" s="352"/>
-      <c r="AE17" s="352"/>
-      <c r="AF17" s="352"/>
-      <c r="AG17" s="352"/>
-      <c r="AH17" s="353"/>
+      <c r="I17" s="261"/>
+      <c r="J17" s="261"/>
+      <c r="K17" s="261"/>
+      <c r="L17" s="261"/>
+      <c r="M17" s="261"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="261"/>
+      <c r="P17" s="261"/>
+      <c r="Q17" s="261"/>
+      <c r="R17" s="261"/>
+      <c r="S17" s="261"/>
+      <c r="T17" s="261"/>
+      <c r="U17" s="261"/>
+      <c r="V17" s="261"/>
+      <c r="W17" s="261"/>
+      <c r="X17" s="261"/>
+      <c r="Y17" s="261"/>
+      <c r="Z17" s="261"/>
+      <c r="AA17" s="261"/>
+      <c r="AB17" s="261"/>
+      <c r="AC17" s="261"/>
+      <c r="AD17" s="261"/>
+      <c r="AE17" s="261"/>
+      <c r="AF17" s="261"/>
+      <c r="AG17" s="261"/>
+      <c r="AH17" s="262"/>
     </row>
     <row r="18" spans="1:35" s="88" customFormat="1" ht="23.25" customHeight="1">
       <c r="B18" s="30"/>
@@ -12082,40 +12082,40 @@
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="269" t="s">
+      <c r="E18" s="263" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="161"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="269" t="s">
+      <c r="F18" s="198"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="263" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="161"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="161"/>
-      <c r="X18" s="161"/>
-      <c r="Y18" s="161"/>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="161"/>
-      <c r="AB18" s="161"/>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="161"/>
-      <c r="AE18" s="161"/>
-      <c r="AF18" s="161"/>
-      <c r="AG18" s="161"/>
-      <c r="AH18" s="162"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="198"/>
+      <c r="Q18" s="198"/>
+      <c r="R18" s="198"/>
+      <c r="S18" s="198"/>
+      <c r="T18" s="198"/>
+      <c r="U18" s="198"/>
+      <c r="V18" s="198"/>
+      <c r="W18" s="198"/>
+      <c r="X18" s="198"/>
+      <c r="Y18" s="198"/>
+      <c r="Z18" s="198"/>
+      <c r="AA18" s="198"/>
+      <c r="AB18" s="198"/>
+      <c r="AC18" s="198"/>
+      <c r="AD18" s="198"/>
+      <c r="AE18" s="198"/>
+      <c r="AF18" s="198"/>
+      <c r="AG18" s="198"/>
+      <c r="AH18" s="199"/>
     </row>
     <row r="19" spans="1:35" ht="23.25" customHeight="1">
       <c r="B19" s="1"/>
@@ -12123,40 +12123,40 @@
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="269" t="s">
+      <c r="E19" s="263" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="161"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="269" t="s">
+      <c r="F19" s="198"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="263" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="161"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="161"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="161"/>
-      <c r="AC19" s="161"/>
-      <c r="AD19" s="161"/>
-      <c r="AE19" s="161"/>
-      <c r="AF19" s="161"/>
-      <c r="AG19" s="161"/>
-      <c r="AH19" s="162"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="198"/>
+      <c r="O19" s="198"/>
+      <c r="P19" s="198"/>
+      <c r="Q19" s="198"/>
+      <c r="R19" s="198"/>
+      <c r="S19" s="198"/>
+      <c r="T19" s="198"/>
+      <c r="U19" s="198"/>
+      <c r="V19" s="198"/>
+      <c r="W19" s="198"/>
+      <c r="X19" s="198"/>
+      <c r="Y19" s="198"/>
+      <c r="Z19" s="198"/>
+      <c r="AA19" s="198"/>
+      <c r="AB19" s="198"/>
+      <c r="AC19" s="198"/>
+      <c r="AD19" s="198"/>
+      <c r="AE19" s="198"/>
+      <c r="AF19" s="198"/>
+      <c r="AG19" s="198"/>
+      <c r="AH19" s="199"/>
     </row>
     <row r="20" spans="1:35" ht="23.25" customHeight="1">
       <c r="B20" s="1"/>
@@ -12164,40 +12164,40 @@
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="269" t="s">
+      <c r="E20" s="263" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="161"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="269" t="s">
+      <c r="F20" s="198"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="263" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="161"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="161"/>
-      <c r="X20" s="161"/>
-      <c r="Y20" s="161"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="161"/>
-      <c r="AB20" s="161"/>
-      <c r="AC20" s="161"/>
-      <c r="AD20" s="161"/>
-      <c r="AE20" s="161"/>
-      <c r="AF20" s="161"/>
-      <c r="AG20" s="161"/>
-      <c r="AH20" s="162"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
+      <c r="N20" s="198"/>
+      <c r="O20" s="198"/>
+      <c r="P20" s="198"/>
+      <c r="Q20" s="198"/>
+      <c r="R20" s="198"/>
+      <c r="S20" s="198"/>
+      <c r="T20" s="198"/>
+      <c r="U20" s="198"/>
+      <c r="V20" s="198"/>
+      <c r="W20" s="198"/>
+      <c r="X20" s="198"/>
+      <c r="Y20" s="198"/>
+      <c r="Z20" s="198"/>
+      <c r="AA20" s="198"/>
+      <c r="AB20" s="198"/>
+      <c r="AC20" s="198"/>
+      <c r="AD20" s="198"/>
+      <c r="AE20" s="198"/>
+      <c r="AF20" s="198"/>
+      <c r="AG20" s="198"/>
+      <c r="AH20" s="199"/>
     </row>
     <row r="21" spans="1:35">
       <c r="B21" s="87"/>
@@ -12455,44 +12455,44 @@
       <c r="B28" s="87"/>
       <c r="C28" s="93"/>
       <c r="D28" s="124"/>
-      <c r="E28" s="280" t="s">
+      <c r="E28" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="280"/>
-      <c r="G28" s="281" t="s">
+      <c r="F28" s="325"/>
+      <c r="G28" s="346" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="281"/>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
-      <c r="K28" s="281"/>
-      <c r="L28" s="281"/>
-      <c r="M28" s="280" t="s">
+      <c r="H28" s="346"/>
+      <c r="I28" s="346"/>
+      <c r="J28" s="346"/>
+      <c r="K28" s="346"/>
+      <c r="L28" s="346"/>
+      <c r="M28" s="325" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="280"/>
-      <c r="O28" s="266" t="s">
+      <c r="N28" s="325"/>
+      <c r="O28" s="284" t="s">
         <v>83</v>
       </c>
-      <c r="P28" s="267"/>
-      <c r="Q28" s="267"/>
-      <c r="R28" s="267"/>
-      <c r="S28" s="267"/>
-      <c r="T28" s="267"/>
-      <c r="U28" s="267"/>
-      <c r="V28" s="267"/>
-      <c r="W28" s="267"/>
-      <c r="X28" s="267"/>
-      <c r="Y28" s="267"/>
-      <c r="Z28" s="267"/>
-      <c r="AA28" s="267"/>
-      <c r="AB28" s="267"/>
-      <c r="AC28" s="267"/>
-      <c r="AD28" s="267"/>
-      <c r="AE28" s="267"/>
-      <c r="AF28" s="267"/>
-      <c r="AG28" s="267"/>
-      <c r="AH28" s="268"/>
+      <c r="P28" s="285"/>
+      <c r="Q28" s="285"/>
+      <c r="R28" s="285"/>
+      <c r="S28" s="285"/>
+      <c r="T28" s="285"/>
+      <c r="U28" s="285"/>
+      <c r="V28" s="285"/>
+      <c r="W28" s="285"/>
+      <c r="X28" s="285"/>
+      <c r="Y28" s="285"/>
+      <c r="Z28" s="285"/>
+      <c r="AA28" s="285"/>
+      <c r="AB28" s="285"/>
+      <c r="AC28" s="285"/>
+      <c r="AD28" s="285"/>
+      <c r="AE28" s="285"/>
+      <c r="AF28" s="285"/>
+      <c r="AG28" s="285"/>
+      <c r="AH28" s="286"/>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="48"/>
@@ -12694,43 +12694,43 @@
       <c r="E35" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="300" t="s">
+      <c r="F35" s="287" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="301"/>
-      <c r="H35" s="301"/>
-      <c r="I35" s="301"/>
-      <c r="J35" s="301"/>
-      <c r="K35" s="302"/>
-      <c r="L35" s="303" t="s">
+      <c r="G35" s="288"/>
+      <c r="H35" s="288"/>
+      <c r="I35" s="288"/>
+      <c r="J35" s="288"/>
+      <c r="K35" s="289"/>
+      <c r="L35" s="290" t="s">
         <v>98</v>
       </c>
-      <c r="M35" s="301"/>
-      <c r="N35" s="301"/>
-      <c r="O35" s="301"/>
-      <c r="P35" s="301"/>
-      <c r="Q35" s="301"/>
-      <c r="R35" s="301"/>
-      <c r="S35" s="301"/>
-      <c r="T35" s="301"/>
-      <c r="U35" s="302"/>
-      <c r="V35" s="304" t="s">
+      <c r="M35" s="288"/>
+      <c r="N35" s="288"/>
+      <c r="O35" s="288"/>
+      <c r="P35" s="288"/>
+      <c r="Q35" s="288"/>
+      <c r="R35" s="288"/>
+      <c r="S35" s="288"/>
+      <c r="T35" s="288"/>
+      <c r="U35" s="289"/>
+      <c r="V35" s="291" t="s">
         <v>99</v>
       </c>
-      <c r="W35" s="305"/>
-      <c r="X35" s="306"/>
-      <c r="Y35" s="304" t="s">
+      <c r="W35" s="292"/>
+      <c r="X35" s="293"/>
+      <c r="Y35" s="291" t="s">
         <v>100</v>
       </c>
-      <c r="Z35" s="305"/>
-      <c r="AA35" s="305"/>
-      <c r="AB35" s="306"/>
-      <c r="AC35" s="307" t="s">
+      <c r="Z35" s="292"/>
+      <c r="AA35" s="292"/>
+      <c r="AB35" s="293"/>
+      <c r="AC35" s="294" t="s">
         <v>101</v>
       </c>
-      <c r="AD35" s="308"/>
-      <c r="AE35" s="308"/>
-      <c r="AF35" s="309"/>
+      <c r="AD35" s="295"/>
+      <c r="AE35" s="295"/>
+      <c r="AF35" s="296"/>
       <c r="AG35" s="48"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
@@ -12743,43 +12743,43 @@
       <c r="E36" s="129">
         <v>1</v>
       </c>
-      <c r="F36" s="333" t="s">
+      <c r="F36" s="321" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="313"/>
-      <c r="H36" s="313"/>
-      <c r="I36" s="313"/>
-      <c r="J36" s="313"/>
-      <c r="K36" s="314"/>
-      <c r="L36" s="254" t="s">
+      <c r="G36" s="301"/>
+      <c r="H36" s="301"/>
+      <c r="I36" s="301"/>
+      <c r="J36" s="301"/>
+      <c r="K36" s="302"/>
+      <c r="L36" s="300" t="s">
         <v>103</v>
       </c>
-      <c r="M36" s="313"/>
-      <c r="N36" s="313"/>
-      <c r="O36" s="313"/>
-      <c r="P36" s="313"/>
-      <c r="Q36" s="313"/>
-      <c r="R36" s="313"/>
-      <c r="S36" s="313"/>
-      <c r="T36" s="313"/>
-      <c r="U36" s="314"/>
-      <c r="V36" s="334" t="s">
+      <c r="M36" s="301"/>
+      <c r="N36" s="301"/>
+      <c r="O36" s="301"/>
+      <c r="P36" s="301"/>
+      <c r="Q36" s="301"/>
+      <c r="R36" s="301"/>
+      <c r="S36" s="301"/>
+      <c r="T36" s="301"/>
+      <c r="U36" s="302"/>
+      <c r="V36" s="322" t="s">
         <v>104</v>
       </c>
-      <c r="W36" s="335"/>
-      <c r="X36" s="336"/>
-      <c r="Y36" s="310" t="s">
+      <c r="W36" s="323"/>
+      <c r="X36" s="324"/>
+      <c r="Y36" s="297" t="s">
         <v>105</v>
       </c>
-      <c r="Z36" s="311"/>
-      <c r="AA36" s="311"/>
-      <c r="AB36" s="312"/>
-      <c r="AC36" s="254" t="s">
+      <c r="Z36" s="298"/>
+      <c r="AA36" s="298"/>
+      <c r="AB36" s="299"/>
+      <c r="AC36" s="300" t="s">
         <v>129</v>
       </c>
-      <c r="AD36" s="313"/>
-      <c r="AE36" s="313"/>
-      <c r="AF36" s="314"/>
+      <c r="AD36" s="301"/>
+      <c r="AE36" s="301"/>
+      <c r="AF36" s="302"/>
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
@@ -12865,80 +12865,80 @@
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
       <c r="D39"/>
-      <c r="E39" s="264" t="s">
+      <c r="E39" s="350" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="265"/>
-      <c r="G39" s="265"/>
-      <c r="H39" s="265"/>
-      <c r="I39" s="265"/>
-      <c r="J39" s="260" t="s">
+      <c r="F39" s="351"/>
+      <c r="G39" s="351"/>
+      <c r="H39" s="351"/>
+      <c r="I39" s="351"/>
+      <c r="J39" s="357" t="s">
         <v>132</v>
       </c>
-      <c r="K39" s="260"/>
-      <c r="L39" s="260"/>
-      <c r="M39" s="261" t="s">
+      <c r="K39" s="357"/>
+      <c r="L39" s="357"/>
+      <c r="M39" s="358" t="s">
         <v>133</v>
       </c>
-      <c r="N39" s="262"/>
-      <c r="O39" s="262"/>
-      <c r="P39" s="262"/>
-      <c r="Q39" s="262"/>
-      <c r="R39" s="262"/>
-      <c r="S39" s="263"/>
-      <c r="T39" s="261" t="s">
+      <c r="N39" s="359"/>
+      <c r="O39" s="359"/>
+      <c r="P39" s="359"/>
+      <c r="Q39" s="359"/>
+      <c r="R39" s="359"/>
+      <c r="S39" s="360"/>
+      <c r="T39" s="358" t="s">
         <v>100</v>
       </c>
-      <c r="U39" s="262"/>
-      <c r="V39" s="262"/>
-      <c r="W39" s="262"/>
-      <c r="X39" s="262"/>
-      <c r="Y39" s="262"/>
-      <c r="Z39" s="262"/>
-      <c r="AA39" s="262"/>
-      <c r="AB39" s="262"/>
-      <c r="AC39" s="262"/>
-      <c r="AD39" s="263"/>
+      <c r="U39" s="359"/>
+      <c r="V39" s="359"/>
+      <c r="W39" s="359"/>
+      <c r="X39" s="359"/>
+      <c r="Y39" s="359"/>
+      <c r="Z39" s="359"/>
+      <c r="AA39" s="359"/>
+      <c r="AB39" s="359"/>
+      <c r="AC39" s="359"/>
+      <c r="AD39" s="360"/>
     </row>
     <row r="40" spans="1:35" ht="11.25" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
       <c r="D40"/>
-      <c r="E40" s="254" t="s">
+      <c r="E40" s="300" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="255"/>
-      <c r="G40" s="255"/>
-      <c r="H40" s="255"/>
-      <c r="I40" s="255"/>
-      <c r="J40" s="256" t="s">
+      <c r="F40" s="352"/>
+      <c r="G40" s="352"/>
+      <c r="H40" s="352"/>
+      <c r="I40" s="352"/>
+      <c r="J40" s="353" t="s">
         <v>135</v>
       </c>
-      <c r="K40" s="256"/>
-      <c r="L40" s="256"/>
-      <c r="M40" s="257" t="s">
+      <c r="K40" s="353"/>
+      <c r="L40" s="353"/>
+      <c r="M40" s="354" t="s">
         <v>136</v>
       </c>
-      <c r="N40" s="258"/>
-      <c r="O40" s="258"/>
-      <c r="P40" s="258"/>
-      <c r="Q40" s="258"/>
-      <c r="R40" s="258"/>
-      <c r="S40" s="259"/>
-      <c r="T40" s="257" t="s">
+      <c r="N40" s="355"/>
+      <c r="O40" s="355"/>
+      <c r="P40" s="355"/>
+      <c r="Q40" s="355"/>
+      <c r="R40" s="355"/>
+      <c r="S40" s="356"/>
+      <c r="T40" s="354" t="s">
         <v>136</v>
       </c>
-      <c r="U40" s="258"/>
-      <c r="V40" s="258"/>
-      <c r="W40" s="258"/>
-      <c r="X40" s="258"/>
-      <c r="Y40" s="258"/>
-      <c r="Z40" s="258"/>
-      <c r="AA40" s="258"/>
-      <c r="AB40" s="258"/>
-      <c r="AC40" s="258"/>
-      <c r="AD40" s="259"/>
+      <c r="U40" s="355"/>
+      <c r="V40" s="355"/>
+      <c r="W40" s="355"/>
+      <c r="X40" s="355"/>
+      <c r="Y40" s="355"/>
+      <c r="Z40" s="355"/>
+      <c r="AA40" s="355"/>
+      <c r="AB40" s="355"/>
+      <c r="AC40" s="355"/>
+      <c r="AD40" s="356"/>
     </row>
     <row r="41" spans="1:35" ht="11.25" customHeight="1">
       <c r="A41" s="58"/>
@@ -13085,30 +13085,30 @@
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
-      <c r="E45" s="358" t="s">
+      <c r="E45" s="272" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="359"/>
-      <c r="G45" s="359"/>
-      <c r="H45" s="359"/>
-      <c r="I45" s="359"/>
-      <c r="J45" s="359"/>
-      <c r="K45" s="359"/>
-      <c r="L45" s="359"/>
-      <c r="M45" s="359"/>
-      <c r="N45" s="360"/>
-      <c r="O45" s="315" t="s">
+      <c r="F45" s="273"/>
+      <c r="G45" s="273"/>
+      <c r="H45" s="273"/>
+      <c r="I45" s="273"/>
+      <c r="J45" s="273"/>
+      <c r="K45" s="273"/>
+      <c r="L45" s="273"/>
+      <c r="M45" s="273"/>
+      <c r="N45" s="274"/>
+      <c r="O45" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="P45" s="316"/>
-      <c r="Q45" s="316"/>
-      <c r="R45" s="316"/>
-      <c r="S45" s="316"/>
-      <c r="T45" s="316"/>
-      <c r="U45" s="316"/>
-      <c r="V45" s="316"/>
-      <c r="W45" s="316"/>
-      <c r="X45" s="317"/>
+      <c r="P45" s="304"/>
+      <c r="Q45" s="304"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="304"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="304"/>
+      <c r="V45" s="304"/>
+      <c r="W45" s="304"/>
+      <c r="X45" s="305"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
       <c r="AA45" s="48"/>
@@ -13126,30 +13126,30 @@
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="318" t="s">
+      <c r="E46" s="306" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="319"/>
-      <c r="G46" s="319"/>
-      <c r="H46" s="319"/>
-      <c r="I46" s="319"/>
-      <c r="J46" s="319"/>
-      <c r="K46" s="319"/>
-      <c r="L46" s="319"/>
-      <c r="M46" s="319"/>
-      <c r="N46" s="320"/>
-      <c r="O46" s="327" t="s">
+      <c r="F46" s="307"/>
+      <c r="G46" s="307"/>
+      <c r="H46" s="307"/>
+      <c r="I46" s="307"/>
+      <c r="J46" s="307"/>
+      <c r="K46" s="307"/>
+      <c r="L46" s="307"/>
+      <c r="M46" s="307"/>
+      <c r="N46" s="308"/>
+      <c r="O46" s="315" t="s">
         <v>92</v>
       </c>
-      <c r="P46" s="328"/>
-      <c r="Q46" s="328"/>
-      <c r="R46" s="328"/>
-      <c r="S46" s="328"/>
-      <c r="T46" s="328"/>
-      <c r="U46" s="328"/>
-      <c r="V46" s="328"/>
-      <c r="W46" s="328"/>
-      <c r="X46" s="329"/>
+      <c r="P46" s="316"/>
+      <c r="Q46" s="316"/>
+      <c r="R46" s="316"/>
+      <c r="S46" s="316"/>
+      <c r="T46" s="316"/>
+      <c r="U46" s="316"/>
+      <c r="V46" s="316"/>
+      <c r="W46" s="316"/>
+      <c r="X46" s="317"/>
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
       <c r="AA46" s="48"/>
@@ -13167,28 +13167,28 @@
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
-      <c r="E47" s="321"/>
-      <c r="F47" s="322"/>
-      <c r="G47" s="322"/>
-      <c r="H47" s="322"/>
-      <c r="I47" s="322"/>
-      <c r="J47" s="322"/>
-      <c r="K47" s="322"/>
-      <c r="L47" s="322"/>
-      <c r="M47" s="322"/>
-      <c r="N47" s="323"/>
-      <c r="O47" s="327" t="s">
+      <c r="E47" s="309"/>
+      <c r="F47" s="310"/>
+      <c r="G47" s="310"/>
+      <c r="H47" s="310"/>
+      <c r="I47" s="310"/>
+      <c r="J47" s="310"/>
+      <c r="K47" s="310"/>
+      <c r="L47" s="310"/>
+      <c r="M47" s="310"/>
+      <c r="N47" s="311"/>
+      <c r="O47" s="315" t="s">
         <v>93</v>
       </c>
-      <c r="P47" s="328"/>
-      <c r="Q47" s="328"/>
-      <c r="R47" s="328"/>
-      <c r="S47" s="328"/>
-      <c r="T47" s="328"/>
-      <c r="U47" s="328"/>
-      <c r="V47" s="328"/>
-      <c r="W47" s="328"/>
-      <c r="X47" s="329"/>
+      <c r="P47" s="316"/>
+      <c r="Q47" s="316"/>
+      <c r="R47" s="316"/>
+      <c r="S47" s="316"/>
+      <c r="T47" s="316"/>
+      <c r="U47" s="316"/>
+      <c r="V47" s="316"/>
+      <c r="W47" s="316"/>
+      <c r="X47" s="317"/>
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
       <c r="AA47" s="48"/>
@@ -13206,28 +13206,28 @@
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
-      <c r="E48" s="324"/>
-      <c r="F48" s="325"/>
-      <c r="G48" s="325"/>
-      <c r="H48" s="325"/>
-      <c r="I48" s="325"/>
-      <c r="J48" s="325"/>
-      <c r="K48" s="325"/>
-      <c r="L48" s="325"/>
-      <c r="M48" s="325"/>
-      <c r="N48" s="326"/>
-      <c r="O48" s="330" t="s">
+      <c r="E48" s="312"/>
+      <c r="F48" s="313"/>
+      <c r="G48" s="313"/>
+      <c r="H48" s="313"/>
+      <c r="I48" s="313"/>
+      <c r="J48" s="313"/>
+      <c r="K48" s="313"/>
+      <c r="L48" s="313"/>
+      <c r="M48" s="313"/>
+      <c r="N48" s="314"/>
+      <c r="O48" s="318" t="s">
         <v>94</v>
       </c>
-      <c r="P48" s="331"/>
-      <c r="Q48" s="331"/>
-      <c r="R48" s="331"/>
-      <c r="S48" s="331"/>
-      <c r="T48" s="331"/>
-      <c r="U48" s="331"/>
-      <c r="V48" s="331"/>
-      <c r="W48" s="331"/>
-      <c r="X48" s="332"/>
+      <c r="P48" s="319"/>
+      <c r="Q48" s="319"/>
+      <c r="R48" s="319"/>
+      <c r="S48" s="319"/>
+      <c r="T48" s="319"/>
+      <c r="U48" s="319"/>
+      <c r="V48" s="319"/>
+      <c r="W48" s="319"/>
+      <c r="X48" s="320"/>
       <c r="Y48" s="48"/>
       <c r="Z48" s="48"/>
       <c r="AA48" s="48"/>
@@ -13245,28 +13245,28 @@
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
-      <c r="E49" s="355" t="s">
+      <c r="E49" s="269" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="356"/>
-      <c r="G49" s="356"/>
-      <c r="H49" s="356"/>
-      <c r="I49" s="356"/>
-      <c r="J49" s="356"/>
-      <c r="K49" s="356"/>
-      <c r="L49" s="356"/>
-      <c r="M49" s="356"/>
-      <c r="N49" s="356"/>
-      <c r="O49" s="356"/>
-      <c r="P49" s="356"/>
-      <c r="Q49" s="356"/>
-      <c r="R49" s="356"/>
-      <c r="S49" s="356"/>
-      <c r="T49" s="356"/>
-      <c r="U49" s="356"/>
-      <c r="V49" s="356"/>
-      <c r="W49" s="356"/>
-      <c r="X49" s="357"/>
+      <c r="F49" s="270"/>
+      <c r="G49" s="270"/>
+      <c r="H49" s="270"/>
+      <c r="I49" s="270"/>
+      <c r="J49" s="270"/>
+      <c r="K49" s="270"/>
+      <c r="L49" s="270"/>
+      <c r="M49" s="270"/>
+      <c r="N49" s="270"/>
+      <c r="O49" s="270"/>
+      <c r="P49" s="270"/>
+      <c r="Q49" s="270"/>
+      <c r="R49" s="270"/>
+      <c r="S49" s="270"/>
+      <c r="T49" s="270"/>
+      <c r="U49" s="270"/>
+      <c r="V49" s="270"/>
+      <c r="W49" s="270"/>
+      <c r="X49" s="271"/>
       <c r="Y49" s="48"/>
       <c r="Z49" s="48"/>
       <c r="AA49" s="48"/>
@@ -13439,7 +13439,7 @@
       <c r="C54" s="58"/>
       <c r="D54"/>
       <c r="E54" s="91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
@@ -13477,80 +13477,80 @@
       <c r="B55" s="58"/>
       <c r="C55" s="58"/>
       <c r="D55"/>
-      <c r="E55" s="264" t="s">
+      <c r="E55" s="350" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="265"/>
-      <c r="G55" s="265"/>
-      <c r="H55" s="265"/>
-      <c r="I55" s="265"/>
-      <c r="J55" s="260" t="s">
+      <c r="F55" s="351"/>
+      <c r="G55" s="351"/>
+      <c r="H55" s="351"/>
+      <c r="I55" s="351"/>
+      <c r="J55" s="357" t="s">
         <v>132</v>
       </c>
-      <c r="K55" s="260"/>
-      <c r="L55" s="260"/>
-      <c r="M55" s="261" t="s">
+      <c r="K55" s="357"/>
+      <c r="L55" s="357"/>
+      <c r="M55" s="358" t="s">
         <v>133</v>
       </c>
-      <c r="N55" s="262"/>
-      <c r="O55" s="262"/>
-      <c r="P55" s="262"/>
-      <c r="Q55" s="262"/>
-      <c r="R55" s="262"/>
-      <c r="S55" s="263"/>
-      <c r="T55" s="261" t="s">
+      <c r="N55" s="359"/>
+      <c r="O55" s="359"/>
+      <c r="P55" s="359"/>
+      <c r="Q55" s="359"/>
+      <c r="R55" s="359"/>
+      <c r="S55" s="360"/>
+      <c r="T55" s="358" t="s">
         <v>100</v>
       </c>
-      <c r="U55" s="262"/>
-      <c r="V55" s="262"/>
-      <c r="W55" s="262"/>
-      <c r="X55" s="262"/>
-      <c r="Y55" s="262"/>
-      <c r="Z55" s="262"/>
-      <c r="AA55" s="262"/>
-      <c r="AB55" s="262"/>
-      <c r="AC55" s="262"/>
-      <c r="AD55" s="263"/>
+      <c r="U55" s="359"/>
+      <c r="V55" s="359"/>
+      <c r="W55" s="359"/>
+      <c r="X55" s="359"/>
+      <c r="Y55" s="359"/>
+      <c r="Z55" s="359"/>
+      <c r="AA55" s="359"/>
+      <c r="AB55" s="359"/>
+      <c r="AC55" s="359"/>
+      <c r="AD55" s="360"/>
     </row>
     <row r="56" spans="1:35" ht="11.25" customHeight="1">
       <c r="A56" s="58"/>
       <c r="B56" s="58"/>
       <c r="C56" s="58"/>
       <c r="D56"/>
-      <c r="E56" s="254" t="s">
+      <c r="E56" s="300" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="255"/>
-      <c r="G56" s="255"/>
-      <c r="H56" s="255"/>
-      <c r="I56" s="255"/>
-      <c r="J56" s="256" t="s">
+      <c r="F56" s="352"/>
+      <c r="G56" s="352"/>
+      <c r="H56" s="352"/>
+      <c r="I56" s="352"/>
+      <c r="J56" s="353" t="s">
+        <v>146</v>
+      </c>
+      <c r="K56" s="353"/>
+      <c r="L56" s="353"/>
+      <c r="M56" s="354" t="s">
+        <v>147</v>
+      </c>
+      <c r="N56" s="355"/>
+      <c r="O56" s="355"/>
+      <c r="P56" s="355"/>
+      <c r="Q56" s="355"/>
+      <c r="R56" s="355"/>
+      <c r="S56" s="356"/>
+      <c r="T56" s="354" t="s">
         <v>139</v>
       </c>
-      <c r="K56" s="256"/>
-      <c r="L56" s="256"/>
-      <c r="M56" s="257" t="s">
-        <v>140</v>
-      </c>
-      <c r="N56" s="258"/>
-      <c r="O56" s="258"/>
-      <c r="P56" s="258"/>
-      <c r="Q56" s="258"/>
-      <c r="R56" s="258"/>
-      <c r="S56" s="259"/>
-      <c r="T56" s="257" t="s">
-        <v>141</v>
-      </c>
-      <c r="U56" s="258"/>
-      <c r="V56" s="258"/>
-      <c r="W56" s="258"/>
-      <c r="X56" s="258"/>
-      <c r="Y56" s="258"/>
-      <c r="Z56" s="258"/>
-      <c r="AA56" s="258"/>
-      <c r="AB56" s="258"/>
-      <c r="AC56" s="258"/>
-      <c r="AD56" s="259"/>
+      <c r="U56" s="355"/>
+      <c r="V56" s="355"/>
+      <c r="W56" s="355"/>
+      <c r="X56" s="355"/>
+      <c r="Y56" s="355"/>
+      <c r="Z56" s="355"/>
+      <c r="AA56" s="355"/>
+      <c r="AB56" s="355"/>
+      <c r="AC56" s="355"/>
+      <c r="AD56" s="356"/>
     </row>
     <row r="57" spans="1:35" ht="11.25" customHeight="1">
       <c r="A57" s="58"/>
@@ -13589,7 +13589,7 @@
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
       <c r="D58" s="58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E58" s="48"/>
       <c r="F58" s="48"/>
@@ -13666,7 +13666,7 @@
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
@@ -13876,7 +13876,7 @@
     <row r="66" spans="3:34">
       <c r="C66" s="30"/>
       <c r="E66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -13941,44 +13941,44 @@
     <row r="68" spans="3:34">
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
-      <c r="E68" s="280" t="s">
+      <c r="E68" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="280"/>
-      <c r="G68" s="266" t="s">
-        <v>146</v>
-      </c>
-      <c r="H68" s="267"/>
-      <c r="I68" s="267"/>
-      <c r="J68" s="267"/>
-      <c r="K68" s="267"/>
-      <c r="L68" s="268"/>
-      <c r="M68" s="280" t="s">
+      <c r="F68" s="325"/>
+      <c r="G68" s="284" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="285"/>
+      <c r="I68" s="285"/>
+      <c r="J68" s="285"/>
+      <c r="K68" s="285"/>
+      <c r="L68" s="286"/>
+      <c r="M68" s="325" t="s">
         <v>23</v>
       </c>
-      <c r="N68" s="280"/>
-      <c r="O68" s="266" t="s">
+      <c r="N68" s="325"/>
+      <c r="O68" s="284" t="s">
         <v>84</v>
       </c>
-      <c r="P68" s="267"/>
-      <c r="Q68" s="267"/>
-      <c r="R68" s="267"/>
-      <c r="S68" s="267"/>
-      <c r="T68" s="267"/>
-      <c r="U68" s="267"/>
-      <c r="V68" s="267"/>
-      <c r="W68" s="267"/>
-      <c r="X68" s="267"/>
-      <c r="Y68" s="267"/>
-      <c r="Z68" s="267"/>
-      <c r="AA68" s="267"/>
-      <c r="AB68" s="267"/>
-      <c r="AC68" s="267"/>
-      <c r="AD68" s="267"/>
-      <c r="AE68" s="267"/>
-      <c r="AF68" s="267"/>
-      <c r="AG68" s="267"/>
-      <c r="AH68" s="268"/>
+      <c r="P68" s="285"/>
+      <c r="Q68" s="285"/>
+      <c r="R68" s="285"/>
+      <c r="S68" s="285"/>
+      <c r="T68" s="285"/>
+      <c r="U68" s="285"/>
+      <c r="V68" s="285"/>
+      <c r="W68" s="285"/>
+      <c r="X68" s="285"/>
+      <c r="Y68" s="285"/>
+      <c r="Z68" s="285"/>
+      <c r="AA68" s="285"/>
+      <c r="AB68" s="285"/>
+      <c r="AC68" s="285"/>
+      <c r="AD68" s="285"/>
+      <c r="AE68" s="285"/>
+      <c r="AF68" s="285"/>
+      <c r="AG68" s="285"/>
+      <c r="AH68" s="286"/>
     </row>
     <row r="69" spans="3:34">
       <c r="C69" s="30"/>
@@ -14113,86 +14113,86 @@
     <row r="73" spans="3:34">
       <c r="C73" s="30"/>
       <c r="D73" s="30"/>
-      <c r="E73" s="337" t="s">
+      <c r="E73" s="326" t="s">
         <v>53</v>
       </c>
-      <c r="F73" s="294" t="s">
+      <c r="F73" s="278" t="s">
         <v>24</v>
       </c>
-      <c r="G73" s="295"/>
-      <c r="H73" s="295"/>
-      <c r="I73" s="296"/>
-      <c r="J73" s="294" t="s">
+      <c r="G73" s="279"/>
+      <c r="H73" s="279"/>
+      <c r="I73" s="280"/>
+      <c r="J73" s="278" t="s">
         <v>25</v>
       </c>
-      <c r="K73" s="295"/>
-      <c r="L73" s="295"/>
-      <c r="M73" s="296"/>
-      <c r="N73" s="339" t="s">
+      <c r="K73" s="279"/>
+      <c r="L73" s="279"/>
+      <c r="M73" s="280"/>
+      <c r="N73" s="328" t="s">
         <v>26</v>
       </c>
-      <c r="O73" s="339"/>
-      <c r="P73" s="339"/>
-      <c r="Q73" s="339"/>
-      <c r="R73" s="339"/>
-      <c r="S73" s="339"/>
-      <c r="T73" s="339"/>
-      <c r="U73" s="339"/>
-      <c r="V73" s="339"/>
-      <c r="W73" s="294" t="s">
+      <c r="O73" s="328"/>
+      <c r="P73" s="328"/>
+      <c r="Q73" s="328"/>
+      <c r="R73" s="328"/>
+      <c r="S73" s="328"/>
+      <c r="T73" s="328"/>
+      <c r="U73" s="328"/>
+      <c r="V73" s="328"/>
+      <c r="W73" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="X73" s="295"/>
-      <c r="Y73" s="295"/>
-      <c r="Z73" s="295"/>
-      <c r="AA73" s="295"/>
-      <c r="AB73" s="295"/>
-      <c r="AC73" s="296"/>
-      <c r="AD73" s="294" t="s">
+      <c r="X73" s="279"/>
+      <c r="Y73" s="279"/>
+      <c r="Z73" s="279"/>
+      <c r="AA73" s="279"/>
+      <c r="AB73" s="279"/>
+      <c r="AC73" s="280"/>
+      <c r="AD73" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="AE73" s="295"/>
-      <c r="AF73" s="295"/>
-      <c r="AG73" s="295"/>
-      <c r="AH73" s="296"/>
+      <c r="AE73" s="279"/>
+      <c r="AF73" s="279"/>
+      <c r="AG73" s="279"/>
+      <c r="AH73" s="280"/>
     </row>
     <row r="74" spans="3:34">
       <c r="C74" s="30"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="338"/>
-      <c r="F74" s="297"/>
-      <c r="G74" s="298"/>
-      <c r="H74" s="298"/>
-      <c r="I74" s="299"/>
-      <c r="J74" s="297"/>
-      <c r="K74" s="298"/>
-      <c r="L74" s="298"/>
-      <c r="M74" s="299"/>
-      <c r="N74" s="339" t="s">
+      <c r="E74" s="327"/>
+      <c r="F74" s="281"/>
+      <c r="G74" s="282"/>
+      <c r="H74" s="282"/>
+      <c r="I74" s="283"/>
+      <c r="J74" s="281"/>
+      <c r="K74" s="282"/>
+      <c r="L74" s="282"/>
+      <c r="M74" s="283"/>
+      <c r="N74" s="328" t="s">
         <v>29</v>
       </c>
-      <c r="O74" s="339"/>
-      <c r="P74" s="339"/>
-      <c r="Q74" s="339"/>
-      <c r="R74" s="339"/>
-      <c r="S74" s="350" t="s">
+      <c r="O74" s="328"/>
+      <c r="P74" s="328"/>
+      <c r="Q74" s="328"/>
+      <c r="R74" s="328"/>
+      <c r="S74" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="T74" s="350"/>
-      <c r="U74" s="350"/>
-      <c r="V74" s="350"/>
-      <c r="W74" s="297"/>
-      <c r="X74" s="298"/>
-      <c r="Y74" s="298"/>
-      <c r="Z74" s="298"/>
-      <c r="AA74" s="298"/>
-      <c r="AB74" s="298"/>
-      <c r="AC74" s="299"/>
-      <c r="AD74" s="297"/>
-      <c r="AE74" s="298"/>
-      <c r="AF74" s="298"/>
-      <c r="AG74" s="298"/>
-      <c r="AH74" s="299"/>
+      <c r="T74" s="254"/>
+      <c r="U74" s="254"/>
+      <c r="V74" s="254"/>
+      <c r="W74" s="281"/>
+      <c r="X74" s="282"/>
+      <c r="Y74" s="282"/>
+      <c r="Z74" s="282"/>
+      <c r="AA74" s="282"/>
+      <c r="AB74" s="282"/>
+      <c r="AC74" s="283"/>
+      <c r="AD74" s="281"/>
+      <c r="AE74" s="282"/>
+      <c r="AF74" s="282"/>
+      <c r="AG74" s="282"/>
+      <c r="AH74" s="283"/>
     </row>
     <row r="75" spans="3:34">
       <c r="C75" s="30"/>
@@ -14200,43 +14200,43 @@
       <c r="E75" s="41">
         <v>1</v>
       </c>
-      <c r="F75" s="343" t="s">
+      <c r="F75" s="275" t="s">
         <v>88</v>
       </c>
-      <c r="G75" s="344"/>
-      <c r="H75" s="344"/>
-      <c r="I75" s="345"/>
-      <c r="J75" s="343" t="s">
+      <c r="G75" s="276"/>
+      <c r="H75" s="276"/>
+      <c r="I75" s="277"/>
+      <c r="J75" s="275" t="s">
         <v>85</v>
       </c>
-      <c r="K75" s="344"/>
-      <c r="L75" s="344"/>
-      <c r="M75" s="345"/>
-      <c r="N75" s="346" t="s">
+      <c r="K75" s="276"/>
+      <c r="L75" s="276"/>
+      <c r="M75" s="277"/>
+      <c r="N75" s="267" t="s">
         <v>91</v>
       </c>
-      <c r="O75" s="347"/>
-      <c r="P75" s="347"/>
-      <c r="Q75" s="347"/>
-      <c r="R75" s="347"/>
-      <c r="S75" s="348" t="s">
+      <c r="O75" s="265"/>
+      <c r="P75" s="265"/>
+      <c r="Q75" s="265"/>
+      <c r="R75" s="265"/>
+      <c r="S75" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="T75" s="349"/>
-      <c r="U75" s="349"/>
-      <c r="V75" s="349"/>
-      <c r="W75" s="340"/>
-      <c r="X75" s="341"/>
-      <c r="Y75" s="341"/>
-      <c r="Z75" s="341"/>
-      <c r="AA75" s="341"/>
-      <c r="AB75" s="341"/>
-      <c r="AC75" s="342"/>
-      <c r="AD75" s="340"/>
-      <c r="AE75" s="341"/>
-      <c r="AF75" s="341"/>
-      <c r="AG75" s="341"/>
-      <c r="AH75" s="342"/>
+      <c r="T75" s="266"/>
+      <c r="U75" s="266"/>
+      <c r="V75" s="266"/>
+      <c r="W75" s="257"/>
+      <c r="X75" s="258"/>
+      <c r="Y75" s="258"/>
+      <c r="Z75" s="258"/>
+      <c r="AA75" s="258"/>
+      <c r="AB75" s="258"/>
+      <c r="AC75" s="259"/>
+      <c r="AD75" s="257"/>
+      <c r="AE75" s="258"/>
+      <c r="AF75" s="258"/>
+      <c r="AG75" s="258"/>
+      <c r="AH75" s="259"/>
     </row>
     <row r="76" spans="3:34">
       <c r="C76" s="30"/>
@@ -14244,43 +14244,43 @@
       <c r="E76" s="41">
         <v>2</v>
       </c>
-      <c r="F76" s="343" t="s">
+      <c r="F76" s="275" t="s">
         <v>89</v>
       </c>
-      <c r="G76" s="344"/>
-      <c r="H76" s="344"/>
-      <c r="I76" s="345"/>
-      <c r="J76" s="343" t="s">
+      <c r="G76" s="276"/>
+      <c r="H76" s="276"/>
+      <c r="I76" s="277"/>
+      <c r="J76" s="275" t="s">
         <v>86</v>
       </c>
-      <c r="K76" s="344"/>
-      <c r="L76" s="344"/>
-      <c r="M76" s="345"/>
-      <c r="N76" s="346" t="s">
+      <c r="K76" s="276"/>
+      <c r="L76" s="276"/>
+      <c r="M76" s="277"/>
+      <c r="N76" s="267" t="s">
         <v>91</v>
       </c>
-      <c r="O76" s="347"/>
-      <c r="P76" s="347"/>
-      <c r="Q76" s="347"/>
-      <c r="R76" s="347"/>
-      <c r="S76" s="348" t="s">
+      <c r="O76" s="265"/>
+      <c r="P76" s="265"/>
+      <c r="Q76" s="265"/>
+      <c r="R76" s="265"/>
+      <c r="S76" s="268" t="s">
         <v>93</v>
       </c>
-      <c r="T76" s="349"/>
-      <c r="U76" s="349"/>
-      <c r="V76" s="349"/>
-      <c r="W76" s="340"/>
-      <c r="X76" s="341"/>
-      <c r="Y76" s="341"/>
-      <c r="Z76" s="341"/>
-      <c r="AA76" s="341"/>
-      <c r="AB76" s="341"/>
-      <c r="AC76" s="342"/>
-      <c r="AD76" s="340"/>
-      <c r="AE76" s="341"/>
-      <c r="AF76" s="341"/>
-      <c r="AG76" s="341"/>
-      <c r="AH76" s="342"/>
+      <c r="T76" s="266"/>
+      <c r="U76" s="266"/>
+      <c r="V76" s="266"/>
+      <c r="W76" s="257"/>
+      <c r="X76" s="258"/>
+      <c r="Y76" s="258"/>
+      <c r="Z76" s="258"/>
+      <c r="AA76" s="258"/>
+      <c r="AB76" s="258"/>
+      <c r="AC76" s="259"/>
+      <c r="AD76" s="257"/>
+      <c r="AE76" s="258"/>
+      <c r="AF76" s="258"/>
+      <c r="AG76" s="258"/>
+      <c r="AH76" s="259"/>
     </row>
     <row r="77" spans="3:34">
       <c r="C77" s="30"/>
@@ -14288,43 +14288,43 @@
       <c r="E77" s="41">
         <v>3</v>
       </c>
-      <c r="F77" s="343" t="s">
+      <c r="F77" s="275" t="s">
         <v>90</v>
       </c>
-      <c r="G77" s="344"/>
-      <c r="H77" s="344"/>
-      <c r="I77" s="345"/>
-      <c r="J77" s="343" t="s">
+      <c r="G77" s="276"/>
+      <c r="H77" s="276"/>
+      <c r="I77" s="277"/>
+      <c r="J77" s="275" t="s">
         <v>87</v>
       </c>
-      <c r="K77" s="344"/>
-      <c r="L77" s="344"/>
-      <c r="M77" s="345"/>
-      <c r="N77" s="346" t="s">
+      <c r="K77" s="276"/>
+      <c r="L77" s="276"/>
+      <c r="M77" s="277"/>
+      <c r="N77" s="267" t="s">
         <v>91</v>
       </c>
-      <c r="O77" s="347"/>
-      <c r="P77" s="347"/>
-      <c r="Q77" s="347"/>
-      <c r="R77" s="347"/>
-      <c r="S77" s="348" t="s">
+      <c r="O77" s="265"/>
+      <c r="P77" s="265"/>
+      <c r="Q77" s="265"/>
+      <c r="R77" s="265"/>
+      <c r="S77" s="268" t="s">
         <v>94</v>
       </c>
-      <c r="T77" s="349"/>
-      <c r="U77" s="349"/>
-      <c r="V77" s="349"/>
-      <c r="W77" s="340"/>
-      <c r="X77" s="341"/>
-      <c r="Y77" s="341"/>
-      <c r="Z77" s="341"/>
-      <c r="AA77" s="341"/>
-      <c r="AB77" s="341"/>
-      <c r="AC77" s="342"/>
-      <c r="AD77" s="340"/>
-      <c r="AE77" s="341"/>
-      <c r="AF77" s="341"/>
-      <c r="AG77" s="341"/>
-      <c r="AH77" s="342"/>
+      <c r="T77" s="266"/>
+      <c r="U77" s="266"/>
+      <c r="V77" s="266"/>
+      <c r="W77" s="257"/>
+      <c r="X77" s="258"/>
+      <c r="Y77" s="258"/>
+      <c r="Z77" s="258"/>
+      <c r="AA77" s="258"/>
+      <c r="AB77" s="258"/>
+      <c r="AC77" s="259"/>
+      <c r="AD77" s="257"/>
+      <c r="AE77" s="258"/>
+      <c r="AF77" s="258"/>
+      <c r="AG77" s="258"/>
+      <c r="AH77" s="259"/>
     </row>
     <row r="78" spans="3:34">
       <c r="C78" s="30"/>
@@ -14332,35 +14332,35 @@
       <c r="E78" s="41">
         <v>4</v>
       </c>
-      <c r="F78" s="343"/>
-      <c r="G78" s="344"/>
-      <c r="H78" s="344"/>
-      <c r="I78" s="345"/>
-      <c r="J78" s="343"/>
-      <c r="K78" s="344"/>
-      <c r="L78" s="344"/>
-      <c r="M78" s="345"/>
-      <c r="N78" s="354"/>
-      <c r="O78" s="347"/>
-      <c r="P78" s="347"/>
-      <c r="Q78" s="347"/>
-      <c r="R78" s="347"/>
-      <c r="S78" s="349"/>
-      <c r="T78" s="349"/>
-      <c r="U78" s="349"/>
-      <c r="V78" s="349"/>
-      <c r="W78" s="340"/>
-      <c r="X78" s="341"/>
-      <c r="Y78" s="341"/>
-      <c r="Z78" s="341"/>
-      <c r="AA78" s="341"/>
-      <c r="AB78" s="341"/>
-      <c r="AC78" s="342"/>
-      <c r="AD78" s="340"/>
-      <c r="AE78" s="341"/>
-      <c r="AF78" s="341"/>
-      <c r="AG78" s="341"/>
-      <c r="AH78" s="342"/>
+      <c r="F78" s="275"/>
+      <c r="G78" s="276"/>
+      <c r="H78" s="276"/>
+      <c r="I78" s="277"/>
+      <c r="J78" s="275"/>
+      <c r="K78" s="276"/>
+      <c r="L78" s="276"/>
+      <c r="M78" s="277"/>
+      <c r="N78" s="264"/>
+      <c r="O78" s="265"/>
+      <c r="P78" s="265"/>
+      <c r="Q78" s="265"/>
+      <c r="R78" s="265"/>
+      <c r="S78" s="266"/>
+      <c r="T78" s="266"/>
+      <c r="U78" s="266"/>
+      <c r="V78" s="266"/>
+      <c r="W78" s="257"/>
+      <c r="X78" s="258"/>
+      <c r="Y78" s="258"/>
+      <c r="Z78" s="258"/>
+      <c r="AA78" s="258"/>
+      <c r="AB78" s="258"/>
+      <c r="AC78" s="259"/>
+      <c r="AD78" s="257"/>
+      <c r="AE78" s="258"/>
+      <c r="AF78" s="258"/>
+      <c r="AG78" s="258"/>
+      <c r="AH78" s="259"/>
     </row>
     <row r="79" spans="3:34">
       <c r="C79" s="30"/>
@@ -14368,38 +14368,137 @@
       <c r="E79" s="41">
         <v>5</v>
       </c>
-      <c r="F79" s="343"/>
-      <c r="G79" s="344"/>
-      <c r="H79" s="344"/>
-      <c r="I79" s="345"/>
-      <c r="J79" s="343"/>
-      <c r="K79" s="344"/>
-      <c r="L79" s="344"/>
-      <c r="M79" s="345"/>
-      <c r="N79" s="354"/>
-      <c r="O79" s="347"/>
-      <c r="P79" s="347"/>
-      <c r="Q79" s="347"/>
-      <c r="R79" s="347"/>
-      <c r="S79" s="349"/>
-      <c r="T79" s="349"/>
-      <c r="U79" s="349"/>
-      <c r="V79" s="349"/>
-      <c r="W79" s="340"/>
-      <c r="X79" s="341"/>
-      <c r="Y79" s="341"/>
-      <c r="Z79" s="341"/>
-      <c r="AA79" s="341"/>
-      <c r="AB79" s="341"/>
-      <c r="AC79" s="342"/>
-      <c r="AD79" s="340"/>
-      <c r="AE79" s="341"/>
-      <c r="AF79" s="341"/>
-      <c r="AG79" s="341"/>
-      <c r="AH79" s="342"/>
+      <c r="F79" s="275"/>
+      <c r="G79" s="276"/>
+      <c r="H79" s="276"/>
+      <c r="I79" s="277"/>
+      <c r="J79" s="275"/>
+      <c r="K79" s="276"/>
+      <c r="L79" s="276"/>
+      <c r="M79" s="277"/>
+      <c r="N79" s="264"/>
+      <c r="O79" s="265"/>
+      <c r="P79" s="265"/>
+      <c r="Q79" s="265"/>
+      <c r="R79" s="265"/>
+      <c r="S79" s="266"/>
+      <c r="T79" s="266"/>
+      <c r="U79" s="266"/>
+      <c r="V79" s="266"/>
+      <c r="W79" s="257"/>
+      <c r="X79" s="258"/>
+      <c r="Y79" s="258"/>
+      <c r="Z79" s="258"/>
+      <c r="AA79" s="258"/>
+      <c r="AB79" s="258"/>
+      <c r="AC79" s="259"/>
+      <c r="AD79" s="257"/>
+      <c r="AE79" s="258"/>
+      <c r="AF79" s="258"/>
+      <c r="AG79" s="258"/>
+      <c r="AH79" s="259"/>
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:S56"/>
+    <mergeCell ref="T56:AD56"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AD39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="T40:AD40"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:S55"/>
+    <mergeCell ref="T55:AD55"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="G68:L68"/>
+    <mergeCell ref="O68:AH68"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="J73:M74"/>
+    <mergeCell ref="F73:I74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="N73:V73"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="N75:R75"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="W73:AC74"/>
+    <mergeCell ref="AD73:AH74"/>
+    <mergeCell ref="O28:AH28"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="L35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="E46:N48"/>
+    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="O47:X47"/>
+    <mergeCell ref="O48:X48"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="N76:R76"/>
     <mergeCell ref="S74:V74"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="AD78:AH78"/>
@@ -14424,105 +14523,6 @@
     <mergeCell ref="E45:N45"/>
     <mergeCell ref="W75:AC75"/>
     <mergeCell ref="W76:AC76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="N76:R76"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="N75:R75"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="W73:AC74"/>
-    <mergeCell ref="AD73:AH74"/>
-    <mergeCell ref="O28:AH28"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="L35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="E46:N48"/>
-    <mergeCell ref="O46:X46"/>
-    <mergeCell ref="O47:X47"/>
-    <mergeCell ref="O48:X48"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="J73:M74"/>
-    <mergeCell ref="F73:I74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="N73:V73"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="G68:L68"/>
-    <mergeCell ref="O68:AH68"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:S56"/>
-    <mergeCell ref="T56:AD56"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AD39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="T40:AD40"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:S55"/>
-    <mergeCell ref="T55:AD55"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Webサービス取引概要'!$A$1:$AI$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10102(顧客詳細取得)'!$A$1:$AI$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10102(顧客詳細取得)'!$A$1:$AI$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -40,7 +40,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="E32" authorId="0">
+    <comment ref="E30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0">
+    <comment ref="F31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
   <si>
     <t>PJ名</t>
   </si>
@@ -632,10 +632,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>顧客詳細取得要求電文</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>顧客詳細取得応答電文</t>
@@ -937,14 +933,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>【外部インタフェース設計書_B10102C_顧客詳細取得要求電文_(JSON)】を参照。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>B10102C</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1086,6 +1074,57 @@
   </si>
   <si>
     <t>errors.nothing</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パラメータ名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>client_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パスパラメータ</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1515,7 +1554,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1870,9 +1909,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1984,86 +2107,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2101,41 +2179,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2155,35 +2224,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2191,60 +2311,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2254,33 +2389,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2318,9 +2426,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2383,113 +2488,73 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -5236,191 +5301,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="AutoShape 365"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="552450" y="1981201"/>
-          <a:ext cx="1838325" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOnlineStorage">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>150813</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>23814</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="AutoShape 113"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="68" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2084388" y="2214564"/>
-          <a:ext cx="1449386" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1276629" cy="318549"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Text Box 367"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="676275" y="2057400"/>
-          <a:ext cx="1276629" cy="318549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="18288" tIns="18288" rIns="18288" bIns="0" anchor="t" upright="1">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>B10102C</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>顧客詳細取得要求電文</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
@@ -5608,6 +5488,111 @@
           <a:round/>
           <a:headEnd/>
           <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Line 110"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2257425" y="1638299"/>
+          <a:ext cx="1323975" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Oval 124"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2076450" y="1581150"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
@@ -6042,12 +6027,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="150">
+      <c r="I25" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1">
@@ -6678,57 +6663,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="161" t="s">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="170" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="179" t="s">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="207" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="167" t="s">
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="179" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="154">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="182">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -6736,53 +6721,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="161" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="189" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="167" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="164" t="str">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="154" t="str">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="182" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -6790,45 +6775,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="161" t="s">
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="151"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="182"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -6865,1186 +6850,1030 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="157" t="s">
+      <c r="C7" s="186"/>
+      <c r="D7" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="157" t="s">
+      <c r="E7" s="187"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="160" t="s">
+      <c r="H7" s="187"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="157" t="s">
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="157" t="s">
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="187"/>
+      <c r="W7" s="187"/>
+      <c r="X7" s="187"/>
+      <c r="Y7" s="187"/>
+      <c r="Z7" s="187"/>
+      <c r="AA7" s="187"/>
+      <c r="AB7" s="187"/>
+      <c r="AC7" s="187"/>
+      <c r="AD7" s="187"/>
+      <c r="AE7" s="186"/>
+      <c r="AF7" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="158"/>
+      <c r="AG7" s="187"/>
+      <c r="AH7" s="187"/>
+      <c r="AI7" s="186"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="200" t="s">
+      <c r="B8" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="201"/>
-      <c r="D8" s="202">
+      <c r="C8" s="166"/>
+      <c r="D8" s="167">
         <v>43718</v>
       </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="205" t="s">
+      <c r="E8" s="168"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="206"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="207"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="208"/>
-      <c r="N8" s="208"/>
-      <c r="O8" s="208"/>
-      <c r="P8" s="209"/>
-      <c r="Q8" s="211"/>
-      <c r="R8" s="212"/>
-      <c r="S8" s="212"/>
-      <c r="T8" s="212"/>
-      <c r="U8" s="212"/>
-      <c r="V8" s="212"/>
-      <c r="W8" s="212"/>
-      <c r="X8" s="212"/>
-      <c r="Y8" s="212"/>
-      <c r="Z8" s="212"/>
-      <c r="AA8" s="212"/>
-      <c r="AB8" s="212"/>
-      <c r="AC8" s="212"/>
-      <c r="AD8" s="212"/>
-      <c r="AE8" s="213"/>
-      <c r="AF8" s="210" t="s">
+      <c r="H8" s="171"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="178"/>
+      <c r="AF8" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="AG8" s="208"/>
-      <c r="AH8" s="208"/>
-      <c r="AI8" s="209"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="174"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="118"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="195"/>
-      <c r="M9" s="195"/>
-      <c r="N9" s="195"/>
-      <c r="O9" s="195"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198"/>
-      <c r="T9" s="198"/>
-      <c r="U9" s="198"/>
-      <c r="V9" s="198"/>
-      <c r="W9" s="198"/>
-      <c r="X9" s="198"/>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="198"/>
-      <c r="AA9" s="198"/>
-      <c r="AB9" s="198"/>
-      <c r="AC9" s="198"/>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="199"/>
-      <c r="AF9" s="194"/>
-      <c r="AG9" s="195"/>
-      <c r="AH9" s="195"/>
-      <c r="AI9" s="196"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="162"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="159"/>
+      <c r="AH9" s="159"/>
+      <c r="AI9" s="160"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="118"/>
-      <c r="B10" s="188"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="195"/>
-      <c r="M10" s="195"/>
-      <c r="N10" s="195"/>
-      <c r="O10" s="195"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="198"/>
-      <c r="U10" s="198"/>
-      <c r="V10" s="198"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="198"/>
-      <c r="Y10" s="198"/>
-      <c r="Z10" s="198"/>
-      <c r="AA10" s="198"/>
-      <c r="AB10" s="198"/>
-      <c r="AC10" s="198"/>
-      <c r="AD10" s="198"/>
-      <c r="AE10" s="199"/>
-      <c r="AF10" s="194"/>
-      <c r="AG10" s="195"/>
-      <c r="AH10" s="195"/>
-      <c r="AI10" s="196"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="162"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="159"/>
+      <c r="AH10" s="159"/>
+      <c r="AI10" s="160"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="188"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="195"/>
-      <c r="M11" s="195"/>
-      <c r="N11" s="195"/>
-      <c r="O11" s="195"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198"/>
-      <c r="V11" s="198"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="198"/>
-      <c r="Z11" s="198"/>
-      <c r="AA11" s="198"/>
-      <c r="AB11" s="198"/>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="198"/>
-      <c r="AE11" s="199"/>
-      <c r="AF11" s="194"/>
-      <c r="AG11" s="195"/>
-      <c r="AH11" s="195"/>
-      <c r="AI11" s="196"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="158"/>
+      <c r="AG11" s="159"/>
+      <c r="AH11" s="159"/>
+      <c r="AI11" s="160"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="188"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="195"/>
-      <c r="O12" s="195"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="198"/>
-      <c r="Y12" s="198"/>
-      <c r="Z12" s="198"/>
-      <c r="AA12" s="198"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="199"/>
-      <c r="AF12" s="194"/>
-      <c r="AG12" s="195"/>
-      <c r="AH12" s="195"/>
-      <c r="AI12" s="196"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="162"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="158"/>
+      <c r="AG12" s="159"/>
+      <c r="AH12" s="159"/>
+      <c r="AI12" s="160"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="188"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="191"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="195"/>
-      <c r="L13" s="195"/>
-      <c r="M13" s="195"/>
-      <c r="N13" s="195"/>
-      <c r="O13" s="195"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="197"/>
-      <c r="R13" s="198"/>
-      <c r="S13" s="198"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="198"/>
-      <c r="X13" s="198"/>
-      <c r="Y13" s="198"/>
-      <c r="Z13" s="198"/>
-      <c r="AA13" s="198"/>
-      <c r="AB13" s="198"/>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="198"/>
-      <c r="AE13" s="199"/>
-      <c r="AF13" s="194"/>
-      <c r="AG13" s="195"/>
-      <c r="AH13" s="195"/>
-      <c r="AI13" s="196"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
+      <c r="U13" s="162"/>
+      <c r="V13" s="162"/>
+      <c r="W13" s="162"/>
+      <c r="X13" s="162"/>
+      <c r="Y13" s="162"/>
+      <c r="Z13" s="162"/>
+      <c r="AA13" s="162"/>
+      <c r="AB13" s="162"/>
+      <c r="AC13" s="162"/>
+      <c r="AD13" s="162"/>
+      <c r="AE13" s="163"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="159"/>
+      <c r="AH13" s="159"/>
+      <c r="AI13" s="160"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="188"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="195"/>
-      <c r="L14" s="195"/>
-      <c r="M14" s="195"/>
-      <c r="N14" s="195"/>
-      <c r="O14" s="195"/>
-      <c r="P14" s="196"/>
-      <c r="Q14" s="197"/>
-      <c r="R14" s="198"/>
-      <c r="S14" s="198"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="198"/>
-      <c r="X14" s="198"/>
-      <c r="Y14" s="198"/>
-      <c r="Z14" s="198"/>
-      <c r="AA14" s="198"/>
-      <c r="AB14" s="198"/>
-      <c r="AC14" s="198"/>
-      <c r="AD14" s="198"/>
-      <c r="AE14" s="199"/>
-      <c r="AF14" s="194"/>
-      <c r="AG14" s="195"/>
-      <c r="AH14" s="195"/>
-      <c r="AI14" s="196"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="162"/>
+      <c r="T14" s="162"/>
+      <c r="U14" s="162"/>
+      <c r="V14" s="162"/>
+      <c r="W14" s="162"/>
+      <c r="X14" s="162"/>
+      <c r="Y14" s="162"/>
+      <c r="Z14" s="162"/>
+      <c r="AA14" s="162"/>
+      <c r="AB14" s="162"/>
+      <c r="AC14" s="162"/>
+      <c r="AD14" s="162"/>
+      <c r="AE14" s="163"/>
+      <c r="AF14" s="158"/>
+      <c r="AG14" s="159"/>
+      <c r="AH14" s="159"/>
+      <c r="AI14" s="160"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="188"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="195"/>
-      <c r="L15" s="195"/>
-      <c r="M15" s="195"/>
-      <c r="N15" s="195"/>
-      <c r="O15" s="195"/>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="198"/>
-      <c r="S15" s="198"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="198"/>
-      <c r="X15" s="198"/>
-      <c r="Y15" s="198"/>
-      <c r="Z15" s="198"/>
-      <c r="AA15" s="198"/>
-      <c r="AB15" s="198"/>
-      <c r="AC15" s="198"/>
-      <c r="AD15" s="198"/>
-      <c r="AE15" s="199"/>
-      <c r="AF15" s="194"/>
-      <c r="AG15" s="195"/>
-      <c r="AH15" s="195"/>
-      <c r="AI15" s="196"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="162"/>
+      <c r="U15" s="162"/>
+      <c r="V15" s="162"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="162"/>
+      <c r="Z15" s="162"/>
+      <c r="AA15" s="162"/>
+      <c r="AB15" s="162"/>
+      <c r="AC15" s="162"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="158"/>
+      <c r="AG15" s="159"/>
+      <c r="AH15" s="159"/>
+      <c r="AI15" s="160"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="188"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="195"/>
-      <c r="M16" s="195"/>
-      <c r="N16" s="195"/>
-      <c r="O16" s="195"/>
-      <c r="P16" s="196"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="198"/>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="198"/>
-      <c r="X16" s="198"/>
-      <c r="Y16" s="198"/>
-      <c r="Z16" s="198"/>
-      <c r="AA16" s="198"/>
-      <c r="AB16" s="198"/>
-      <c r="AC16" s="198"/>
-      <c r="AD16" s="198"/>
-      <c r="AE16" s="199"/>
-      <c r="AF16" s="194"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="195"/>
-      <c r="AI16" s="196"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="162"/>
+      <c r="U16" s="162"/>
+      <c r="V16" s="162"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="162"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="162"/>
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="163"/>
+      <c r="AF16" s="158"/>
+      <c r="AG16" s="159"/>
+      <c r="AH16" s="159"/>
+      <c r="AI16" s="160"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="188"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
-      <c r="N17" s="195"/>
-      <c r="O17" s="195"/>
-      <c r="P17" s="196"/>
-      <c r="Q17" s="197"/>
-      <c r="R17" s="198"/>
-      <c r="S17" s="198"/>
-      <c r="T17" s="198"/>
-      <c r="U17" s="198"/>
-      <c r="V17" s="198"/>
-      <c r="W17" s="198"/>
-      <c r="X17" s="198"/>
-      <c r="Y17" s="198"/>
-      <c r="Z17" s="198"/>
-      <c r="AA17" s="198"/>
-      <c r="AB17" s="198"/>
-      <c r="AC17" s="198"/>
-      <c r="AD17" s="198"/>
-      <c r="AE17" s="199"/>
-      <c r="AF17" s="194"/>
-      <c r="AG17" s="195"/>
-      <c r="AH17" s="195"/>
-      <c r="AI17" s="196"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="159"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="162"/>
+      <c r="S17" s="162"/>
+      <c r="T17" s="162"/>
+      <c r="U17" s="162"/>
+      <c r="V17" s="162"/>
+      <c r="W17" s="162"/>
+      <c r="X17" s="162"/>
+      <c r="Y17" s="162"/>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="162"/>
+      <c r="AD17" s="162"/>
+      <c r="AE17" s="163"/>
+      <c r="AF17" s="158"/>
+      <c r="AG17" s="159"/>
+      <c r="AH17" s="159"/>
+      <c r="AI17" s="160"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="188"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="195"/>
-      <c r="L18" s="195"/>
-      <c r="M18" s="195"/>
-      <c r="N18" s="195"/>
-      <c r="O18" s="195"/>
-      <c r="P18" s="196"/>
-      <c r="Q18" s="197"/>
-      <c r="R18" s="198"/>
-      <c r="S18" s="198"/>
-      <c r="T18" s="198"/>
-      <c r="U18" s="198"/>
-      <c r="V18" s="198"/>
-      <c r="W18" s="198"/>
-      <c r="X18" s="198"/>
-      <c r="Y18" s="198"/>
-      <c r="Z18" s="198"/>
-      <c r="AA18" s="198"/>
-      <c r="AB18" s="198"/>
-      <c r="AC18" s="198"/>
-      <c r="AD18" s="198"/>
-      <c r="AE18" s="199"/>
-      <c r="AF18" s="194"/>
-      <c r="AG18" s="195"/>
-      <c r="AH18" s="195"/>
-      <c r="AI18" s="196"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="162"/>
+      <c r="T18" s="162"/>
+      <c r="U18" s="162"/>
+      <c r="V18" s="162"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+      <c r="Y18" s="162"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="162"/>
+      <c r="AB18" s="162"/>
+      <c r="AC18" s="162"/>
+      <c r="AD18" s="162"/>
+      <c r="AE18" s="163"/>
+      <c r="AF18" s="158"/>
+      <c r="AG18" s="159"/>
+      <c r="AH18" s="159"/>
+      <c r="AI18" s="160"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="195"/>
-      <c r="L19" s="195"/>
-      <c r="M19" s="195"/>
-      <c r="N19" s="195"/>
-      <c r="O19" s="195"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="197"/>
-      <c r="R19" s="198"/>
-      <c r="S19" s="198"/>
-      <c r="T19" s="198"/>
-      <c r="U19" s="198"/>
-      <c r="V19" s="198"/>
-      <c r="W19" s="198"/>
-      <c r="X19" s="198"/>
-      <c r="Y19" s="198"/>
-      <c r="Z19" s="198"/>
-      <c r="AA19" s="198"/>
-      <c r="AB19" s="198"/>
-      <c r="AC19" s="198"/>
-      <c r="AD19" s="198"/>
-      <c r="AE19" s="199"/>
-      <c r="AF19" s="194"/>
-      <c r="AG19" s="195"/>
-      <c r="AH19" s="195"/>
-      <c r="AI19" s="196"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="162"/>
+      <c r="U19" s="162"/>
+      <c r="V19" s="162"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
+      <c r="Y19" s="162"/>
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="162"/>
+      <c r="AB19" s="162"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="163"/>
+      <c r="AF19" s="158"/>
+      <c r="AG19" s="159"/>
+      <c r="AH19" s="159"/>
+      <c r="AI19" s="160"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="189"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="195"/>
-      <c r="L20" s="195"/>
-      <c r="M20" s="195"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
-      <c r="P20" s="196"/>
-      <c r="Q20" s="197"/>
-      <c r="R20" s="198"/>
-      <c r="S20" s="198"/>
-      <c r="T20" s="198"/>
-      <c r="U20" s="198"/>
-      <c r="V20" s="198"/>
-      <c r="W20" s="198"/>
-      <c r="X20" s="198"/>
-      <c r="Y20" s="198"/>
-      <c r="Z20" s="198"/>
-      <c r="AA20" s="198"/>
-      <c r="AB20" s="198"/>
-      <c r="AC20" s="198"/>
-      <c r="AD20" s="198"/>
-      <c r="AE20" s="199"/>
-      <c r="AF20" s="194"/>
-      <c r="AG20" s="195"/>
-      <c r="AH20" s="195"/>
-      <c r="AI20" s="196"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="159"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="162"/>
+      <c r="U20" s="162"/>
+      <c r="V20" s="162"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
+      <c r="Y20" s="162"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162"/>
+      <c r="AB20" s="162"/>
+      <c r="AC20" s="162"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="163"/>
+      <c r="AF20" s="158"/>
+      <c r="AG20" s="159"/>
+      <c r="AH20" s="159"/>
+      <c r="AI20" s="160"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="188"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="195"/>
-      <c r="L21" s="195"/>
-      <c r="M21" s="195"/>
-      <c r="N21" s="195"/>
-      <c r="O21" s="195"/>
-      <c r="P21" s="196"/>
-      <c r="Q21" s="197"/>
-      <c r="R21" s="198"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="198"/>
-      <c r="U21" s="198"/>
-      <c r="V21" s="198"/>
-      <c r="W21" s="198"/>
-      <c r="X21" s="198"/>
-      <c r="Y21" s="198"/>
-      <c r="Z21" s="198"/>
-      <c r="AA21" s="198"/>
-      <c r="AB21" s="198"/>
-      <c r="AC21" s="198"/>
-      <c r="AD21" s="198"/>
-      <c r="AE21" s="199"/>
-      <c r="AF21" s="194"/>
-      <c r="AG21" s="195"/>
-      <c r="AH21" s="195"/>
-      <c r="AI21" s="196"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="162"/>
+      <c r="U21" s="162"/>
+      <c r="V21" s="162"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
+      <c r="Y21" s="162"/>
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="162"/>
+      <c r="AB21" s="162"/>
+      <c r="AC21" s="162"/>
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="163"/>
+      <c r="AF21" s="158"/>
+      <c r="AG21" s="159"/>
+      <c r="AH21" s="159"/>
+      <c r="AI21" s="160"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="188"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="195"/>
-      <c r="L22" s="195"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="195"/>
-      <c r="O22" s="195"/>
-      <c r="P22" s="196"/>
-      <c r="Q22" s="197"/>
-      <c r="R22" s="198"/>
-      <c r="S22" s="198"/>
-      <c r="T22" s="198"/>
-      <c r="U22" s="198"/>
-      <c r="V22" s="198"/>
-      <c r="W22" s="198"/>
-      <c r="X22" s="198"/>
-      <c r="Y22" s="198"/>
-      <c r="Z22" s="198"/>
-      <c r="AA22" s="198"/>
-      <c r="AB22" s="198"/>
-      <c r="AC22" s="198"/>
-      <c r="AD22" s="198"/>
-      <c r="AE22" s="199"/>
-      <c r="AF22" s="194"/>
-      <c r="AG22" s="195"/>
-      <c r="AH22" s="195"/>
-      <c r="AI22" s="196"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="162"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="162"/>
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="162"/>
+      <c r="AB22" s="162"/>
+      <c r="AC22" s="162"/>
+      <c r="AD22" s="162"/>
+      <c r="AE22" s="163"/>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="159"/>
+      <c r="AH22" s="159"/>
+      <c r="AI22" s="160"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="188"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="195"/>
-      <c r="L23" s="195"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="195"/>
-      <c r="O23" s="195"/>
-      <c r="P23" s="196"/>
-      <c r="Q23" s="197"/>
-      <c r="R23" s="198"/>
-      <c r="S23" s="198"/>
-      <c r="T23" s="198"/>
-      <c r="U23" s="198"/>
-      <c r="V23" s="198"/>
-      <c r="W23" s="198"/>
-      <c r="X23" s="198"/>
-      <c r="Y23" s="198"/>
-      <c r="Z23" s="198"/>
-      <c r="AA23" s="198"/>
-      <c r="AB23" s="198"/>
-      <c r="AC23" s="198"/>
-      <c r="AD23" s="198"/>
-      <c r="AE23" s="199"/>
-      <c r="AF23" s="194"/>
-      <c r="AG23" s="195"/>
-      <c r="AH23" s="195"/>
-      <c r="AI23" s="196"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="162"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="162"/>
+      <c r="V23" s="162"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
+      <c r="Y23" s="162"/>
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="162"/>
+      <c r="AB23" s="162"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="163"/>
+      <c r="AF23" s="158"/>
+      <c r="AG23" s="159"/>
+      <c r="AH23" s="159"/>
+      <c r="AI23" s="160"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="188"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="195"/>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="195"/>
-      <c r="O24" s="195"/>
-      <c r="P24" s="196"/>
-      <c r="Q24" s="197"/>
-      <c r="R24" s="198"/>
-      <c r="S24" s="198"/>
-      <c r="T24" s="198"/>
-      <c r="U24" s="198"/>
-      <c r="V24" s="198"/>
-      <c r="W24" s="198"/>
-      <c r="X24" s="198"/>
-      <c r="Y24" s="198"/>
-      <c r="Z24" s="198"/>
-      <c r="AA24" s="198"/>
-      <c r="AB24" s="198"/>
-      <c r="AC24" s="198"/>
-      <c r="AD24" s="198"/>
-      <c r="AE24" s="199"/>
-      <c r="AF24" s="194"/>
-      <c r="AG24" s="195"/>
-      <c r="AH24" s="195"/>
-      <c r="AI24" s="196"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="159"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="162"/>
+      <c r="T24" s="162"/>
+      <c r="U24" s="162"/>
+      <c r="V24" s="162"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="162"/>
+      <c r="Y24" s="162"/>
+      <c r="Z24" s="162"/>
+      <c r="AA24" s="162"/>
+      <c r="AB24" s="162"/>
+      <c r="AC24" s="162"/>
+      <c r="AD24" s="162"/>
+      <c r="AE24" s="163"/>
+      <c r="AF24" s="158"/>
+      <c r="AG24" s="159"/>
+      <c r="AH24" s="159"/>
+      <c r="AI24" s="160"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="195"/>
-      <c r="L25" s="195"/>
-      <c r="M25" s="195"/>
-      <c r="N25" s="195"/>
-      <c r="O25" s="195"/>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="198"/>
-      <c r="S25" s="198"/>
-      <c r="T25" s="198"/>
-      <c r="U25" s="198"/>
-      <c r="V25" s="198"/>
-      <c r="W25" s="198"/>
-      <c r="X25" s="198"/>
-      <c r="Y25" s="198"/>
-      <c r="Z25" s="198"/>
-      <c r="AA25" s="198"/>
-      <c r="AB25" s="198"/>
-      <c r="AC25" s="198"/>
-      <c r="AD25" s="198"/>
-      <c r="AE25" s="199"/>
-      <c r="AF25" s="194"/>
-      <c r="AG25" s="195"/>
-      <c r="AH25" s="195"/>
-      <c r="AI25" s="196"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="162"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="162"/>
+      <c r="AC25" s="162"/>
+      <c r="AD25" s="162"/>
+      <c r="AE25" s="163"/>
+      <c r="AF25" s="158"/>
+      <c r="AG25" s="159"/>
+      <c r="AH25" s="159"/>
+      <c r="AI25" s="160"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="188"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="189"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="195"/>
-      <c r="L26" s="195"/>
-      <c r="M26" s="195"/>
-      <c r="N26" s="195"/>
-      <c r="O26" s="195"/>
-      <c r="P26" s="196"/>
-      <c r="Q26" s="197"/>
-      <c r="R26" s="198"/>
-      <c r="S26" s="198"/>
-      <c r="T26" s="198"/>
-      <c r="U26" s="198"/>
-      <c r="V26" s="198"/>
-      <c r="W26" s="198"/>
-      <c r="X26" s="198"/>
-      <c r="Y26" s="198"/>
-      <c r="Z26" s="198"/>
-      <c r="AA26" s="198"/>
-      <c r="AB26" s="198"/>
-      <c r="AC26" s="198"/>
-      <c r="AD26" s="198"/>
-      <c r="AE26" s="199"/>
-      <c r="AF26" s="194"/>
-      <c r="AG26" s="195"/>
-      <c r="AH26" s="195"/>
-      <c r="AI26" s="196"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="162"/>
+      <c r="AB26" s="162"/>
+      <c r="AC26" s="162"/>
+      <c r="AD26" s="162"/>
+      <c r="AE26" s="163"/>
+      <c r="AF26" s="158"/>
+      <c r="AG26" s="159"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="160"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="188"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="195"/>
-      <c r="L27" s="195"/>
-      <c r="M27" s="195"/>
-      <c r="N27" s="195"/>
-      <c r="O27" s="195"/>
-      <c r="P27" s="196"/>
-      <c r="Q27" s="197"/>
-      <c r="R27" s="198"/>
-      <c r="S27" s="198"/>
-      <c r="T27" s="198"/>
-      <c r="U27" s="198"/>
-      <c r="V27" s="198"/>
-      <c r="W27" s="198"/>
-      <c r="X27" s="198"/>
-      <c r="Y27" s="198"/>
-      <c r="Z27" s="198"/>
-      <c r="AA27" s="198"/>
-      <c r="AB27" s="198"/>
-      <c r="AC27" s="198"/>
-      <c r="AD27" s="198"/>
-      <c r="AE27" s="199"/>
-      <c r="AF27" s="194"/>
-      <c r="AG27" s="195"/>
-      <c r="AH27" s="195"/>
-      <c r="AI27" s="196"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="162"/>
+      <c r="AC27" s="162"/>
+      <c r="AD27" s="162"/>
+      <c r="AE27" s="163"/>
+      <c r="AF27" s="158"/>
+      <c r="AG27" s="159"/>
+      <c r="AH27" s="159"/>
+      <c r="AI27" s="160"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="188"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="195"/>
-      <c r="L28" s="195"/>
-      <c r="M28" s="195"/>
-      <c r="N28" s="195"/>
-      <c r="O28" s="195"/>
-      <c r="P28" s="196"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="198"/>
-      <c r="S28" s="198"/>
-      <c r="T28" s="198"/>
-      <c r="U28" s="198"/>
-      <c r="V28" s="198"/>
-      <c r="W28" s="198"/>
-      <c r="X28" s="198"/>
-      <c r="Y28" s="198"/>
-      <c r="Z28" s="198"/>
-      <c r="AA28" s="198"/>
-      <c r="AB28" s="198"/>
-      <c r="AC28" s="198"/>
-      <c r="AD28" s="198"/>
-      <c r="AE28" s="199"/>
-      <c r="AF28" s="194"/>
-      <c r="AG28" s="195"/>
-      <c r="AH28" s="195"/>
-      <c r="AI28" s="196"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="162"/>
+      <c r="U28" s="162"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
+      <c r="AB28" s="162"/>
+      <c r="AC28" s="162"/>
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="163"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="159"/>
+      <c r="AH28" s="159"/>
+      <c r="AI28" s="160"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="188"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="189"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="195"/>
-      <c r="L29" s="195"/>
-      <c r="M29" s="195"/>
-      <c r="N29" s="195"/>
-      <c r="O29" s="195"/>
-      <c r="P29" s="196"/>
-      <c r="Q29" s="197"/>
-      <c r="R29" s="198"/>
-      <c r="S29" s="198"/>
-      <c r="T29" s="198"/>
-      <c r="U29" s="198"/>
-      <c r="V29" s="198"/>
-      <c r="W29" s="198"/>
-      <c r="X29" s="198"/>
-      <c r="Y29" s="198"/>
-      <c r="Z29" s="198"/>
-      <c r="AA29" s="198"/>
-      <c r="AB29" s="198"/>
-      <c r="AC29" s="198"/>
-      <c r="AD29" s="198"/>
-      <c r="AE29" s="199"/>
-      <c r="AF29" s="194"/>
-      <c r="AG29" s="195"/>
-      <c r="AH29" s="195"/>
-      <c r="AI29" s="196"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="162"/>
+      <c r="S29" s="162"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="162"/>
+      <c r="V29" s="162"/>
+      <c r="W29" s="162"/>
+      <c r="X29" s="162"/>
+      <c r="Y29" s="162"/>
+      <c r="Z29" s="162"/>
+      <c r="AA29" s="162"/>
+      <c r="AB29" s="162"/>
+      <c r="AC29" s="162"/>
+      <c r="AD29" s="162"/>
+      <c r="AE29" s="163"/>
+      <c r="AF29" s="158"/>
+      <c r="AG29" s="159"/>
+      <c r="AH29" s="159"/>
+      <c r="AI29" s="160"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="188"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="195"/>
-      <c r="L30" s="195"/>
-      <c r="M30" s="195"/>
-      <c r="N30" s="195"/>
-      <c r="O30" s="195"/>
-      <c r="P30" s="196"/>
-      <c r="Q30" s="197"/>
-      <c r="R30" s="198"/>
-      <c r="S30" s="198"/>
-      <c r="T30" s="198"/>
-      <c r="U30" s="198"/>
-      <c r="V30" s="198"/>
-      <c r="W30" s="198"/>
-      <c r="X30" s="198"/>
-      <c r="Y30" s="198"/>
-      <c r="Z30" s="198"/>
-      <c r="AA30" s="198"/>
-      <c r="AB30" s="198"/>
-      <c r="AC30" s="198"/>
-      <c r="AD30" s="198"/>
-      <c r="AE30" s="199"/>
-      <c r="AF30" s="194"/>
-      <c r="AG30" s="195"/>
-      <c r="AH30" s="195"/>
-      <c r="AI30" s="196"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="159"/>
+      <c r="P30" s="160"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="162"/>
+      <c r="T30" s="162"/>
+      <c r="U30" s="162"/>
+      <c r="V30" s="162"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="162"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="162"/>
+      <c r="AB30" s="162"/>
+      <c r="AC30" s="162"/>
+      <c r="AD30" s="162"/>
+      <c r="AE30" s="163"/>
+      <c r="AF30" s="158"/>
+      <c r="AG30" s="159"/>
+      <c r="AH30" s="159"/>
+      <c r="AI30" s="160"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="188"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="195"/>
-      <c r="L31" s="195"/>
-      <c r="M31" s="195"/>
-      <c r="N31" s="195"/>
-      <c r="O31" s="195"/>
-      <c r="P31" s="196"/>
-      <c r="Q31" s="197"/>
-      <c r="R31" s="198"/>
-      <c r="S31" s="198"/>
-      <c r="T31" s="198"/>
-      <c r="U31" s="198"/>
-      <c r="V31" s="198"/>
-      <c r="W31" s="198"/>
-      <c r="X31" s="198"/>
-      <c r="Y31" s="198"/>
-      <c r="Z31" s="198"/>
-      <c r="AA31" s="198"/>
-      <c r="AB31" s="198"/>
-      <c r="AC31" s="198"/>
-      <c r="AD31" s="198"/>
-      <c r="AE31" s="199"/>
-      <c r="AF31" s="194"/>
-      <c r="AG31" s="195"/>
-      <c r="AH31" s="195"/>
-      <c r="AI31" s="196"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="162"/>
+      <c r="T31" s="162"/>
+      <c r="U31" s="162"/>
+      <c r="V31" s="162"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="162"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="162"/>
+      <c r="AB31" s="162"/>
+      <c r="AC31" s="162"/>
+      <c r="AD31" s="162"/>
+      <c r="AE31" s="163"/>
+      <c r="AF31" s="158"/>
+      <c r="AG31" s="159"/>
+      <c r="AH31" s="159"/>
+      <c r="AI31" s="160"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="188"/>
-      <c r="C32" s="189"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="195"/>
-      <c r="M32" s="195"/>
-      <c r="N32" s="195"/>
-      <c r="O32" s="195"/>
-      <c r="P32" s="196"/>
-      <c r="Q32" s="197"/>
-      <c r="R32" s="198"/>
-      <c r="S32" s="198"/>
-      <c r="T32" s="198"/>
-      <c r="U32" s="198"/>
-      <c r="V32" s="198"/>
-      <c r="W32" s="198"/>
-      <c r="X32" s="198"/>
-      <c r="Y32" s="198"/>
-      <c r="Z32" s="198"/>
-      <c r="AA32" s="198"/>
-      <c r="AB32" s="198"/>
-      <c r="AC32" s="198"/>
-      <c r="AD32" s="198"/>
-      <c r="AE32" s="199"/>
-      <c r="AF32" s="194"/>
-      <c r="AG32" s="195"/>
-      <c r="AH32" s="195"/>
-      <c r="AI32" s="196"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="162"/>
+      <c r="S32" s="162"/>
+      <c r="T32" s="162"/>
+      <c r="U32" s="162"/>
+      <c r="V32" s="162"/>
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="162"/>
+      <c r="Z32" s="162"/>
+      <c r="AA32" s="162"/>
+      <c r="AB32" s="162"/>
+      <c r="AC32" s="162"/>
+      <c r="AD32" s="162"/>
+      <c r="AE32" s="163"/>
+      <c r="AF32" s="158"/>
+      <c r="AG32" s="159"/>
+      <c r="AH32" s="159"/>
+      <c r="AI32" s="160"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="188"/>
-      <c r="C33" s="189"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="195"/>
-      <c r="L33" s="195"/>
-      <c r="M33" s="195"/>
-      <c r="N33" s="195"/>
-      <c r="O33" s="195"/>
-      <c r="P33" s="196"/>
-      <c r="Q33" s="197"/>
-      <c r="R33" s="198"/>
-      <c r="S33" s="198"/>
-      <c r="T33" s="198"/>
-      <c r="U33" s="198"/>
-      <c r="V33" s="198"/>
-      <c r="W33" s="198"/>
-      <c r="X33" s="198"/>
-      <c r="Y33" s="198"/>
-      <c r="Z33" s="198"/>
-      <c r="AA33" s="198"/>
-      <c r="AB33" s="198"/>
-      <c r="AC33" s="198"/>
-      <c r="AD33" s="198"/>
-      <c r="AE33" s="199"/>
-      <c r="AF33" s="194"/>
-      <c r="AG33" s="195"/>
-      <c r="AH33" s="195"/>
-      <c r="AI33" s="196"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="159"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="162"/>
+      <c r="S33" s="162"/>
+      <c r="T33" s="162"/>
+      <c r="U33" s="162"/>
+      <c r="V33" s="162"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="162"/>
+      <c r="Z33" s="162"/>
+      <c r="AA33" s="162"/>
+      <c r="AB33" s="162"/>
+      <c r="AC33" s="162"/>
+      <c r="AD33" s="162"/>
+      <c r="AE33" s="163"/>
+      <c r="AF33" s="158"/>
+      <c r="AG33" s="159"/>
+      <c r="AH33" s="159"/>
+      <c r="AI33" s="160"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8068,6 +7897,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8224,157 +8209,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="161" t="str">
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="218" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="231" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="230" t="str">
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="215" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="217"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="230"/>
+      <c r="AC1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="227">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="216">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="228"/>
-      <c r="AI1" s="229"/>
+      <c r="AH1" s="217"/>
+      <c r="AI1" s="218"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="161" t="str">
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="215" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="235"/>
+      <c r="Q2" s="235"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="217"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="230"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="227" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="228"/>
-      <c r="AI2" s="229"/>
+      <c r="AH2" s="217"/>
+      <c r="AI2" s="218"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="161" t="str">
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="224"/>
-      <c r="P3" s="225"/>
-      <c r="Q3" s="225"/>
-      <c r="R3" s="226"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="215"/>
-      <c r="AB3" s="217"/>
-      <c r="AC3" s="151" t="str">
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="230"/>
+      <c r="AC3" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="227" t="str">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="228"/>
-      <c r="AI3" s="229"/>
+      <c r="AH3" s="217"/>
+      <c r="AI3" s="218"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="44"/>
@@ -9841,6 +9826,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9850,14 +9843,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -9886,157 +9871,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="161" t="str">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="170" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="230" t="str">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="167" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="240">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="250">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="242"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="252"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="161" t="str">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="167" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="240" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="242"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="252"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="161" t="str">
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="151" t="str">
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="240" t="str">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="242"/>
+      <c r="AH3" s="251"/>
+      <c r="AI3" s="252"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
       <c r="A4" s="30"/>
@@ -10192,94 +10177,94 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="245" t="s">
+      <c r="D8" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="243" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="244"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="244"/>
-      <c r="M8" s="244"/>
-      <c r="N8" s="244"/>
-      <c r="O8" s="244"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="244"/>
-      <c r="U8" s="244"/>
-      <c r="V8" s="244"/>
-      <c r="W8" s="244"/>
-      <c r="X8" s="244"/>
-      <c r="Y8" s="244"/>
-      <c r="Z8" s="244"/>
-      <c r="AA8" s="244"/>
-      <c r="AB8" s="244"/>
-      <c r="AC8" s="244"/>
-      <c r="AD8" s="244"/>
-      <c r="AE8" s="244"/>
-      <c r="AF8" s="244"/>
-      <c r="AG8" s="244"/>
-      <c r="AH8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="253" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="254"/>
+      <c r="J8" s="254"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="254"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="254"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
+      <c r="V8" s="254"/>
+      <c r="W8" s="254"/>
+      <c r="X8" s="254"/>
+      <c r="Y8" s="254"/>
+      <c r="Z8" s="254"/>
+      <c r="AA8" s="254"/>
+      <c r="AB8" s="254"/>
+      <c r="AC8" s="254"/>
+      <c r="AD8" s="254"/>
+      <c r="AE8" s="254"/>
+      <c r="AF8" s="254"/>
+      <c r="AG8" s="254"/>
+      <c r="AH8" s="254"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="245" t="s">
+      <c r="D9" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="239" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="239"/>
-      <c r="M9" s="239"/>
-      <c r="N9" s="239"/>
-      <c r="O9" s="239"/>
-      <c r="P9" s="239"/>
-      <c r="Q9" s="239"/>
-      <c r="R9" s="239"/>
-      <c r="S9" s="239"/>
-      <c r="T9" s="239"/>
-      <c r="U9" s="239"/>
-      <c r="V9" s="239"/>
-      <c r="W9" s="239"/>
-      <c r="X9" s="239"/>
-      <c r="Y9" s="239"/>
-      <c r="Z9" s="239"/>
-      <c r="AA9" s="239"/>
-      <c r="AB9" s="239"/>
-      <c r="AC9" s="239"/>
-      <c r="AD9" s="239"/>
-      <c r="AE9" s="239"/>
-      <c r="AF9" s="239"/>
-      <c r="AG9" s="239"/>
-      <c r="AH9" s="239"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="249" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="249"/>
+      <c r="J9" s="249"/>
+      <c r="K9" s="249"/>
+      <c r="L9" s="249"/>
+      <c r="M9" s="249"/>
+      <c r="N9" s="249"/>
+      <c r="O9" s="249"/>
+      <c r="P9" s="249"/>
+      <c r="Q9" s="249"/>
+      <c r="R9" s="249"/>
+      <c r="S9" s="249"/>
+      <c r="T9" s="249"/>
+      <c r="U9" s="249"/>
+      <c r="V9" s="249"/>
+      <c r="W9" s="249"/>
+      <c r="X9" s="249"/>
+      <c r="Y9" s="249"/>
+      <c r="Z9" s="249"/>
+      <c r="AA9" s="249"/>
+      <c r="AB9" s="249"/>
+      <c r="AC9" s="249"/>
+      <c r="AD9" s="249"/>
+      <c r="AE9" s="249"/>
+      <c r="AF9" s="249"/>
+      <c r="AG9" s="249"/>
+      <c r="AH9" s="249"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="248" t="s">
+      <c r="D10" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="250"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="242"/>
       <c r="H10" s="103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I10" s="104"/>
       <c r="J10" s="104"/>
@@ -10312,174 +10297,174 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="245" t="s">
+      <c r="D11" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="243" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="244"/>
-      <c r="M11" s="244"/>
-      <c r="N11" s="244"/>
-      <c r="O11" s="244"/>
-      <c r="P11" s="244"/>
-      <c r="Q11" s="244"/>
-      <c r="R11" s="244"/>
-      <c r="S11" s="244"/>
-      <c r="T11" s="244"/>
-      <c r="U11" s="244"/>
-      <c r="V11" s="244"/>
-      <c r="W11" s="244"/>
-      <c r="X11" s="244"/>
-      <c r="Y11" s="244"/>
-      <c r="Z11" s="244"/>
-      <c r="AA11" s="244"/>
-      <c r="AB11" s="244"/>
-      <c r="AC11" s="244"/>
-      <c r="AD11" s="244"/>
-      <c r="AE11" s="244"/>
-      <c r="AF11" s="244"/>
-      <c r="AG11" s="244"/>
-      <c r="AH11" s="244"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="253" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="254"/>
+      <c r="J11" s="254"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="254"/>
+      <c r="M11" s="254"/>
+      <c r="N11" s="254"/>
+      <c r="O11" s="254"/>
+      <c r="P11" s="254"/>
+      <c r="Q11" s="254"/>
+      <c r="R11" s="254"/>
+      <c r="S11" s="254"/>
+      <c r="T11" s="254"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="254"/>
+      <c r="W11" s="254"/>
+      <c r="X11" s="254"/>
+      <c r="Y11" s="254"/>
+      <c r="Z11" s="254"/>
+      <c r="AA11" s="254"/>
+      <c r="AB11" s="254"/>
+      <c r="AC11" s="254"/>
+      <c r="AD11" s="254"/>
+      <c r="AE11" s="254"/>
+      <c r="AF11" s="254"/>
+      <c r="AG11" s="254"/>
+      <c r="AH11" s="254"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="245" t="s">
+      <c r="D12" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="239" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" s="239"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="239"/>
-      <c r="M12" s="239"/>
-      <c r="N12" s="239"/>
-      <c r="O12" s="239"/>
-      <c r="P12" s="239"/>
-      <c r="Q12" s="239"/>
-      <c r="R12" s="239"/>
-      <c r="S12" s="239"/>
-      <c r="T12" s="239"/>
-      <c r="U12" s="239"/>
-      <c r="V12" s="239"/>
-      <c r="W12" s="239"/>
-      <c r="X12" s="239"/>
-      <c r="Y12" s="239"/>
-      <c r="Z12" s="239"/>
-      <c r="AA12" s="239"/>
-      <c r="AB12" s="239"/>
-      <c r="AC12" s="239"/>
-      <c r="AD12" s="239"/>
-      <c r="AE12" s="239"/>
-      <c r="AF12" s="239"/>
-      <c r="AG12" s="239"/>
-      <c r="AH12" s="239"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="245"/>
+      <c r="H12" s="249" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="249"/>
+      <c r="J12" s="249"/>
+      <c r="K12" s="249"/>
+      <c r="L12" s="249"/>
+      <c r="M12" s="249"/>
+      <c r="N12" s="249"/>
+      <c r="O12" s="249"/>
+      <c r="P12" s="249"/>
+      <c r="Q12" s="249"/>
+      <c r="R12" s="249"/>
+      <c r="S12" s="249"/>
+      <c r="T12" s="249"/>
+      <c r="U12" s="249"/>
+      <c r="V12" s="249"/>
+      <c r="W12" s="249"/>
+      <c r="X12" s="249"/>
+      <c r="Y12" s="249"/>
+      <c r="Z12" s="249"/>
+      <c r="AA12" s="249"/>
+      <c r="AB12" s="249"/>
+      <c r="AC12" s="249"/>
+      <c r="AD12" s="249"/>
+      <c r="AE12" s="249"/>
+      <c r="AF12" s="249"/>
+      <c r="AG12" s="249"/>
+      <c r="AH12" s="249"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="245" t="s">
+      <c r="D13" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="239" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="239"/>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="239"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="239"/>
-      <c r="R13" s="239"/>
-      <c r="S13" s="239"/>
-      <c r="T13" s="239"/>
-      <c r="U13" s="239"/>
-      <c r="V13" s="239"/>
-      <c r="W13" s="239"/>
-      <c r="X13" s="239"/>
-      <c r="Y13" s="239"/>
-      <c r="Z13" s="239"/>
-      <c r="AA13" s="239"/>
-      <c r="AB13" s="239"/>
-      <c r="AC13" s="239"/>
-      <c r="AD13" s="239"/>
-      <c r="AE13" s="239"/>
-      <c r="AF13" s="239"/>
-      <c r="AG13" s="239"/>
-      <c r="AH13" s="239"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="245"/>
+      <c r="H13" s="249" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="249"/>
+      <c r="J13" s="249"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="249"/>
+      <c r="M13" s="249"/>
+      <c r="N13" s="249"/>
+      <c r="O13" s="249"/>
+      <c r="P13" s="249"/>
+      <c r="Q13" s="249"/>
+      <c r="R13" s="249"/>
+      <c r="S13" s="249"/>
+      <c r="T13" s="249"/>
+      <c r="U13" s="249"/>
+      <c r="V13" s="249"/>
+      <c r="W13" s="249"/>
+      <c r="X13" s="249"/>
+      <c r="Y13" s="249"/>
+      <c r="Z13" s="249"/>
+      <c r="AA13" s="249"/>
+      <c r="AB13" s="249"/>
+      <c r="AC13" s="249"/>
+      <c r="AD13" s="249"/>
+      <c r="AE13" s="249"/>
+      <c r="AF13" s="249"/>
+      <c r="AG13" s="249"/>
+      <c r="AH13" s="249"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="245" t="s">
+      <c r="D14" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="239" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="239"/>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="239"/>
-      <c r="M14" s="239"/>
-      <c r="N14" s="239"/>
-      <c r="O14" s="239"/>
-      <c r="P14" s="239"/>
-      <c r="Q14" s="239"/>
-      <c r="R14" s="239"/>
-      <c r="S14" s="239"/>
-      <c r="T14" s="239"/>
-      <c r="U14" s="239"/>
-      <c r="V14" s="239"/>
-      <c r="W14" s="239"/>
-      <c r="X14" s="239"/>
-      <c r="Y14" s="239"/>
-      <c r="Z14" s="239"/>
-      <c r="AA14" s="239"/>
-      <c r="AB14" s="239"/>
-      <c r="AC14" s="239"/>
-      <c r="AD14" s="239"/>
-      <c r="AE14" s="239"/>
-      <c r="AF14" s="239"/>
-      <c r="AG14" s="239"/>
-      <c r="AH14" s="239"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="245"/>
+      <c r="H14" s="249" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="249"/>
+      <c r="J14" s="249"/>
+      <c r="K14" s="249"/>
+      <c r="L14" s="249"/>
+      <c r="M14" s="249"/>
+      <c r="N14" s="249"/>
+      <c r="O14" s="249"/>
+      <c r="P14" s="249"/>
+      <c r="Q14" s="249"/>
+      <c r="R14" s="249"/>
+      <c r="S14" s="249"/>
+      <c r="T14" s="249"/>
+      <c r="U14" s="249"/>
+      <c r="V14" s="249"/>
+      <c r="W14" s="249"/>
+      <c r="X14" s="249"/>
+      <c r="Y14" s="249"/>
+      <c r="Z14" s="249"/>
+      <c r="AA14" s="249"/>
+      <c r="AB14" s="249"/>
+      <c r="AC14" s="249"/>
+      <c r="AD14" s="249"/>
+      <c r="AE14" s="249"/>
+      <c r="AF14" s="249"/>
+      <c r="AG14" s="249"/>
+      <c r="AH14" s="249"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="245" t="s">
+      <c r="D15" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="246"/>
-      <c r="F15" s="246"/>
-      <c r="G15" s="247"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="245"/>
       <c r="H15" s="144" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I15" s="145"/>
       <c r="J15" s="145"/>
@@ -10629,30 +10614,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="253"/>
-      <c r="M19" s="253"/>
-      <c r="N19" s="253"/>
-      <c r="O19" s="251"/>
-      <c r="P19" s="252"/>
-      <c r="Q19" s="252"/>
-      <c r="R19" s="252"/>
-      <c r="S19" s="252"/>
-      <c r="T19" s="252"/>
-      <c r="U19" s="252"/>
-      <c r="V19" s="252"/>
-      <c r="W19" s="252"/>
-      <c r="X19" s="252"/>
-      <c r="Y19" s="252"/>
-      <c r="Z19" s="252"/>
-      <c r="AA19" s="252"/>
-      <c r="AB19" s="252"/>
-      <c r="AC19" s="252"/>
-      <c r="AD19" s="252"/>
+      <c r="G19" s="248"/>
+      <c r="H19" s="248"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="248"/>
+      <c r="L19" s="248"/>
+      <c r="M19" s="248"/>
+      <c r="N19" s="248"/>
+      <c r="O19" s="246"/>
+      <c r="P19" s="247"/>
+      <c r="Q19" s="247"/>
+      <c r="R19" s="247"/>
+      <c r="S19" s="247"/>
+      <c r="T19" s="247"/>
+      <c r="U19" s="247"/>
+      <c r="V19" s="247"/>
+      <c r="W19" s="247"/>
+      <c r="X19" s="247"/>
+      <c r="Y19" s="247"/>
+      <c r="Z19" s="247"/>
+      <c r="AA19" s="247"/>
+      <c r="AB19" s="247"/>
+      <c r="AC19" s="247"/>
+      <c r="AD19" s="247"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
@@ -11104,15 +11089,14 @@
     <row r="34" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11129,14 +11113,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11153,10 +11138,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -11165,157 +11150,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="161" t="str">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="170" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="230" t="str">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="167" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="240">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="250">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="242"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="252"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="161" t="str">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="167" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="240" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="242"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="252"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="161" t="str">
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="151" t="str">
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="240" t="str">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="242"/>
+      <c r="AH3" s="251"/>
+      <c r="AI3" s="252"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" ht="12" customHeight="1">
@@ -11323,14 +11308,13 @@
         <v>55</v>
       </c>
     </row>
+    <row r="13" spans="1:35">
+      <c r="J13" s="91" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11342,6 +11326,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11359,10 +11349,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL79"/>
+  <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S58" sqref="S58"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -11371,163 +11361,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="161" t="str">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="170" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="230" t="str">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="167" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="240">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="250">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="242"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="252"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="161" t="str">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="167" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="240" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="242"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="252"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="161" t="str">
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="151" t="str">
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="240" t="str">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="242"/>
+      <c r="AH3" s="251"/>
+      <c r="AI3" s="252"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11535,7 +11525,7 @@
     <row r="4" spans="1:38" ht="12" customHeight="1"/>
     <row r="5" spans="1:38" ht="12" customHeight="1">
       <c r="B5" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -11645,65 +11635,65 @@
     <row r="8" spans="1:38">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="329" t="s">
+      <c r="D8" s="301" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="331" t="s">
+      <c r="E8" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="332"/>
-      <c r="G8" s="332"/>
-      <c r="H8" s="332"/>
-      <c r="I8" s="332"/>
-      <c r="J8" s="333"/>
-      <c r="K8" s="337" t="s">
+      <c r="F8" s="272"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="272"/>
+      <c r="I8" s="272"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="277" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="332"/>
-      <c r="M8" s="332"/>
-      <c r="N8" s="333"/>
-      <c r="O8" s="338" t="s">
+      <c r="L8" s="272"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="284" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="343" t="s">
+      <c r="P8" s="289" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="344"/>
-      <c r="R8" s="344"/>
-      <c r="S8" s="344"/>
-      <c r="T8" s="344"/>
-      <c r="U8" s="345"/>
-      <c r="V8" s="340" t="s">
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="291"/>
+      <c r="V8" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="340"/>
-      <c r="X8" s="340"/>
-      <c r="Y8" s="340"/>
-      <c r="Z8" s="340"/>
-      <c r="AA8" s="340"/>
-      <c r="AB8" s="340"/>
-      <c r="AC8" s="340"/>
-      <c r="AD8" s="340"/>
-      <c r="AE8" s="340"/>
-      <c r="AF8" s="340"/>
-      <c r="AG8" s="340"/>
-      <c r="AH8" s="340"/>
+      <c r="W8" s="286"/>
+      <c r="X8" s="286"/>
+      <c r="Y8" s="286"/>
+      <c r="Z8" s="286"/>
+      <c r="AA8" s="286"/>
+      <c r="AB8" s="286"/>
+      <c r="AC8" s="286"/>
+      <c r="AD8" s="286"/>
+      <c r="AE8" s="286"/>
+      <c r="AF8" s="286"/>
+      <c r="AG8" s="286"/>
+      <c r="AH8" s="286"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="330"/>
-      <c r="E9" s="334"/>
-      <c r="F9" s="335"/>
-      <c r="G9" s="335"/>
-      <c r="H9" s="335"/>
-      <c r="I9" s="335"/>
-      <c r="J9" s="336"/>
-      <c r="K9" s="334"/>
-      <c r="L9" s="335"/>
-      <c r="M9" s="335"/>
-      <c r="N9" s="336"/>
-      <c r="O9" s="339"/>
+      <c r="D9" s="302"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="276"/>
+      <c r="K9" s="274"/>
+      <c r="L9" s="275"/>
+      <c r="M9" s="275"/>
+      <c r="N9" s="276"/>
+      <c r="O9" s="285"/>
       <c r="P9" s="90" t="s">
         <v>46</v>
       </c>
@@ -11716,23 +11706,23 @@
       <c r="S9" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="341" t="s">
+      <c r="T9" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="342"/>
-      <c r="V9" s="340"/>
-      <c r="W9" s="340"/>
-      <c r="X9" s="340"/>
-      <c r="Y9" s="340"/>
-      <c r="Z9" s="340"/>
-      <c r="AA9" s="340"/>
-      <c r="AB9" s="340"/>
-      <c r="AC9" s="340"/>
-      <c r="AD9" s="340"/>
-      <c r="AE9" s="340"/>
-      <c r="AF9" s="340"/>
-      <c r="AG9" s="340"/>
-      <c r="AH9" s="340"/>
+      <c r="U9" s="288"/>
+      <c r="V9" s="286"/>
+      <c r="W9" s="286"/>
+      <c r="X9" s="286"/>
+      <c r="Y9" s="286"/>
+      <c r="Z9" s="286"/>
+      <c r="AA9" s="286"/>
+      <c r="AB9" s="286"/>
+      <c r="AC9" s="286"/>
+      <c r="AD9" s="286"/>
+      <c r="AE9" s="286"/>
+      <c r="AF9" s="286"/>
+      <c r="AG9" s="286"/>
+      <c r="AH9" s="286"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" s="30"/>
@@ -11740,20 +11730,20 @@
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="263" t="s">
+      <c r="E10" s="281" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="197" t="s">
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="199"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="163"/>
       <c r="O10" s="115" t="s">
         <v>79</v>
       </c>
@@ -11769,23 +11759,23 @@
       <c r="S10" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="255" t="s">
+      <c r="T10" s="282" t="s">
         <v>82</v>
       </c>
-      <c r="U10" s="256"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="198"/>
-      <c r="Y10" s="198"/>
-      <c r="Z10" s="198"/>
-      <c r="AA10" s="198"/>
-      <c r="AB10" s="198"/>
-      <c r="AC10" s="198"/>
-      <c r="AD10" s="198"/>
-      <c r="AE10" s="198"/>
-      <c r="AF10" s="198"/>
-      <c r="AG10" s="198"/>
-      <c r="AH10" s="199"/>
+      <c r="U10" s="283"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="162"/>
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="163"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" s="30"/>
@@ -11793,20 +11783,20 @@
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="263" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="197" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="199"/>
+      <c r="E11" s="281" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="163"/>
       <c r="O11" s="116" t="s">
         <v>80</v>
       </c>
@@ -11822,23 +11812,23 @@
       <c r="S11" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="T11" s="255" t="s">
+      <c r="T11" s="282" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="256"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="198"/>
-      <c r="Z11" s="198"/>
-      <c r="AA11" s="198"/>
-      <c r="AB11" s="198"/>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="198"/>
-      <c r="AE11" s="198"/>
-      <c r="AF11" s="198"/>
-      <c r="AG11" s="198"/>
-      <c r="AH11" s="199"/>
+      <c r="U11" s="283"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="162"/>
+      <c r="AG11" s="162"/>
+      <c r="AH11" s="163"/>
     </row>
     <row r="12" spans="1:38">
       <c r="B12" s="30"/>
@@ -11846,20 +11836,20 @@
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="263" t="s">
+      <c r="E12" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="197" t="s">
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="199"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="163"/>
       <c r="O12" s="116" t="s">
         <v>80</v>
       </c>
@@ -11875,23 +11865,23 @@
       <c r="S12" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="T12" s="255" t="s">
+      <c r="T12" s="282" t="s">
         <v>82</v>
       </c>
-      <c r="U12" s="256"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="198"/>
-      <c r="Y12" s="198"/>
-      <c r="Z12" s="198"/>
-      <c r="AA12" s="198"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="198"/>
-      <c r="AF12" s="198"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="199"/>
+      <c r="U12" s="283"/>
+      <c r="V12" s="161"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="162"/>
+      <c r="AF12" s="162"/>
+      <c r="AG12" s="162"/>
+      <c r="AH12" s="163"/>
     </row>
     <row r="13" spans="1:38">
       <c r="B13" s="30"/>
@@ -12041,40 +12031,40 @@
       <c r="D17" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="347" t="s">
+      <c r="E17" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="348"/>
-      <c r="G17" s="349"/>
-      <c r="H17" s="260" t="s">
+      <c r="F17" s="257"/>
+      <c r="G17" s="258"/>
+      <c r="H17" s="351" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="261"/>
-      <c r="J17" s="261"/>
-      <c r="K17" s="261"/>
-      <c r="L17" s="261"/>
-      <c r="M17" s="261"/>
-      <c r="N17" s="261"/>
-      <c r="O17" s="261"/>
-      <c r="P17" s="261"/>
-      <c r="Q17" s="261"/>
-      <c r="R17" s="261"/>
-      <c r="S17" s="261"/>
-      <c r="T17" s="261"/>
-      <c r="U17" s="261"/>
-      <c r="V17" s="261"/>
-      <c r="W17" s="261"/>
-      <c r="X17" s="261"/>
-      <c r="Y17" s="261"/>
-      <c r="Z17" s="261"/>
-      <c r="AA17" s="261"/>
-      <c r="AB17" s="261"/>
-      <c r="AC17" s="261"/>
-      <c r="AD17" s="261"/>
-      <c r="AE17" s="261"/>
-      <c r="AF17" s="261"/>
-      <c r="AG17" s="261"/>
-      <c r="AH17" s="262"/>
+      <c r="I17" s="352"/>
+      <c r="J17" s="352"/>
+      <c r="K17" s="352"/>
+      <c r="L17" s="352"/>
+      <c r="M17" s="352"/>
+      <c r="N17" s="352"/>
+      <c r="O17" s="352"/>
+      <c r="P17" s="352"/>
+      <c r="Q17" s="352"/>
+      <c r="R17" s="352"/>
+      <c r="S17" s="352"/>
+      <c r="T17" s="352"/>
+      <c r="U17" s="352"/>
+      <c r="V17" s="352"/>
+      <c r="W17" s="352"/>
+      <c r="X17" s="352"/>
+      <c r="Y17" s="352"/>
+      <c r="Z17" s="352"/>
+      <c r="AA17" s="352"/>
+      <c r="AB17" s="352"/>
+      <c r="AC17" s="352"/>
+      <c r="AD17" s="352"/>
+      <c r="AE17" s="352"/>
+      <c r="AF17" s="352"/>
+      <c r="AG17" s="352"/>
+      <c r="AH17" s="353"/>
     </row>
     <row r="18" spans="1:35" s="88" customFormat="1" ht="23.25" customHeight="1">
       <c r="B18" s="30"/>
@@ -12082,40 +12072,40 @@
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="263" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="198"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="263" t="s">
+      <c r="E18" s="281" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="198"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
-      <c r="O18" s="198"/>
-      <c r="P18" s="198"/>
-      <c r="Q18" s="198"/>
-      <c r="R18" s="198"/>
-      <c r="S18" s="198"/>
-      <c r="T18" s="198"/>
-      <c r="U18" s="198"/>
-      <c r="V18" s="198"/>
-      <c r="W18" s="198"/>
-      <c r="X18" s="198"/>
-      <c r="Y18" s="198"/>
-      <c r="Z18" s="198"/>
-      <c r="AA18" s="198"/>
-      <c r="AB18" s="198"/>
-      <c r="AC18" s="198"/>
-      <c r="AD18" s="198"/>
-      <c r="AE18" s="198"/>
-      <c r="AF18" s="198"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="199"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="162"/>
+      <c r="T18" s="162"/>
+      <c r="U18" s="162"/>
+      <c r="V18" s="162"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+      <c r="Y18" s="162"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="162"/>
+      <c r="AB18" s="162"/>
+      <c r="AC18" s="162"/>
+      <c r="AD18" s="162"/>
+      <c r="AE18" s="162"/>
+      <c r="AF18" s="162"/>
+      <c r="AG18" s="162"/>
+      <c r="AH18" s="163"/>
     </row>
     <row r="19" spans="1:35" ht="23.25" customHeight="1">
       <c r="B19" s="1"/>
@@ -12123,40 +12113,40 @@
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="263" t="s">
+      <c r="E19" s="281" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="162"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="281" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="198"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="263" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="198"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="198"/>
-      <c r="P19" s="198"/>
-      <c r="Q19" s="198"/>
-      <c r="R19" s="198"/>
-      <c r="S19" s="198"/>
-      <c r="T19" s="198"/>
-      <c r="U19" s="198"/>
-      <c r="V19" s="198"/>
-      <c r="W19" s="198"/>
-      <c r="X19" s="198"/>
-      <c r="Y19" s="198"/>
-      <c r="Z19" s="198"/>
-      <c r="AA19" s="198"/>
-      <c r="AB19" s="198"/>
-      <c r="AC19" s="198"/>
-      <c r="AD19" s="198"/>
-      <c r="AE19" s="198"/>
-      <c r="AF19" s="198"/>
-      <c r="AG19" s="198"/>
-      <c r="AH19" s="199"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="162"/>
+      <c r="U19" s="162"/>
+      <c r="V19" s="162"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
+      <c r="Y19" s="162"/>
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="162"/>
+      <c r="AB19" s="162"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="162"/>
+      <c r="AF19" s="162"/>
+      <c r="AG19" s="162"/>
+      <c r="AH19" s="163"/>
     </row>
     <row r="20" spans="1:35" ht="23.25" customHeight="1">
       <c r="B20" s="1"/>
@@ -12164,40 +12154,40 @@
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="263" t="s">
+      <c r="E20" s="281" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="162"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="281" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="198"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="263" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" s="198"/>
-      <c r="J20" s="198"/>
-      <c r="K20" s="198"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
-      <c r="N20" s="198"/>
-      <c r="O20" s="198"/>
-      <c r="P20" s="198"/>
-      <c r="Q20" s="198"/>
-      <c r="R20" s="198"/>
-      <c r="S20" s="198"/>
-      <c r="T20" s="198"/>
-      <c r="U20" s="198"/>
-      <c r="V20" s="198"/>
-      <c r="W20" s="198"/>
-      <c r="X20" s="198"/>
-      <c r="Y20" s="198"/>
-      <c r="Z20" s="198"/>
-      <c r="AA20" s="198"/>
-      <c r="AB20" s="198"/>
-      <c r="AC20" s="198"/>
-      <c r="AD20" s="198"/>
-      <c r="AE20" s="198"/>
-      <c r="AF20" s="198"/>
-      <c r="AG20" s="198"/>
-      <c r="AH20" s="199"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="162"/>
+      <c r="U20" s="162"/>
+      <c r="V20" s="162"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
+      <c r="Y20" s="162"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162"/>
+      <c r="AB20" s="162"/>
+      <c r="AC20" s="162"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="162"/>
+      <c r="AF20" s="162"/>
+      <c r="AG20" s="162"/>
+      <c r="AH20" s="163"/>
     </row>
     <row r="21" spans="1:35">
       <c r="B21" s="87"/>
@@ -12380,175 +12370,187 @@
     </row>
     <row r="26" spans="1:35">
       <c r="B26" s="87"/>
-      <c r="C26" s="93"/>
-      <c r="E26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="125"/>
-      <c r="AE26" s="125"/>
-      <c r="AF26" s="124"/>
+      <c r="C26" s="150"/>
+      <c r="E26" s="361" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="362" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="363"/>
+      <c r="H26" s="363"/>
+      <c r="I26" s="363"/>
+      <c r="J26" s="363"/>
+      <c r="K26" s="364"/>
+      <c r="L26" s="362" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" s="363"/>
+      <c r="N26" s="363"/>
+      <c r="O26" s="363"/>
+      <c r="P26" s="363"/>
+      <c r="Q26" s="363"/>
+      <c r="R26" s="363"/>
+      <c r="S26" s="363"/>
+      <c r="T26" s="363"/>
+      <c r="U26" s="364"/>
+      <c r="V26" s="362" t="s">
+        <v>148</v>
+      </c>
+      <c r="W26" s="362" t="s">
+        <v>149</v>
+      </c>
+      <c r="X26" s="363"/>
+      <c r="Y26" s="363"/>
+      <c r="Z26" s="363"/>
+      <c r="AA26" s="363"/>
+      <c r="AB26" s="365"/>
+      <c r="AC26" s="365"/>
+      <c r="AD26" s="366"/>
       <c r="AG26" s="124"/>
       <c r="AH26" s="125"/>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="48"/>
       <c r="B27" s="87"/>
-      <c r="C27" s="93"/>
+      <c r="C27" s="150"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="125"/>
-      <c r="AE27" s="125"/>
-      <c r="AF27" s="124"/>
+      <c r="E27" s="367">
+        <v>1</v>
+      </c>
+      <c r="F27" s="368" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="369"/>
+      <c r="H27" s="369"/>
+      <c r="I27" s="369"/>
+      <c r="J27" s="369"/>
+      <c r="K27" s="370"/>
+      <c r="L27" s="368" t="s">
+        <v>152</v>
+      </c>
+      <c r="M27" s="369"/>
+      <c r="N27" s="369"/>
+      <c r="O27" s="369"/>
+      <c r="P27" s="369"/>
+      <c r="Q27" s="369"/>
+      <c r="R27" s="369"/>
+      <c r="S27" s="369"/>
+      <c r="T27" s="369"/>
+      <c r="U27" s="370"/>
+      <c r="V27" s="368" t="s">
+        <v>151</v>
+      </c>
+      <c r="W27" s="371" t="s">
+        <v>152</v>
+      </c>
+      <c r="X27" s="372"/>
+      <c r="Y27" s="372"/>
+      <c r="Z27" s="372"/>
+      <c r="AA27" s="372"/>
+      <c r="AB27" s="372"/>
+      <c r="AC27" s="373"/>
+      <c r="AD27" s="374"/>
       <c r="AG27" s="124"/>
       <c r="AH27" s="125"/>
     </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="48"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="325" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="325"/>
-      <c r="G28" s="346" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="346"/>
-      <c r="I28" s="346"/>
-      <c r="J28" s="346"/>
-      <c r="K28" s="346"/>
-      <c r="L28" s="346"/>
-      <c r="M28" s="325" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="325"/>
-      <c r="O28" s="284" t="s">
-        <v>83</v>
-      </c>
-      <c r="P28" s="285"/>
-      <c r="Q28" s="285"/>
-      <c r="R28" s="285"/>
-      <c r="S28" s="285"/>
-      <c r="T28" s="285"/>
-      <c r="U28" s="285"/>
-      <c r="V28" s="285"/>
-      <c r="W28" s="285"/>
-      <c r="X28" s="285"/>
-      <c r="Y28" s="285"/>
-      <c r="Z28" s="285"/>
-      <c r="AA28" s="285"/>
-      <c r="AB28" s="285"/>
-      <c r="AC28" s="285"/>
-      <c r="AD28" s="285"/>
-      <c r="AE28" s="285"/>
-      <c r="AF28" s="285"/>
-      <c r="AG28" s="285"/>
-      <c r="AH28" s="286"/>
+    <row r="28" spans="1:35" s="86" customFormat="1">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="48"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="125"/>
-      <c r="AF29" s="124"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="125"/>
-    </row>
-    <row r="30" spans="1:35" s="86" customFormat="1">
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="48"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="48"/>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58" t="s">
+        <v>94</v>
+      </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
       <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
+      <c r="N31" s="28"/>
       <c r="O31" s="48"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
@@ -12574,9 +12576,7 @@
     <row r="32" spans="1:35">
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
-      <c r="C32" s="58" t="s">
-        <v>32</v>
-      </c>
+      <c r="C32" s="48"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
@@ -12610,427 +12610,429 @@
       <c r="AH32" s="48"/>
       <c r="AI32" s="48"/>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" ht="41.25" customHeight="1">
       <c r="A33" s="48"/>
       <c r="B33" s="48"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58" t="s">
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
+      <c r="F33" s="310" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="311"/>
+      <c r="H33" s="311"/>
+      <c r="I33" s="311"/>
+      <c r="J33" s="311"/>
+      <c r="K33" s="312"/>
+      <c r="L33" s="313" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33" s="311"/>
+      <c r="N33" s="311"/>
+      <c r="O33" s="311"/>
+      <c r="P33" s="311"/>
+      <c r="Q33" s="311"/>
+      <c r="R33" s="311"/>
+      <c r="S33" s="311"/>
+      <c r="T33" s="311"/>
+      <c r="U33" s="312"/>
+      <c r="V33" s="314" t="s">
+        <v>98</v>
+      </c>
+      <c r="W33" s="315"/>
+      <c r="X33" s="316"/>
+      <c r="Y33" s="314" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z33" s="315"/>
+      <c r="AA33" s="315"/>
+      <c r="AB33" s="316"/>
+      <c r="AC33" s="317" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD33" s="318"/>
+      <c r="AE33" s="318"/>
+      <c r="AF33" s="319"/>
       <c r="AG33" s="48"/>
       <c r="AH33" s="48"/>
       <c r="AI33" s="48"/>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" ht="36.75" customHeight="1">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
+      <c r="E34" s="129">
+        <v>1</v>
+      </c>
+      <c r="F34" s="343" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="323"/>
+      <c r="H34" s="323"/>
+      <c r="I34" s="323"/>
+      <c r="J34" s="323"/>
+      <c r="K34" s="324"/>
+      <c r="L34" s="261" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="323"/>
+      <c r="N34" s="323"/>
+      <c r="O34" s="323"/>
+      <c r="P34" s="323"/>
+      <c r="Q34" s="323"/>
+      <c r="R34" s="323"/>
+      <c r="S34" s="323"/>
+      <c r="T34" s="323"/>
+      <c r="U34" s="324"/>
+      <c r="V34" s="344" t="s">
+        <v>103</v>
+      </c>
+      <c r="W34" s="345"/>
+      <c r="X34" s="346"/>
+      <c r="Y34" s="320" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z34" s="321"/>
+      <c r="AA34" s="321"/>
+      <c r="AB34" s="322"/>
+      <c r="AC34" s="261" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD34" s="323"/>
+      <c r="AE34" s="323"/>
+      <c r="AF34" s="324"/>
       <c r="AG34" s="48"/>
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
     </row>
-    <row r="35" spans="1:35" ht="41.25" customHeight="1">
+    <row r="35" spans="1:35">
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="128" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="287" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="288"/>
-      <c r="H35" s="288"/>
-      <c r="I35" s="288"/>
-      <c r="J35" s="288"/>
-      <c r="K35" s="289"/>
-      <c r="L35" s="290" t="s">
-        <v>98</v>
-      </c>
-      <c r="M35" s="288"/>
-      <c r="N35" s="288"/>
-      <c r="O35" s="288"/>
-      <c r="P35" s="288"/>
-      <c r="Q35" s="288"/>
-      <c r="R35" s="288"/>
-      <c r="S35" s="288"/>
-      <c r="T35" s="288"/>
-      <c r="U35" s="289"/>
-      <c r="V35" s="291" t="s">
-        <v>99</v>
-      </c>
-      <c r="W35" s="292"/>
-      <c r="X35" s="293"/>
-      <c r="Y35" s="291" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z35" s="292"/>
-      <c r="AA35" s="292"/>
-      <c r="AB35" s="293"/>
-      <c r="AC35" s="294" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD35" s="295"/>
-      <c r="AE35" s="295"/>
-      <c r="AF35" s="296"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
       <c r="AG35" s="48"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
     </row>
-    <row r="36" spans="1:35" ht="36.75" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="129">
-        <v>1</v>
-      </c>
-      <c r="F36" s="321" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="301"/>
-      <c r="H36" s="301"/>
-      <c r="I36" s="301"/>
-      <c r="J36" s="301"/>
-      <c r="K36" s="302"/>
-      <c r="L36" s="300" t="s">
-        <v>103</v>
-      </c>
-      <c r="M36" s="301"/>
-      <c r="N36" s="301"/>
-      <c r="O36" s="301"/>
-      <c r="P36" s="301"/>
-      <c r="Q36" s="301"/>
-      <c r="R36" s="301"/>
-      <c r="S36" s="301"/>
-      <c r="T36" s="301"/>
-      <c r="U36" s="302"/>
-      <c r="V36" s="322" t="s">
-        <v>104</v>
-      </c>
-      <c r="W36" s="323"/>
-      <c r="X36" s="324"/>
-      <c r="Y36" s="297" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z36" s="298"/>
-      <c r="AA36" s="298"/>
-      <c r="AB36" s="299"/>
-      <c r="AC36" s="300" t="s">
+    <row r="36" spans="1:35">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36"/>
+      <c r="E36" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="58"/>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37"/>
+      <c r="E37" s="259" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="260"/>
+      <c r="G37" s="260"/>
+      <c r="H37" s="260"/>
+      <c r="I37" s="260"/>
+      <c r="J37" s="267" t="s">
         <v>129</v>
       </c>
-      <c r="AD36" s="301"/>
-      <c r="AE36" s="301"/>
-      <c r="AF36" s="302"/>
-      <c r="AG36" s="48"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
-    </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-    </row>
-    <row r="38" spans="1:35">
+      <c r="K37" s="267"/>
+      <c r="L37" s="267"/>
+      <c r="M37" s="268" t="s">
+        <v>130</v>
+      </c>
+      <c r="N37" s="269"/>
+      <c r="O37" s="269"/>
+      <c r="P37" s="269"/>
+      <c r="Q37" s="269"/>
+      <c r="R37" s="269"/>
+      <c r="S37" s="270"/>
+      <c r="T37" s="268" t="s">
+        <v>99</v>
+      </c>
+      <c r="U37" s="269"/>
+      <c r="V37" s="269"/>
+      <c r="W37" s="269"/>
+      <c r="X37" s="269"/>
+      <c r="Y37" s="269"/>
+      <c r="Z37" s="269"/>
+      <c r="AA37" s="269"/>
+      <c r="AB37" s="269"/>
+      <c r="AC37" s="269"/>
+      <c r="AD37" s="270"/>
+    </row>
+    <row r="38" spans="1:35" ht="11.25" customHeight="1">
       <c r="A38" s="58"/>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
       <c r="D38"/>
-      <c r="E38" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="58"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="58"/>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="58"/>
-      <c r="AG38" s="58"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="58"/>
-    </row>
-    <row r="39" spans="1:35">
+      <c r="E38" s="261" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="262"/>
+      <c r="G38" s="262"/>
+      <c r="H38" s="262"/>
+      <c r="I38" s="262"/>
+      <c r="J38" s="263" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" s="263"/>
+      <c r="L38" s="263"/>
+      <c r="M38" s="264" t="s">
+        <v>133</v>
+      </c>
+      <c r="N38" s="265"/>
+      <c r="O38" s="265"/>
+      <c r="P38" s="265"/>
+      <c r="Q38" s="265"/>
+      <c r="R38" s="265"/>
+      <c r="S38" s="266"/>
+      <c r="T38" s="264" t="s">
+        <v>133</v>
+      </c>
+      <c r="U38" s="265"/>
+      <c r="V38" s="265"/>
+      <c r="W38" s="265"/>
+      <c r="X38" s="265"/>
+      <c r="Y38" s="265"/>
+      <c r="Z38" s="265"/>
+      <c r="AA38" s="265"/>
+      <c r="AB38" s="265"/>
+      <c r="AC38" s="265"/>
+      <c r="AD38" s="266"/>
+    </row>
+    <row r="39" spans="1:35" ht="11.25" customHeight="1">
       <c r="A39" s="58"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
       <c r="D39"/>
-      <c r="E39" s="350" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="351"/>
-      <c r="G39" s="351"/>
-      <c r="H39" s="351"/>
-      <c r="I39" s="351"/>
-      <c r="J39" s="357" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" s="357"/>
-      <c r="L39" s="357"/>
-      <c r="M39" s="358" t="s">
-        <v>133</v>
-      </c>
-      <c r="N39" s="359"/>
-      <c r="O39" s="359"/>
-      <c r="P39" s="359"/>
-      <c r="Q39" s="359"/>
-      <c r="R39" s="359"/>
-      <c r="S39" s="360"/>
-      <c r="T39" s="358" t="s">
-        <v>100</v>
-      </c>
-      <c r="U39" s="359"/>
-      <c r="V39" s="359"/>
-      <c r="W39" s="359"/>
-      <c r="X39" s="359"/>
-      <c r="Y39" s="359"/>
-      <c r="Z39" s="359"/>
-      <c r="AA39" s="359"/>
-      <c r="AB39" s="359"/>
-      <c r="AC39" s="359"/>
-      <c r="AD39" s="360"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="149"/>
+      <c r="N39" s="149"/>
+      <c r="O39" s="149"/>
+      <c r="P39" s="149"/>
+      <c r="Q39" s="149"/>
+      <c r="R39" s="149"/>
+      <c r="S39" s="149"/>
+      <c r="T39" s="149"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="149"/>
+      <c r="W39" s="149"/>
+      <c r="X39" s="149"/>
+      <c r="Y39" s="149"/>
+      <c r="Z39" s="149"/>
+      <c r="AA39" s="149"/>
+      <c r="AB39" s="149"/>
+      <c r="AC39" s="149"/>
+      <c r="AD39" s="149"/>
     </row>
     <row r="40" spans="1:35" ht="11.25" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
       <c r="D40"/>
-      <c r="E40" s="300" t="s">
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="149"/>
+      <c r="N40" s="149"/>
+      <c r="O40" s="149"/>
+      <c r="P40" s="149"/>
+      <c r="Q40" s="149"/>
+      <c r="R40" s="149"/>
+      <c r="S40" s="149"/>
+      <c r="T40" s="149"/>
+      <c r="U40" s="149"/>
+      <c r="V40" s="149"/>
+      <c r="W40" s="149"/>
+      <c r="X40" s="149"/>
+      <c r="Y40" s="149"/>
+      <c r="Z40" s="149"/>
+      <c r="AA40" s="149"/>
+      <c r="AB40" s="149"/>
+      <c r="AC40" s="149"/>
+      <c r="AD40" s="149"/>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="352"/>
-      <c r="G40" s="352"/>
-      <c r="H40" s="352"/>
-      <c r="I40" s="352"/>
-      <c r="J40" s="353" t="s">
-        <v>135</v>
-      </c>
-      <c r="K40" s="353"/>
-      <c r="L40" s="353"/>
-      <c r="M40" s="354" t="s">
-        <v>136</v>
-      </c>
-      <c r="N40" s="355"/>
-      <c r="O40" s="355"/>
-      <c r="P40" s="355"/>
-      <c r="Q40" s="355"/>
-      <c r="R40" s="355"/>
-      <c r="S40" s="356"/>
-      <c r="T40" s="354" t="s">
-        <v>136</v>
-      </c>
-      <c r="U40" s="355"/>
-      <c r="V40" s="355"/>
-      <c r="W40" s="355"/>
-      <c r="X40" s="355"/>
-      <c r="Y40" s="355"/>
-      <c r="Z40" s="355"/>
-      <c r="AA40" s="355"/>
-      <c r="AB40" s="355"/>
-      <c r="AC40" s="355"/>
-      <c r="AD40" s="356"/>
-    </row>
-    <row r="41" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="149"/>
-      <c r="N41" s="149"/>
-      <c r="O41" s="149"/>
-      <c r="P41" s="149"/>
-      <c r="Q41" s="149"/>
-      <c r="R41" s="149"/>
-      <c r="S41" s="149"/>
-      <c r="T41" s="149"/>
-      <c r="U41" s="149"/>
-      <c r="V41" s="149"/>
-      <c r="W41" s="149"/>
-      <c r="X41" s="149"/>
-      <c r="Y41" s="149"/>
-      <c r="Z41" s="149"/>
-      <c r="AA41" s="149"/>
-      <c r="AB41" s="149"/>
-      <c r="AC41" s="149"/>
-      <c r="AD41" s="149"/>
-    </row>
-    <row r="42" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="149"/>
-      <c r="O42" s="149"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="149"/>
-      <c r="R42" s="149"/>
-      <c r="S42" s="149"/>
-      <c r="T42" s="149"/>
-      <c r="U42" s="149"/>
-      <c r="V42" s="149"/>
-      <c r="W42" s="149"/>
-      <c r="X42" s="149"/>
-      <c r="Y42" s="149"/>
-      <c r="Z42" s="149"/>
-      <c r="AA42" s="149"/>
-      <c r="AB42" s="149"/>
-      <c r="AC42" s="149"/>
-      <c r="AD42" s="149"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="48"/>
+      <c r="AB41" s="48"/>
+      <c r="AC41" s="48"/>
+      <c r="AD41" s="48"/>
+      <c r="AE41" s="48"/>
+      <c r="AF41" s="48"/>
+      <c r="AG41" s="48"/>
+      <c r="AH41" s="48"/>
+      <c r="AI41" s="48"/>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="48"/>
+      <c r="AH42" s="48"/>
+      <c r="AI42" s="48"/>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
-      <c r="D43" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="358" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="359"/>
+      <c r="G43" s="359"/>
+      <c r="H43" s="359"/>
+      <c r="I43" s="359"/>
+      <c r="J43" s="359"/>
+      <c r="K43" s="359"/>
+      <c r="L43" s="359"/>
+      <c r="M43" s="359"/>
+      <c r="N43" s="360"/>
+      <c r="O43" s="325" t="s">
+        <v>106</v>
+      </c>
+      <c r="P43" s="326"/>
+      <c r="Q43" s="326"/>
+      <c r="R43" s="326"/>
+      <c r="S43" s="326"/>
+      <c r="T43" s="326"/>
+      <c r="U43" s="326"/>
+      <c r="V43" s="326"/>
+      <c r="W43" s="326"/>
+      <c r="X43" s="327"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
       <c r="AA43" s="48"/>
@@ -13048,26 +13050,30 @@
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
+      <c r="E44" s="328" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="329"/>
+      <c r="G44" s="329"/>
+      <c r="H44" s="329"/>
+      <c r="I44" s="329"/>
+      <c r="J44" s="329"/>
+      <c r="K44" s="329"/>
+      <c r="L44" s="329"/>
+      <c r="M44" s="329"/>
+      <c r="N44" s="330"/>
+      <c r="O44" s="337" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" s="338"/>
+      <c r="Q44" s="338"/>
+      <c r="R44" s="338"/>
+      <c r="S44" s="338"/>
+      <c r="T44" s="338"/>
+      <c r="U44" s="338"/>
+      <c r="V44" s="338"/>
+      <c r="W44" s="338"/>
+      <c r="X44" s="339"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
       <c r="AA44" s="48"/>
@@ -13085,30 +13091,28 @@
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
-      <c r="E45" s="272" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="273"/>
-      <c r="G45" s="273"/>
-      <c r="H45" s="273"/>
-      <c r="I45" s="273"/>
-      <c r="J45" s="273"/>
-      <c r="K45" s="273"/>
-      <c r="L45" s="273"/>
-      <c r="M45" s="273"/>
-      <c r="N45" s="274"/>
-      <c r="O45" s="303" t="s">
-        <v>107</v>
-      </c>
-      <c r="P45" s="304"/>
-      <c r="Q45" s="304"/>
-      <c r="R45" s="304"/>
-      <c r="S45" s="304"/>
-      <c r="T45" s="304"/>
-      <c r="U45" s="304"/>
-      <c r="V45" s="304"/>
-      <c r="W45" s="304"/>
-      <c r="X45" s="305"/>
+      <c r="E45" s="331"/>
+      <c r="F45" s="332"/>
+      <c r="G45" s="332"/>
+      <c r="H45" s="332"/>
+      <c r="I45" s="332"/>
+      <c r="J45" s="332"/>
+      <c r="K45" s="332"/>
+      <c r="L45" s="332"/>
+      <c r="M45" s="332"/>
+      <c r="N45" s="333"/>
+      <c r="O45" s="337" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" s="338"/>
+      <c r="Q45" s="338"/>
+      <c r="R45" s="338"/>
+      <c r="S45" s="338"/>
+      <c r="T45" s="338"/>
+      <c r="U45" s="338"/>
+      <c r="V45" s="338"/>
+      <c r="W45" s="338"/>
+      <c r="X45" s="339"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
       <c r="AA45" s="48"/>
@@ -13126,30 +13130,28 @@
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="306" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="307"/>
-      <c r="G46" s="307"/>
-      <c r="H46" s="307"/>
-      <c r="I46" s="307"/>
-      <c r="J46" s="307"/>
-      <c r="K46" s="307"/>
-      <c r="L46" s="307"/>
-      <c r="M46" s="307"/>
-      <c r="N46" s="308"/>
-      <c r="O46" s="315" t="s">
-        <v>92</v>
-      </c>
-      <c r="P46" s="316"/>
-      <c r="Q46" s="316"/>
-      <c r="R46" s="316"/>
-      <c r="S46" s="316"/>
-      <c r="T46" s="316"/>
-      <c r="U46" s="316"/>
-      <c r="V46" s="316"/>
-      <c r="W46" s="316"/>
-      <c r="X46" s="317"/>
+      <c r="E46" s="334"/>
+      <c r="F46" s="335"/>
+      <c r="G46" s="335"/>
+      <c r="H46" s="335"/>
+      <c r="I46" s="335"/>
+      <c r="J46" s="335"/>
+      <c r="K46" s="335"/>
+      <c r="L46" s="335"/>
+      <c r="M46" s="335"/>
+      <c r="N46" s="336"/>
+      <c r="O46" s="340" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" s="341"/>
+      <c r="Q46" s="341"/>
+      <c r="R46" s="341"/>
+      <c r="S46" s="341"/>
+      <c r="T46" s="341"/>
+      <c r="U46" s="341"/>
+      <c r="V46" s="341"/>
+      <c r="W46" s="341"/>
+      <c r="X46" s="342"/>
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
       <c r="AA46" s="48"/>
@@ -13167,28 +13169,28 @@
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
-      <c r="E47" s="309"/>
-      <c r="F47" s="310"/>
-      <c r="G47" s="310"/>
-      <c r="H47" s="310"/>
-      <c r="I47" s="310"/>
-      <c r="J47" s="310"/>
-      <c r="K47" s="310"/>
-      <c r="L47" s="310"/>
-      <c r="M47" s="310"/>
-      <c r="N47" s="311"/>
-      <c r="O47" s="315" t="s">
-        <v>93</v>
-      </c>
-      <c r="P47" s="316"/>
-      <c r="Q47" s="316"/>
-      <c r="R47" s="316"/>
-      <c r="S47" s="316"/>
-      <c r="T47" s="316"/>
-      <c r="U47" s="316"/>
-      <c r="V47" s="316"/>
-      <c r="W47" s="316"/>
-      <c r="X47" s="317"/>
+      <c r="E47" s="355" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="356"/>
+      <c r="G47" s="356"/>
+      <c r="H47" s="356"/>
+      <c r="I47" s="356"/>
+      <c r="J47" s="356"/>
+      <c r="K47" s="356"/>
+      <c r="L47" s="356"/>
+      <c r="M47" s="356"/>
+      <c r="N47" s="356"/>
+      <c r="O47" s="356"/>
+      <c r="P47" s="356"/>
+      <c r="Q47" s="356"/>
+      <c r="R47" s="356"/>
+      <c r="S47" s="356"/>
+      <c r="T47" s="356"/>
+      <c r="U47" s="356"/>
+      <c r="V47" s="356"/>
+      <c r="W47" s="356"/>
+      <c r="X47" s="357"/>
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
       <c r="AA47" s="48"/>
@@ -13206,28 +13208,26 @@
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
-      <c r="E48" s="312"/>
-      <c r="F48" s="313"/>
-      <c r="G48" s="313"/>
-      <c r="H48" s="313"/>
-      <c r="I48" s="313"/>
-      <c r="J48" s="313"/>
-      <c r="K48" s="313"/>
-      <c r="L48" s="313"/>
-      <c r="M48" s="313"/>
-      <c r="N48" s="314"/>
-      <c r="O48" s="318" t="s">
-        <v>94</v>
-      </c>
-      <c r="P48" s="319"/>
-      <c r="Q48" s="319"/>
-      <c r="R48" s="319"/>
-      <c r="S48" s="319"/>
-      <c r="T48" s="319"/>
-      <c r="U48" s="319"/>
-      <c r="V48" s="319"/>
-      <c r="W48" s="319"/>
-      <c r="X48" s="320"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="131"/>
+      <c r="P48" s="131"/>
+      <c r="Q48" s="131"/>
+      <c r="R48" s="131"/>
+      <c r="S48" s="131"/>
+      <c r="T48" s="131"/>
+      <c r="U48" s="131"/>
+      <c r="V48" s="131"/>
+      <c r="W48" s="131"/>
+      <c r="X48" s="132"/>
       <c r="Y48" s="48"/>
       <c r="Z48" s="48"/>
       <c r="AA48" s="48"/>
@@ -13245,28 +13245,32 @@
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
-      <c r="E49" s="269" t="s">
+      <c r="E49" s="133"/>
+      <c r="F49" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="270"/>
-      <c r="G49" s="270"/>
-      <c r="H49" s="270"/>
-      <c r="I49" s="270"/>
-      <c r="J49" s="270"/>
-      <c r="K49" s="270"/>
-      <c r="L49" s="270"/>
-      <c r="M49" s="270"/>
-      <c r="N49" s="270"/>
-      <c r="O49" s="270"/>
-      <c r="P49" s="270"/>
-      <c r="Q49" s="270"/>
-      <c r="R49" s="270"/>
-      <c r="S49" s="270"/>
-      <c r="T49" s="270"/>
-      <c r="U49" s="270"/>
-      <c r="V49" s="270"/>
-      <c r="W49" s="270"/>
-      <c r="X49" s="271"/>
+      <c r="G49" s="135"/>
+      <c r="H49" s="135"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
+      <c r="N49" s="134" t="s">
+        <v>111</v>
+      </c>
+      <c r="O49" s="135"/>
+      <c r="P49" s="135"/>
+      <c r="Q49" s="135"/>
+      <c r="R49" s="137"/>
+      <c r="S49" s="137"/>
+      <c r="T49" s="137"/>
+      <c r="U49" s="137"/>
+      <c r="V49" s="137"/>
+      <c r="W49" s="137"/>
+      <c r="X49" s="138"/>
       <c r="Y49" s="48"/>
       <c r="Z49" s="48"/>
       <c r="AA49" s="48"/>
@@ -13284,26 +13288,26 @@
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="131"/>
-      <c r="L50" s="131"/>
-      <c r="M50" s="131"/>
-      <c r="N50" s="131"/>
-      <c r="O50" s="131"/>
-      <c r="P50" s="131"/>
-      <c r="Q50" s="131"/>
-      <c r="R50" s="131"/>
-      <c r="S50" s="131"/>
-      <c r="T50" s="131"/>
-      <c r="U50" s="131"/>
-      <c r="V50" s="131"/>
-      <c r="W50" s="131"/>
-      <c r="X50" s="132"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="141"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="140"/>
+      <c r="O50" s="140"/>
+      <c r="P50" s="140"/>
+      <c r="Q50" s="140"/>
+      <c r="R50" s="140"/>
+      <c r="S50" s="140"/>
+      <c r="T50" s="142"/>
+      <c r="U50" s="140"/>
+      <c r="V50" s="140"/>
+      <c r="W50" s="140"/>
+      <c r="X50" s="143"/>
       <c r="Y50" s="48"/>
       <c r="Z50" s="48"/>
       <c r="AA50" s="48"/>
@@ -13321,32 +13325,26 @@
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
       <c r="D51" s="48"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="134" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="136" t="s">
-        <v>111</v>
-      </c>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
-      <c r="N51" s="134" t="s">
-        <v>112</v>
-      </c>
-      <c r="O51" s="135"/>
-      <c r="P51" s="135"/>
-      <c r="Q51" s="135"/>
-      <c r="R51" s="137"/>
-      <c r="S51" s="137"/>
-      <c r="T51" s="137"/>
-      <c r="U51" s="137"/>
-      <c r="V51" s="137"/>
-      <c r="W51" s="137"/>
-      <c r="X51" s="138"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48"/>
+      <c r="X51" s="48"/>
       <c r="Y51" s="48"/>
       <c r="Z51" s="48"/>
       <c r="AA51" s="48"/>
@@ -13360,238 +13358,240 @@
       <c r="AI51" s="48"/>
     </row>
     <row r="52" spans="1:35">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="141"/>
-      <c r="K52" s="141"/>
-      <c r="L52" s="140"/>
-      <c r="M52" s="140"/>
-      <c r="N52" s="140"/>
-      <c r="O52" s="140"/>
-      <c r="P52" s="140"/>
-      <c r="Q52" s="140"/>
-      <c r="R52" s="140"/>
-      <c r="S52" s="140"/>
-      <c r="T52" s="142"/>
-      <c r="U52" s="140"/>
-      <c r="V52" s="140"/>
-      <c r="W52" s="140"/>
-      <c r="X52" s="143"/>
-      <c r="Y52" s="48"/>
-      <c r="Z52" s="48"/>
-      <c r="AA52" s="48"/>
-      <c r="AB52" s="48"/>
-      <c r="AC52" s="48"/>
-      <c r="AD52" s="48"/>
-      <c r="AE52" s="48"/>
-      <c r="AF52" s="48"/>
-      <c r="AG52" s="48"/>
-      <c r="AH52" s="48"/>
-      <c r="AI52" s="48"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52"/>
+      <c r="E52" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52" s="58"/>
+      <c r="AB52" s="58"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="58"/>
+      <c r="AF52" s="58"/>
+      <c r="AG52" s="58"/>
+      <c r="AH52" s="58"/>
+      <c r="AI52" s="58"/>
     </row>
     <row r="53" spans="1:35">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="48"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="48"/>
-      <c r="W53" s="48"/>
-      <c r="X53" s="48"/>
-      <c r="Y53" s="48"/>
-      <c r="Z53" s="48"/>
-      <c r="AA53" s="48"/>
-      <c r="AB53" s="48"/>
-      <c r="AC53" s="48"/>
-      <c r="AD53" s="48"/>
-      <c r="AE53" s="48"/>
-      <c r="AF53" s="48"/>
-      <c r="AG53" s="48"/>
-      <c r="AH53" s="48"/>
-      <c r="AI53" s="48"/>
-    </row>
-    <row r="54" spans="1:35">
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53"/>
+      <c r="E53" s="259" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="260"/>
+      <c r="G53" s="260"/>
+      <c r="H53" s="260"/>
+      <c r="I53" s="260"/>
+      <c r="J53" s="267" t="s">
+        <v>129</v>
+      </c>
+      <c r="K53" s="267"/>
+      <c r="L53" s="267"/>
+      <c r="M53" s="268" t="s">
+        <v>130</v>
+      </c>
+      <c r="N53" s="269"/>
+      <c r="O53" s="269"/>
+      <c r="P53" s="269"/>
+      <c r="Q53" s="269"/>
+      <c r="R53" s="269"/>
+      <c r="S53" s="270"/>
+      <c r="T53" s="268" t="s">
+        <v>99</v>
+      </c>
+      <c r="U53" s="269"/>
+      <c r="V53" s="269"/>
+      <c r="W53" s="269"/>
+      <c r="X53" s="269"/>
+      <c r="Y53" s="269"/>
+      <c r="Z53" s="269"/>
+      <c r="AA53" s="269"/>
+      <c r="AB53" s="269"/>
+      <c r="AC53" s="269"/>
+      <c r="AD53" s="270"/>
+    </row>
+    <row r="54" spans="1:35" ht="11.25" customHeight="1">
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
       <c r="D54"/>
-      <c r="E54" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-      <c r="AA54" s="58"/>
-      <c r="AB54" s="58"/>
-      <c r="AC54" s="58"/>
-      <c r="AD54" s="58"/>
-      <c r="AE54" s="58"/>
-      <c r="AF54" s="58"/>
-      <c r="AG54" s="58"/>
-      <c r="AH54" s="58"/>
-      <c r="AI54" s="58"/>
-    </row>
-    <row r="55" spans="1:35">
+      <c r="E54" s="261" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="262"/>
+      <c r="G54" s="262"/>
+      <c r="H54" s="262"/>
+      <c r="I54" s="262"/>
+      <c r="J54" s="263" t="s">
+        <v>143</v>
+      </c>
+      <c r="K54" s="263"/>
+      <c r="L54" s="263"/>
+      <c r="M54" s="264" t="s">
+        <v>144</v>
+      </c>
+      <c r="N54" s="265"/>
+      <c r="O54" s="265"/>
+      <c r="P54" s="265"/>
+      <c r="Q54" s="265"/>
+      <c r="R54" s="265"/>
+      <c r="S54" s="266"/>
+      <c r="T54" s="264" t="s">
+        <v>136</v>
+      </c>
+      <c r="U54" s="265"/>
+      <c r="V54" s="265"/>
+      <c r="W54" s="265"/>
+      <c r="X54" s="265"/>
+      <c r="Y54" s="265"/>
+      <c r="Z54" s="265"/>
+      <c r="AA54" s="265"/>
+      <c r="AB54" s="265"/>
+      <c r="AC54" s="265"/>
+      <c r="AD54" s="266"/>
+    </row>
+    <row r="55" spans="1:35" ht="11.25" customHeight="1">
       <c r="A55" s="58"/>
       <c r="B55" s="58"/>
       <c r="C55" s="58"/>
       <c r="D55"/>
-      <c r="E55" s="350" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55" s="351"/>
-      <c r="G55" s="351"/>
-      <c r="H55" s="351"/>
-      <c r="I55" s="351"/>
-      <c r="J55" s="357" t="s">
-        <v>132</v>
-      </c>
-      <c r="K55" s="357"/>
-      <c r="L55" s="357"/>
-      <c r="M55" s="358" t="s">
-        <v>133</v>
-      </c>
-      <c r="N55" s="359"/>
-      <c r="O55" s="359"/>
-      <c r="P55" s="359"/>
-      <c r="Q55" s="359"/>
-      <c r="R55" s="359"/>
-      <c r="S55" s="360"/>
-      <c r="T55" s="358" t="s">
-        <v>100</v>
-      </c>
-      <c r="U55" s="359"/>
-      <c r="V55" s="359"/>
-      <c r="W55" s="359"/>
-      <c r="X55" s="359"/>
-      <c r="Y55" s="359"/>
-      <c r="Z55" s="359"/>
-      <c r="AA55" s="359"/>
-      <c r="AB55" s="359"/>
-      <c r="AC55" s="359"/>
-      <c r="AD55" s="360"/>
-    </row>
-    <row r="56" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56"/>
-      <c r="E56" s="300" t="s">
+      <c r="E55" s="147"/>
+      <c r="F55" s="147"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="147"/>
+      <c r="I55" s="147"/>
+      <c r="J55" s="148"/>
+      <c r="K55" s="148"/>
+      <c r="L55" s="148"/>
+      <c r="M55" s="149"/>
+      <c r="N55" s="149"/>
+      <c r="O55" s="149"/>
+      <c r="P55" s="149"/>
+      <c r="Q55" s="149"/>
+      <c r="R55" s="149"/>
+      <c r="S55" s="149"/>
+      <c r="T55" s="149"/>
+      <c r="U55" s="149"/>
+      <c r="V55" s="149"/>
+      <c r="W55" s="149"/>
+      <c r="X55" s="149"/>
+      <c r="Y55" s="149"/>
+      <c r="Z55" s="149"/>
+      <c r="AA55" s="149"/>
+      <c r="AB55" s="149"/>
+      <c r="AC55" s="149"/>
+      <c r="AD55" s="149"/>
+    </row>
+    <row r="56" spans="1:35">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="352"/>
-      <c r="G56" s="352"/>
-      <c r="H56" s="352"/>
-      <c r="I56" s="352"/>
-      <c r="J56" s="353" t="s">
-        <v>146</v>
-      </c>
-      <c r="K56" s="353"/>
-      <c r="L56" s="353"/>
-      <c r="M56" s="354" t="s">
-        <v>147</v>
-      </c>
-      <c r="N56" s="355"/>
-      <c r="O56" s="355"/>
-      <c r="P56" s="355"/>
-      <c r="Q56" s="355"/>
-      <c r="R56" s="355"/>
-      <c r="S56" s="356"/>
-      <c r="T56" s="354" t="s">
-        <v>139</v>
-      </c>
-      <c r="U56" s="355"/>
-      <c r="V56" s="355"/>
-      <c r="W56" s="355"/>
-      <c r="X56" s="355"/>
-      <c r="Y56" s="355"/>
-      <c r="Z56" s="355"/>
-      <c r="AA56" s="355"/>
-      <c r="AB56" s="355"/>
-      <c r="AC56" s="355"/>
-      <c r="AD56" s="356"/>
-    </row>
-    <row r="57" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="148"/>
-      <c r="K57" s="148"/>
-      <c r="L57" s="148"/>
-      <c r="M57" s="149"/>
-      <c r="N57" s="149"/>
-      <c r="O57" s="149"/>
-      <c r="P57" s="149"/>
-      <c r="Q57" s="149"/>
-      <c r="R57" s="149"/>
-      <c r="S57" s="149"/>
-      <c r="T57" s="149"/>
-      <c r="U57" s="149"/>
-      <c r="V57" s="149"/>
-      <c r="W57" s="149"/>
-      <c r="X57" s="149"/>
-      <c r="Y57" s="149"/>
-      <c r="Z57" s="149"/>
-      <c r="AA57" s="149"/>
-      <c r="AB57" s="149"/>
-      <c r="AC57" s="149"/>
-      <c r="AD57" s="149"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="48"/>
+      <c r="W56" s="48"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="48"/>
+      <c r="AB56" s="48"/>
+      <c r="AC56" s="48"/>
+      <c r="AD56" s="48"/>
+      <c r="AE56" s="48"/>
+      <c r="AF56" s="48"/>
+      <c r="AG56" s="48"/>
+      <c r="AH56" s="48"/>
+      <c r="AI56" s="48"/>
+    </row>
+    <row r="57" spans="1:35">
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="48"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="48"/>
+      <c r="AA57" s="48"/>
+      <c r="AB57" s="48"/>
+      <c r="AC57" s="48"/>
+      <c r="AD57" s="48"/>
+      <c r="AE57" s="48"/>
+      <c r="AF57" s="48"/>
+      <c r="AG57" s="48"/>
+      <c r="AH57" s="48"/>
+      <c r="AI57" s="48"/>
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
-      <c r="D58" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="58" t="s">
+        <v>139</v>
+      </c>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
       <c r="H58" s="48"/>
@@ -13664,10 +13664,8 @@
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="58" t="s">
-        <v>142</v>
-      </c>
+      <c r="D60" s="58"/>
+      <c r="E60" s="48"/>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
       <c r="H60" s="48"/>
@@ -13700,83 +13698,75 @@
       <c r="AI60" s="48"/>
     </row>
     <row r="61" spans="1:35">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="48"/>
-      <c r="S61" s="48"/>
-      <c r="T61" s="48"/>
-      <c r="U61" s="48"/>
-      <c r="V61" s="48"/>
-      <c r="W61" s="48"/>
-      <c r="X61" s="48"/>
-      <c r="Y61" s="48"/>
-      <c r="Z61" s="48"/>
-      <c r="AA61" s="48"/>
-      <c r="AB61" s="48"/>
-      <c r="AC61" s="48"/>
-      <c r="AD61" s="48"/>
-      <c r="AE61" s="48"/>
-      <c r="AF61" s="48"/>
-      <c r="AG61" s="48"/>
-      <c r="AH61" s="48"/>
-      <c r="AI61" s="48"/>
+      <c r="C61" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="30"/>
+      <c r="AE61" s="30"/>
+      <c r="AF61" s="30"/>
     </row>
     <row r="62" spans="1:35">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="48"/>
-      <c r="S62" s="48"/>
-      <c r="T62" s="48"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="48"/>
-      <c r="X62" s="48"/>
-      <c r="Y62" s="48"/>
-      <c r="Z62" s="48"/>
-      <c r="AA62" s="48"/>
-      <c r="AB62" s="48"/>
-      <c r="AC62" s="48"/>
-      <c r="AD62" s="48"/>
-      <c r="AE62" s="48"/>
-      <c r="AF62" s="48"/>
-      <c r="AG62" s="48"/>
-      <c r="AH62" s="48"/>
-      <c r="AI62" s="48"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
+      <c r="AE62" s="30"/>
+      <c r="AF62" s="30"/>
     </row>
     <row r="63" spans="1:35">
-      <c r="C63" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="C63" s="30"/>
       <c r="D63" s="30"/>
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
@@ -13809,180 +13799,180 @@
     </row>
     <row r="64" spans="1:35">
       <c r="C64" s="30"/>
-      <c r="D64" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="30"/>
-      <c r="AA64" s="30"/>
-      <c r="AB64" s="30"/>
-      <c r="AC64" s="30"/>
-      <c r="AD64" s="30"/>
+      <c r="E64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="27"/>
       <c r="AE64" s="30"/>
       <c r="AF64" s="30"/>
     </row>
     <row r="65" spans="3:34">
       <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="30"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
-      <c r="AA65" s="30"/>
-      <c r="AB65" s="30"/>
-      <c r="AC65" s="30"/>
-      <c r="AD65" s="30"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="27"/>
       <c r="AE65" s="30"/>
       <c r="AF65" s="30"/>
     </row>
     <row r="66" spans="3:34">
       <c r="C66" s="30"/>
-      <c r="E66" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="27"/>
-      <c r="AE66" s="30"/>
-      <c r="AF66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="255" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="255"/>
+      <c r="G66" s="278" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="279"/>
+      <c r="I66" s="279"/>
+      <c r="J66" s="279"/>
+      <c r="K66" s="279"/>
+      <c r="L66" s="280"/>
+      <c r="M66" s="255" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="255"/>
+      <c r="O66" s="278" t="s">
+        <v>83</v>
+      </c>
+      <c r="P66" s="279"/>
+      <c r="Q66" s="279"/>
+      <c r="R66" s="279"/>
+      <c r="S66" s="279"/>
+      <c r="T66" s="279"/>
+      <c r="U66" s="279"/>
+      <c r="V66" s="279"/>
+      <c r="W66" s="279"/>
+      <c r="X66" s="279"/>
+      <c r="Y66" s="279"/>
+      <c r="Z66" s="279"/>
+      <c r="AA66" s="279"/>
+      <c r="AB66" s="279"/>
+      <c r="AC66" s="279"/>
+      <c r="AD66" s="279"/>
+      <c r="AE66" s="279"/>
+      <c r="AF66" s="279"/>
+      <c r="AG66" s="279"/>
+      <c r="AH66" s="280"/>
     </row>
     <row r="67" spans="3:34">
       <c r="C67" s="30"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="27"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30"/>
       <c r="AE67" s="30"/>
       <c r="AF67" s="30"/>
     </row>
     <row r="68" spans="3:34">
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
-      <c r="E68" s="325" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="325"/>
-      <c r="G68" s="284" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" s="285"/>
-      <c r="I68" s="285"/>
-      <c r="J68" s="285"/>
-      <c r="K68" s="285"/>
-      <c r="L68" s="286"/>
-      <c r="M68" s="325" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" s="325"/>
-      <c r="O68" s="284" t="s">
-        <v>84</v>
-      </c>
-      <c r="P68" s="285"/>
-      <c r="Q68" s="285"/>
-      <c r="R68" s="285"/>
-      <c r="S68" s="285"/>
-      <c r="T68" s="285"/>
-      <c r="U68" s="285"/>
-      <c r="V68" s="285"/>
-      <c r="W68" s="285"/>
-      <c r="X68" s="285"/>
-      <c r="Y68" s="285"/>
-      <c r="Z68" s="285"/>
-      <c r="AA68" s="285"/>
-      <c r="AB68" s="285"/>
-      <c r="AC68" s="285"/>
-      <c r="AD68" s="285"/>
-      <c r="AE68" s="285"/>
-      <c r="AF68" s="285"/>
-      <c r="AG68" s="285"/>
-      <c r="AH68" s="286"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30"/>
+      <c r="AD68" s="30"/>
+      <c r="AE68" s="30"/>
+      <c r="AF68" s="30"/>
     </row>
     <row r="69" spans="3:34">
       <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
+      <c r="D69" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
@@ -14046,407 +14036,355 @@
     </row>
     <row r="71" spans="3:34">
       <c r="C71" s="30"/>
-      <c r="D71" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="30"/>
-      <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
-      <c r="X71" s="30"/>
-      <c r="Y71" s="30"/>
-      <c r="Z71" s="30"/>
-      <c r="AA71" s="30"/>
-      <c r="AB71" s="30"/>
-      <c r="AC71" s="30"/>
-      <c r="AD71" s="30"/>
-      <c r="AE71" s="30"/>
-      <c r="AF71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="298" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="292" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="293"/>
+      <c r="H71" s="293"/>
+      <c r="I71" s="294"/>
+      <c r="J71" s="292" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="293"/>
+      <c r="L71" s="293"/>
+      <c r="M71" s="294"/>
+      <c r="N71" s="300" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" s="300"/>
+      <c r="P71" s="300"/>
+      <c r="Q71" s="300"/>
+      <c r="R71" s="300"/>
+      <c r="S71" s="300"/>
+      <c r="T71" s="300"/>
+      <c r="U71" s="300"/>
+      <c r="V71" s="300"/>
+      <c r="W71" s="292" t="s">
+        <v>34</v>
+      </c>
+      <c r="X71" s="293"/>
+      <c r="Y71" s="293"/>
+      <c r="Z71" s="293"/>
+      <c r="AA71" s="293"/>
+      <c r="AB71" s="293"/>
+      <c r="AC71" s="294"/>
+      <c r="AD71" s="292" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE71" s="293"/>
+      <c r="AF71" s="293"/>
+      <c r="AG71" s="293"/>
+      <c r="AH71" s="294"/>
     </row>
     <row r="72" spans="3:34">
       <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="30"/>
-      <c r="S72" s="30"/>
-      <c r="T72" s="30"/>
-      <c r="U72" s="30"/>
-      <c r="V72" s="30"/>
-      <c r="W72" s="30"/>
-      <c r="X72" s="30"/>
-      <c r="Y72" s="30"/>
-      <c r="Z72" s="30"/>
-      <c r="AA72" s="30"/>
-      <c r="AB72" s="30"/>
-      <c r="AC72" s="30"/>
-      <c r="AD72" s="30"/>
-      <c r="AE72" s="30"/>
-      <c r="AF72" s="30"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="299"/>
+      <c r="F72" s="295"/>
+      <c r="G72" s="296"/>
+      <c r="H72" s="296"/>
+      <c r="I72" s="297"/>
+      <c r="J72" s="295"/>
+      <c r="K72" s="296"/>
+      <c r="L72" s="296"/>
+      <c r="M72" s="297"/>
+      <c r="N72" s="300" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="300"/>
+      <c r="P72" s="300"/>
+      <c r="Q72" s="300"/>
+      <c r="R72" s="300"/>
+      <c r="S72" s="347" t="s">
+        <v>30</v>
+      </c>
+      <c r="T72" s="347"/>
+      <c r="U72" s="347"/>
+      <c r="V72" s="347"/>
+      <c r="W72" s="295"/>
+      <c r="X72" s="296"/>
+      <c r="Y72" s="296"/>
+      <c r="Z72" s="296"/>
+      <c r="AA72" s="296"/>
+      <c r="AB72" s="296"/>
+      <c r="AC72" s="297"/>
+      <c r="AD72" s="295"/>
+      <c r="AE72" s="296"/>
+      <c r="AF72" s="296"/>
+      <c r="AG72" s="296"/>
+      <c r="AH72" s="297"/>
     </row>
     <row r="73" spans="3:34">
       <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="326" t="s">
-        <v>53</v>
-      </c>
-      <c r="F73" s="278" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" s="279"/>
-      <c r="H73" s="279"/>
-      <c r="I73" s="280"/>
-      <c r="J73" s="278" t="s">
-        <v>25</v>
-      </c>
-      <c r="K73" s="279"/>
-      <c r="L73" s="279"/>
-      <c r="M73" s="280"/>
-      <c r="N73" s="328" t="s">
-        <v>26</v>
-      </c>
-      <c r="O73" s="328"/>
-      <c r="P73" s="328"/>
-      <c r="Q73" s="328"/>
-      <c r="R73" s="328"/>
-      <c r="S73" s="328"/>
-      <c r="T73" s="328"/>
-      <c r="U73" s="328"/>
-      <c r="V73" s="328"/>
-      <c r="W73" s="278" t="s">
-        <v>34</v>
-      </c>
-      <c r="X73" s="279"/>
-      <c r="Y73" s="279"/>
-      <c r="Z73" s="279"/>
-      <c r="AA73" s="279"/>
-      <c r="AB73" s="279"/>
-      <c r="AC73" s="280"/>
-      <c r="AD73" s="278" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE73" s="279"/>
-      <c r="AF73" s="279"/>
-      <c r="AG73" s="279"/>
-      <c r="AH73" s="280"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="41">
+        <v>1</v>
+      </c>
+      <c r="F73" s="307" t="s">
+        <v>87</v>
+      </c>
+      <c r="G73" s="308"/>
+      <c r="H73" s="308"/>
+      <c r="I73" s="309"/>
+      <c r="J73" s="307" t="s">
+        <v>84</v>
+      </c>
+      <c r="K73" s="308"/>
+      <c r="L73" s="308"/>
+      <c r="M73" s="309"/>
+      <c r="N73" s="305" t="s">
+        <v>90</v>
+      </c>
+      <c r="O73" s="306"/>
+      <c r="P73" s="306"/>
+      <c r="Q73" s="306"/>
+      <c r="R73" s="306"/>
+      <c r="S73" s="303" t="s">
+        <v>91</v>
+      </c>
+      <c r="T73" s="304"/>
+      <c r="U73" s="304"/>
+      <c r="V73" s="304"/>
+      <c r="W73" s="348"/>
+      <c r="X73" s="349"/>
+      <c r="Y73" s="349"/>
+      <c r="Z73" s="349"/>
+      <c r="AA73" s="349"/>
+      <c r="AB73" s="349"/>
+      <c r="AC73" s="350"/>
+      <c r="AD73" s="348"/>
+      <c r="AE73" s="349"/>
+      <c r="AF73" s="349"/>
+      <c r="AG73" s="349"/>
+      <c r="AH73" s="350"/>
     </row>
     <row r="74" spans="3:34">
       <c r="C74" s="30"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="327"/>
-      <c r="F74" s="281"/>
-      <c r="G74" s="282"/>
-      <c r="H74" s="282"/>
-      <c r="I74" s="283"/>
-      <c r="J74" s="281"/>
-      <c r="K74" s="282"/>
-      <c r="L74" s="282"/>
-      <c r="M74" s="283"/>
-      <c r="N74" s="328" t="s">
-        <v>29</v>
-      </c>
-      <c r="O74" s="328"/>
-      <c r="P74" s="328"/>
-      <c r="Q74" s="328"/>
-      <c r="R74" s="328"/>
-      <c r="S74" s="254" t="s">
-        <v>30</v>
-      </c>
-      <c r="T74" s="254"/>
-      <c r="U74" s="254"/>
-      <c r="V74" s="254"/>
-      <c r="W74" s="281"/>
-      <c r="X74" s="282"/>
-      <c r="Y74" s="282"/>
-      <c r="Z74" s="282"/>
-      <c r="AA74" s="282"/>
-      <c r="AB74" s="282"/>
-      <c r="AC74" s="283"/>
-      <c r="AD74" s="281"/>
-      <c r="AE74" s="282"/>
-      <c r="AF74" s="282"/>
-      <c r="AG74" s="282"/>
-      <c r="AH74" s="283"/>
+      <c r="E74" s="41">
+        <v>2</v>
+      </c>
+      <c r="F74" s="307" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" s="308"/>
+      <c r="H74" s="308"/>
+      <c r="I74" s="309"/>
+      <c r="J74" s="307" t="s">
+        <v>85</v>
+      </c>
+      <c r="K74" s="308"/>
+      <c r="L74" s="308"/>
+      <c r="M74" s="309"/>
+      <c r="N74" s="305" t="s">
+        <v>90</v>
+      </c>
+      <c r="O74" s="306"/>
+      <c r="P74" s="306"/>
+      <c r="Q74" s="306"/>
+      <c r="R74" s="306"/>
+      <c r="S74" s="303" t="s">
+        <v>92</v>
+      </c>
+      <c r="T74" s="304"/>
+      <c r="U74" s="304"/>
+      <c r="V74" s="304"/>
+      <c r="W74" s="348"/>
+      <c r="X74" s="349"/>
+      <c r="Y74" s="349"/>
+      <c r="Z74" s="349"/>
+      <c r="AA74" s="349"/>
+      <c r="AB74" s="349"/>
+      <c r="AC74" s="350"/>
+      <c r="AD74" s="348"/>
+      <c r="AE74" s="349"/>
+      <c r="AF74" s="349"/>
+      <c r="AG74" s="349"/>
+      <c r="AH74" s="350"/>
     </row>
     <row r="75" spans="3:34">
       <c r="C75" s="30"/>
       <c r="D75" s="1"/>
       <c r="E75" s="41">
-        <v>1</v>
-      </c>
-      <c r="F75" s="275" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" s="276"/>
-      <c r="H75" s="276"/>
-      <c r="I75" s="277"/>
-      <c r="J75" s="275" t="s">
-        <v>85</v>
-      </c>
-      <c r="K75" s="276"/>
-      <c r="L75" s="276"/>
-      <c r="M75" s="277"/>
-      <c r="N75" s="267" t="s">
-        <v>91</v>
-      </c>
-      <c r="O75" s="265"/>
-      <c r="P75" s="265"/>
-      <c r="Q75" s="265"/>
-      <c r="R75" s="265"/>
-      <c r="S75" s="268" t="s">
-        <v>92</v>
-      </c>
-      <c r="T75" s="266"/>
-      <c r="U75" s="266"/>
-      <c r="V75" s="266"/>
-      <c r="W75" s="257"/>
-      <c r="X75" s="258"/>
-      <c r="Y75" s="258"/>
-      <c r="Z75" s="258"/>
-      <c r="AA75" s="258"/>
-      <c r="AB75" s="258"/>
-      <c r="AC75" s="259"/>
-      <c r="AD75" s="257"/>
-      <c r="AE75" s="258"/>
-      <c r="AF75" s="258"/>
-      <c r="AG75" s="258"/>
-      <c r="AH75" s="259"/>
+        <v>3</v>
+      </c>
+      <c r="F75" s="307" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="308"/>
+      <c r="H75" s="308"/>
+      <c r="I75" s="309"/>
+      <c r="J75" s="307" t="s">
+        <v>86</v>
+      </c>
+      <c r="K75" s="308"/>
+      <c r="L75" s="308"/>
+      <c r="M75" s="309"/>
+      <c r="N75" s="305" t="s">
+        <v>90</v>
+      </c>
+      <c r="O75" s="306"/>
+      <c r="P75" s="306"/>
+      <c r="Q75" s="306"/>
+      <c r="R75" s="306"/>
+      <c r="S75" s="303" t="s">
+        <v>93</v>
+      </c>
+      <c r="T75" s="304"/>
+      <c r="U75" s="304"/>
+      <c r="V75" s="304"/>
+      <c r="W75" s="348"/>
+      <c r="X75" s="349"/>
+      <c r="Y75" s="349"/>
+      <c r="Z75" s="349"/>
+      <c r="AA75" s="349"/>
+      <c r="AB75" s="349"/>
+      <c r="AC75" s="350"/>
+      <c r="AD75" s="348"/>
+      <c r="AE75" s="349"/>
+      <c r="AF75" s="349"/>
+      <c r="AG75" s="349"/>
+      <c r="AH75" s="350"/>
     </row>
     <row r="76" spans="3:34">
       <c r="C76" s="30"/>
       <c r="D76" s="1"/>
       <c r="E76" s="41">
-        <v>2</v>
-      </c>
-      <c r="F76" s="275" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" s="276"/>
-      <c r="H76" s="276"/>
-      <c r="I76" s="277"/>
-      <c r="J76" s="275" t="s">
-        <v>86</v>
-      </c>
-      <c r="K76" s="276"/>
-      <c r="L76" s="276"/>
-      <c r="M76" s="277"/>
-      <c r="N76" s="267" t="s">
-        <v>91</v>
-      </c>
-      <c r="O76" s="265"/>
-      <c r="P76" s="265"/>
-      <c r="Q76" s="265"/>
-      <c r="R76" s="265"/>
-      <c r="S76" s="268" t="s">
-        <v>93</v>
-      </c>
-      <c r="T76" s="266"/>
-      <c r="U76" s="266"/>
-      <c r="V76" s="266"/>
-      <c r="W76" s="257"/>
-      <c r="X76" s="258"/>
-      <c r="Y76" s="258"/>
-      <c r="Z76" s="258"/>
-      <c r="AA76" s="258"/>
-      <c r="AB76" s="258"/>
-      <c r="AC76" s="259"/>
-      <c r="AD76" s="257"/>
-      <c r="AE76" s="258"/>
-      <c r="AF76" s="258"/>
-      <c r="AG76" s="258"/>
-      <c r="AH76" s="259"/>
+        <v>4</v>
+      </c>
+      <c r="F76" s="307"/>
+      <c r="G76" s="308"/>
+      <c r="H76" s="308"/>
+      <c r="I76" s="309"/>
+      <c r="J76" s="307"/>
+      <c r="K76" s="308"/>
+      <c r="L76" s="308"/>
+      <c r="M76" s="309"/>
+      <c r="N76" s="354"/>
+      <c r="O76" s="306"/>
+      <c r="P76" s="306"/>
+      <c r="Q76" s="306"/>
+      <c r="R76" s="306"/>
+      <c r="S76" s="304"/>
+      <c r="T76" s="304"/>
+      <c r="U76" s="304"/>
+      <c r="V76" s="304"/>
+      <c r="W76" s="348"/>
+      <c r="X76" s="349"/>
+      <c r="Y76" s="349"/>
+      <c r="Z76" s="349"/>
+      <c r="AA76" s="349"/>
+      <c r="AB76" s="349"/>
+      <c r="AC76" s="350"/>
+      <c r="AD76" s="348"/>
+      <c r="AE76" s="349"/>
+      <c r="AF76" s="349"/>
+      <c r="AG76" s="349"/>
+      <c r="AH76" s="350"/>
     </row>
     <row r="77" spans="3:34">
       <c r="C77" s="30"/>
       <c r="D77" s="1"/>
       <c r="E77" s="41">
-        <v>3</v>
-      </c>
-      <c r="F77" s="275" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" s="276"/>
-      <c r="H77" s="276"/>
-      <c r="I77" s="277"/>
-      <c r="J77" s="275" t="s">
-        <v>87</v>
-      </c>
-      <c r="K77" s="276"/>
-      <c r="L77" s="276"/>
-      <c r="M77" s="277"/>
-      <c r="N77" s="267" t="s">
-        <v>91</v>
-      </c>
-      <c r="O77" s="265"/>
-      <c r="P77" s="265"/>
-      <c r="Q77" s="265"/>
-      <c r="R77" s="265"/>
-      <c r="S77" s="268" t="s">
-        <v>94</v>
-      </c>
-      <c r="T77" s="266"/>
-      <c r="U77" s="266"/>
-      <c r="V77" s="266"/>
-      <c r="W77" s="257"/>
-      <c r="X77" s="258"/>
-      <c r="Y77" s="258"/>
-      <c r="Z77" s="258"/>
-      <c r="AA77" s="258"/>
-      <c r="AB77" s="258"/>
-      <c r="AC77" s="259"/>
-      <c r="AD77" s="257"/>
-      <c r="AE77" s="258"/>
-      <c r="AF77" s="258"/>
-      <c r="AG77" s="258"/>
-      <c r="AH77" s="259"/>
-    </row>
-    <row r="78" spans="3:34">
-      <c r="C78" s="30"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="41">
-        <v>4</v>
-      </c>
-      <c r="F78" s="275"/>
-      <c r="G78" s="276"/>
-      <c r="H78" s="276"/>
-      <c r="I78" s="277"/>
-      <c r="J78" s="275"/>
-      <c r="K78" s="276"/>
-      <c r="L78" s="276"/>
-      <c r="M78" s="277"/>
-      <c r="N78" s="264"/>
-      <c r="O78" s="265"/>
-      <c r="P78" s="265"/>
-      <c r="Q78" s="265"/>
-      <c r="R78" s="265"/>
-      <c r="S78" s="266"/>
-      <c r="T78" s="266"/>
-      <c r="U78" s="266"/>
-      <c r="V78" s="266"/>
-      <c r="W78" s="257"/>
-      <c r="X78" s="258"/>
-      <c r="Y78" s="258"/>
-      <c r="Z78" s="258"/>
-      <c r="AA78" s="258"/>
-      <c r="AB78" s="258"/>
-      <c r="AC78" s="259"/>
-      <c r="AD78" s="257"/>
-      <c r="AE78" s="258"/>
-      <c r="AF78" s="258"/>
-      <c r="AG78" s="258"/>
-      <c r="AH78" s="259"/>
-    </row>
-    <row r="79" spans="3:34">
-      <c r="C79" s="30"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="41">
         <v>5</v>
       </c>
-      <c r="F79" s="275"/>
-      <c r="G79" s="276"/>
-      <c r="H79" s="276"/>
-      <c r="I79" s="277"/>
-      <c r="J79" s="275"/>
-      <c r="K79" s="276"/>
-      <c r="L79" s="276"/>
-      <c r="M79" s="277"/>
-      <c r="N79" s="264"/>
-      <c r="O79" s="265"/>
-      <c r="P79" s="265"/>
-      <c r="Q79" s="265"/>
-      <c r="R79" s="265"/>
-      <c r="S79" s="266"/>
-      <c r="T79" s="266"/>
-      <c r="U79" s="266"/>
-      <c r="V79" s="266"/>
-      <c r="W79" s="257"/>
-      <c r="X79" s="258"/>
-      <c r="Y79" s="258"/>
-      <c r="Z79" s="258"/>
-      <c r="AA79" s="258"/>
-      <c r="AB79" s="258"/>
-      <c r="AC79" s="259"/>
-      <c r="AD79" s="257"/>
-      <c r="AE79" s="258"/>
-      <c r="AF79" s="258"/>
-      <c r="AG79" s="258"/>
-      <c r="AH79" s="259"/>
+      <c r="F77" s="307"/>
+      <c r="G77" s="308"/>
+      <c r="H77" s="308"/>
+      <c r="I77" s="309"/>
+      <c r="J77" s="307"/>
+      <c r="K77" s="308"/>
+      <c r="L77" s="308"/>
+      <c r="M77" s="309"/>
+      <c r="N77" s="354"/>
+      <c r="O77" s="306"/>
+      <c r="P77" s="306"/>
+      <c r="Q77" s="306"/>
+      <c r="R77" s="306"/>
+      <c r="S77" s="304"/>
+      <c r="T77" s="304"/>
+      <c r="U77" s="304"/>
+      <c r="V77" s="304"/>
+      <c r="W77" s="348"/>
+      <c r="X77" s="349"/>
+      <c r="Y77" s="349"/>
+      <c r="Z77" s="349"/>
+      <c r="AA77" s="349"/>
+      <c r="AB77" s="349"/>
+      <c r="AC77" s="350"/>
+      <c r="AD77" s="348"/>
+      <c r="AE77" s="349"/>
+      <c r="AF77" s="349"/>
+      <c r="AG77" s="349"/>
+      <c r="AH77" s="350"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:S56"/>
-    <mergeCell ref="T56:AD56"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AD39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="T40:AD40"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:S55"/>
-    <mergeCell ref="T55:AD55"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="G68:L68"/>
-    <mergeCell ref="O68:AH68"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="J73:M74"/>
-    <mergeCell ref="F73:I74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="N73:V73"/>
+  <mergeCells count="119">
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AD76:AH76"/>
+    <mergeCell ref="AD77:AH77"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="N77:R77"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="N76:R76"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="N75:R75"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="W75:AC75"/>
+    <mergeCell ref="W76:AC76"/>
+    <mergeCell ref="W77:AC77"/>
+    <mergeCell ref="AD73:AH73"/>
+    <mergeCell ref="AD74:AH74"/>
+    <mergeCell ref="AD75:AH75"/>
+    <mergeCell ref="E47:X47"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="W73:AC73"/>
+    <mergeCell ref="W74:AC74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I77"/>
     <mergeCell ref="N74:R74"/>
+    <mergeCell ref="S74:V74"/>
+    <mergeCell ref="N73:R73"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="W71:AC72"/>
+    <mergeCell ref="AD71:AH72"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="O43:X43"/>
+    <mergeCell ref="E44:N46"/>
+    <mergeCell ref="O44:X44"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J71:M72"/>
+    <mergeCell ref="F71:I72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="N71:V71"/>
+    <mergeCell ref="N72:R72"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="D8:D9"/>
@@ -14466,63 +14404,45 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="N75:R75"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="W73:AC74"/>
-    <mergeCell ref="AD73:AH74"/>
-    <mergeCell ref="O28:AH28"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="L35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="E46:N48"/>
-    <mergeCell ref="O46:X46"/>
-    <mergeCell ref="O47:X47"/>
-    <mergeCell ref="O48:X48"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="N76:R76"/>
-    <mergeCell ref="S74:V74"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AD78:AH78"/>
-    <mergeCell ref="AD79:AH79"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N79:R79"/>
-    <mergeCell ref="S79:V79"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="S78:V78"/>
-    <mergeCell ref="N77:R77"/>
-    <mergeCell ref="S77:V77"/>
-    <mergeCell ref="W77:AC77"/>
-    <mergeCell ref="W78:AC78"/>
-    <mergeCell ref="W79:AC79"/>
-    <mergeCell ref="AD75:AH75"/>
-    <mergeCell ref="AD76:AH76"/>
-    <mergeCell ref="AD77:AH77"/>
-    <mergeCell ref="E49:X49"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="W75:AC75"/>
-    <mergeCell ref="W76:AC76"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="O66:AH66"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:S54"/>
+    <mergeCell ref="T54:AD54"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AD37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AD38"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:S53"/>
+    <mergeCell ref="T53:AD53"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
@@ -14543,8 +14463,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="30" max="34" man="1"/>
-    <brk id="62" max="34" man="1"/>
+    <brk id="28" max="34" man="1"/>
+    <brk id="60" max="34" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -34,49 +34,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="E30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>処理は目的(入力、各種業務処理、出力等)に分割して記載すること。
-例）
-(1) ○○バリデーション
-(2) ○○取得
-(3) ○○集計
-(4) ○○登録</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>処理内容の記載時、文章だけでは誤解されるリスクが高い仕様は、図表や数式を使って、理解しやすいように書く。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
   <si>
@@ -1136,7 +1093,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1271,20 +1228,6 @@
       <color indexed="55"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1912,624 +1855,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2555,6 +1880,624 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6027,12 +5970,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="151">
+      <c r="I25" s="165">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1">
@@ -6663,57 +6606,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="189" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="s">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="166" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="169">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="170"/>
+      <c r="AI1" s="171"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -6721,53 +6664,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="189" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="169" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="170"/>
+      <c r="AI2" s="171"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -6775,45 +6718,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="189" t="s">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="182"/>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="169"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="171"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -6850,1030 +6793,1186 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="185" t="s">
+      <c r="B7" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="185" t="s">
+      <c r="C7" s="173"/>
+      <c r="D7" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="185" t="s">
+      <c r="E7" s="174"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="187"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="188" t="s">
+      <c r="H7" s="174"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="185" t="s">
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-      <c r="Y7" s="187"/>
-      <c r="Z7" s="187"/>
-      <c r="AA7" s="187"/>
-      <c r="AB7" s="187"/>
-      <c r="AC7" s="187"/>
-      <c r="AD7" s="187"/>
-      <c r="AE7" s="186"/>
-      <c r="AF7" s="185" t="s">
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="174"/>
+      <c r="U7" s="174"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="173"/>
+      <c r="AF7" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="187"/>
-      <c r="AH7" s="187"/>
-      <c r="AI7" s="186"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="173"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167">
+      <c r="C8" s="216"/>
+      <c r="D8" s="217">
         <v>43718</v>
       </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170" t="s">
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="171"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="177"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="177"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="177"/>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="178"/>
-      <c r="AF8" s="175" t="s">
+      <c r="H8" s="221"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="223"/>
+      <c r="O8" s="223"/>
+      <c r="P8" s="224"/>
+      <c r="Q8" s="226"/>
+      <c r="R8" s="227"/>
+      <c r="S8" s="227"/>
+      <c r="T8" s="227"/>
+      <c r="U8" s="227"/>
+      <c r="V8" s="227"/>
+      <c r="W8" s="227"/>
+      <c r="X8" s="227"/>
+      <c r="Y8" s="227"/>
+      <c r="Z8" s="227"/>
+      <c r="AA8" s="227"/>
+      <c r="AB8" s="227"/>
+      <c r="AC8" s="227"/>
+      <c r="AD8" s="227"/>
+      <c r="AE8" s="228"/>
+      <c r="AF8" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="174"/>
+      <c r="AG8" s="223"/>
+      <c r="AH8" s="223"/>
+      <c r="AI8" s="224"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="118"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
-      <c r="U9" s="162"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="162"/>
-      <c r="Y9" s="162"/>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="159"/>
-      <c r="AH9" s="159"/>
-      <c r="AI9" s="160"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="206"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
+      <c r="P9" s="211"/>
+      <c r="Q9" s="212"/>
+      <c r="R9" s="213"/>
+      <c r="S9" s="213"/>
+      <c r="T9" s="213"/>
+      <c r="U9" s="213"/>
+      <c r="V9" s="213"/>
+      <c r="W9" s="213"/>
+      <c r="X9" s="213"/>
+      <c r="Y9" s="213"/>
+      <c r="Z9" s="213"/>
+      <c r="AA9" s="213"/>
+      <c r="AB9" s="213"/>
+      <c r="AC9" s="213"/>
+      <c r="AD9" s="213"/>
+      <c r="AE9" s="214"/>
+      <c r="AF9" s="209"/>
+      <c r="AG9" s="210"/>
+      <c r="AH9" s="210"/>
+      <c r="AI9" s="211"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="118"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="162"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="159"/>
-      <c r="AH10" s="159"/>
-      <c r="AI10" s="160"/>
+      <c r="B10" s="203"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="210"/>
+      <c r="O10" s="210"/>
+      <c r="P10" s="211"/>
+      <c r="Q10" s="212"/>
+      <c r="R10" s="213"/>
+      <c r="S10" s="213"/>
+      <c r="T10" s="213"/>
+      <c r="U10" s="213"/>
+      <c r="V10" s="213"/>
+      <c r="W10" s="213"/>
+      <c r="X10" s="213"/>
+      <c r="Y10" s="213"/>
+      <c r="Z10" s="213"/>
+      <c r="AA10" s="213"/>
+      <c r="AB10" s="213"/>
+      <c r="AC10" s="213"/>
+      <c r="AD10" s="213"/>
+      <c r="AE10" s="214"/>
+      <c r="AF10" s="209"/>
+      <c r="AG10" s="210"/>
+      <c r="AH10" s="210"/>
+      <c r="AI10" s="211"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="163"/>
-      <c r="AF11" s="158"/>
-      <c r="AG11" s="159"/>
-      <c r="AH11" s="159"/>
-      <c r="AI11" s="160"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="210"/>
+      <c r="L11" s="210"/>
+      <c r="M11" s="210"/>
+      <c r="N11" s="210"/>
+      <c r="O11" s="210"/>
+      <c r="P11" s="211"/>
+      <c r="Q11" s="212"/>
+      <c r="R11" s="213"/>
+      <c r="S11" s="213"/>
+      <c r="T11" s="213"/>
+      <c r="U11" s="213"/>
+      <c r="V11" s="213"/>
+      <c r="W11" s="213"/>
+      <c r="X11" s="213"/>
+      <c r="Y11" s="213"/>
+      <c r="Z11" s="213"/>
+      <c r="AA11" s="213"/>
+      <c r="AB11" s="213"/>
+      <c r="AC11" s="213"/>
+      <c r="AD11" s="213"/>
+      <c r="AE11" s="214"/>
+      <c r="AF11" s="209"/>
+      <c r="AG11" s="210"/>
+      <c r="AH11" s="210"/>
+      <c r="AI11" s="211"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="158"/>
-      <c r="AG12" s="159"/>
-      <c r="AH12" s="159"/>
-      <c r="AI12" s="160"/>
+      <c r="B12" s="203"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="203"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
+      <c r="P12" s="211"/>
+      <c r="Q12" s="212"/>
+      <c r="R12" s="213"/>
+      <c r="S12" s="213"/>
+      <c r="T12" s="213"/>
+      <c r="U12" s="213"/>
+      <c r="V12" s="213"/>
+      <c r="W12" s="213"/>
+      <c r="X12" s="213"/>
+      <c r="Y12" s="213"/>
+      <c r="Z12" s="213"/>
+      <c r="AA12" s="213"/>
+      <c r="AB12" s="213"/>
+      <c r="AC12" s="213"/>
+      <c r="AD12" s="213"/>
+      <c r="AE12" s="214"/>
+      <c r="AF12" s="209"/>
+      <c r="AG12" s="210"/>
+      <c r="AH12" s="210"/>
+      <c r="AI12" s="211"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="159"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="163"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="159"/>
-      <c r="AH13" s="159"/>
-      <c r="AI13" s="160"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="210"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="N13" s="210"/>
+      <c r="O13" s="210"/>
+      <c r="P13" s="211"/>
+      <c r="Q13" s="212"/>
+      <c r="R13" s="213"/>
+      <c r="S13" s="213"/>
+      <c r="T13" s="213"/>
+      <c r="U13" s="213"/>
+      <c r="V13" s="213"/>
+      <c r="W13" s="213"/>
+      <c r="X13" s="213"/>
+      <c r="Y13" s="213"/>
+      <c r="Z13" s="213"/>
+      <c r="AA13" s="213"/>
+      <c r="AB13" s="213"/>
+      <c r="AC13" s="213"/>
+      <c r="AD13" s="213"/>
+      <c r="AE13" s="214"/>
+      <c r="AF13" s="209"/>
+      <c r="AG13" s="210"/>
+      <c r="AH13" s="210"/>
+      <c r="AI13" s="211"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
-      <c r="U14" s="162"/>
-      <c r="V14" s="162"/>
-      <c r="W14" s="162"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="162"/>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="162"/>
-      <c r="AC14" s="162"/>
-      <c r="AD14" s="162"/>
-      <c r="AE14" s="163"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="159"/>
-      <c r="AH14" s="159"/>
-      <c r="AI14" s="160"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="210"/>
+      <c r="L14" s="210"/>
+      <c r="M14" s="210"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="210"/>
+      <c r="P14" s="211"/>
+      <c r="Q14" s="212"/>
+      <c r="R14" s="213"/>
+      <c r="S14" s="213"/>
+      <c r="T14" s="213"/>
+      <c r="U14" s="213"/>
+      <c r="V14" s="213"/>
+      <c r="W14" s="213"/>
+      <c r="X14" s="213"/>
+      <c r="Y14" s="213"/>
+      <c r="Z14" s="213"/>
+      <c r="AA14" s="213"/>
+      <c r="AB14" s="213"/>
+      <c r="AC14" s="213"/>
+      <c r="AD14" s="213"/>
+      <c r="AE14" s="214"/>
+      <c r="AF14" s="209"/>
+      <c r="AG14" s="210"/>
+      <c r="AH14" s="210"/>
+      <c r="AI14" s="211"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="162"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="163"/>
-      <c r="AF15" s="158"/>
-      <c r="AG15" s="159"/>
-      <c r="AH15" s="159"/>
-      <c r="AI15" s="160"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="210"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="210"/>
+      <c r="N15" s="210"/>
+      <c r="O15" s="210"/>
+      <c r="P15" s="211"/>
+      <c r="Q15" s="212"/>
+      <c r="R15" s="213"/>
+      <c r="S15" s="213"/>
+      <c r="T15" s="213"/>
+      <c r="U15" s="213"/>
+      <c r="V15" s="213"/>
+      <c r="W15" s="213"/>
+      <c r="X15" s="213"/>
+      <c r="Y15" s="213"/>
+      <c r="Z15" s="213"/>
+      <c r="AA15" s="213"/>
+      <c r="AB15" s="213"/>
+      <c r="AC15" s="213"/>
+      <c r="AD15" s="213"/>
+      <c r="AE15" s="214"/>
+      <c r="AF15" s="209"/>
+      <c r="AG15" s="210"/>
+      <c r="AH15" s="210"/>
+      <c r="AI15" s="211"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="159"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="163"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="159"/>
-      <c r="AH16" s="159"/>
-      <c r="AI16" s="160"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="210"/>
+      <c r="L16" s="210"/>
+      <c r="M16" s="210"/>
+      <c r="N16" s="210"/>
+      <c r="O16" s="210"/>
+      <c r="P16" s="211"/>
+      <c r="Q16" s="212"/>
+      <c r="R16" s="213"/>
+      <c r="S16" s="213"/>
+      <c r="T16" s="213"/>
+      <c r="U16" s="213"/>
+      <c r="V16" s="213"/>
+      <c r="W16" s="213"/>
+      <c r="X16" s="213"/>
+      <c r="Y16" s="213"/>
+      <c r="Z16" s="213"/>
+      <c r="AA16" s="213"/>
+      <c r="AB16" s="213"/>
+      <c r="AC16" s="213"/>
+      <c r="AD16" s="213"/>
+      <c r="AE16" s="214"/>
+      <c r="AF16" s="209"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="210"/>
+      <c r="AI16" s="211"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
-      <c r="U17" s="162"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="162"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="163"/>
-      <c r="AF17" s="158"/>
-      <c r="AG17" s="159"/>
-      <c r="AH17" s="159"/>
-      <c r="AI17" s="160"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="210"/>
+      <c r="L17" s="210"/>
+      <c r="M17" s="210"/>
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="211"/>
+      <c r="Q17" s="212"/>
+      <c r="R17" s="213"/>
+      <c r="S17" s="213"/>
+      <c r="T17" s="213"/>
+      <c r="U17" s="213"/>
+      <c r="V17" s="213"/>
+      <c r="W17" s="213"/>
+      <c r="X17" s="213"/>
+      <c r="Y17" s="213"/>
+      <c r="Z17" s="213"/>
+      <c r="AA17" s="213"/>
+      <c r="AB17" s="213"/>
+      <c r="AC17" s="213"/>
+      <c r="AD17" s="213"/>
+      <c r="AE17" s="214"/>
+      <c r="AF17" s="209"/>
+      <c r="AG17" s="210"/>
+      <c r="AH17" s="210"/>
+      <c r="AI17" s="211"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="162"/>
-      <c r="U18" s="162"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="163"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="159"/>
-      <c r="AH18" s="159"/>
-      <c r="AI18" s="160"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="210"/>
+      <c r="M18" s="210"/>
+      <c r="N18" s="210"/>
+      <c r="O18" s="210"/>
+      <c r="P18" s="211"/>
+      <c r="Q18" s="212"/>
+      <c r="R18" s="213"/>
+      <c r="S18" s="213"/>
+      <c r="T18" s="213"/>
+      <c r="U18" s="213"/>
+      <c r="V18" s="213"/>
+      <c r="W18" s="213"/>
+      <c r="X18" s="213"/>
+      <c r="Y18" s="213"/>
+      <c r="Z18" s="213"/>
+      <c r="AA18" s="213"/>
+      <c r="AB18" s="213"/>
+      <c r="AC18" s="213"/>
+      <c r="AD18" s="213"/>
+      <c r="AE18" s="214"/>
+      <c r="AF18" s="209"/>
+      <c r="AG18" s="210"/>
+      <c r="AH18" s="210"/>
+      <c r="AI18" s="211"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
-      <c r="U19" s="162"/>
-      <c r="V19" s="162"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="162"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="162"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="163"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="159"/>
-      <c r="AH19" s="159"/>
-      <c r="AI19" s="160"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="209"/>
+      <c r="K19" s="210"/>
+      <c r="L19" s="210"/>
+      <c r="M19" s="210"/>
+      <c r="N19" s="210"/>
+      <c r="O19" s="210"/>
+      <c r="P19" s="211"/>
+      <c r="Q19" s="212"/>
+      <c r="R19" s="213"/>
+      <c r="S19" s="213"/>
+      <c r="T19" s="213"/>
+      <c r="U19" s="213"/>
+      <c r="V19" s="213"/>
+      <c r="W19" s="213"/>
+      <c r="X19" s="213"/>
+      <c r="Y19" s="213"/>
+      <c r="Z19" s="213"/>
+      <c r="AA19" s="213"/>
+      <c r="AB19" s="213"/>
+      <c r="AC19" s="213"/>
+      <c r="AD19" s="213"/>
+      <c r="AE19" s="214"/>
+      <c r="AF19" s="209"/>
+      <c r="AG19" s="210"/>
+      <c r="AH19" s="210"/>
+      <c r="AI19" s="211"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="159"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="162"/>
-      <c r="U20" s="162"/>
-      <c r="V20" s="162"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="163"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="159"/>
-      <c r="AH20" s="159"/>
-      <c r="AI20" s="160"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="209"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="210"/>
+      <c r="M20" s="210"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="213"/>
+      <c r="S20" s="213"/>
+      <c r="T20" s="213"/>
+      <c r="U20" s="213"/>
+      <c r="V20" s="213"/>
+      <c r="W20" s="213"/>
+      <c r="X20" s="213"/>
+      <c r="Y20" s="213"/>
+      <c r="Z20" s="213"/>
+      <c r="AA20" s="213"/>
+      <c r="AB20" s="213"/>
+      <c r="AC20" s="213"/>
+      <c r="AD20" s="213"/>
+      <c r="AE20" s="214"/>
+      <c r="AF20" s="209"/>
+      <c r="AG20" s="210"/>
+      <c r="AH20" s="210"/>
+      <c r="AI20" s="211"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="162"/>
-      <c r="T21" s="162"/>
-      <c r="U21" s="162"/>
-      <c r="V21" s="162"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="162"/>
-      <c r="Y21" s="162"/>
-      <c r="Z21" s="162"/>
-      <c r="AA21" s="162"/>
-      <c r="AB21" s="162"/>
-      <c r="AC21" s="162"/>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="163"/>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="159"/>
-      <c r="AI21" s="160"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="209"/>
+      <c r="K21" s="210"/>
+      <c r="L21" s="210"/>
+      <c r="M21" s="210"/>
+      <c r="N21" s="210"/>
+      <c r="O21" s="210"/>
+      <c r="P21" s="211"/>
+      <c r="Q21" s="212"/>
+      <c r="R21" s="213"/>
+      <c r="S21" s="213"/>
+      <c r="T21" s="213"/>
+      <c r="U21" s="213"/>
+      <c r="V21" s="213"/>
+      <c r="W21" s="213"/>
+      <c r="X21" s="213"/>
+      <c r="Y21" s="213"/>
+      <c r="Z21" s="213"/>
+      <c r="AA21" s="213"/>
+      <c r="AB21" s="213"/>
+      <c r="AC21" s="213"/>
+      <c r="AD21" s="213"/>
+      <c r="AE21" s="214"/>
+      <c r="AF21" s="209"/>
+      <c r="AG21" s="210"/>
+      <c r="AH21" s="210"/>
+      <c r="AI21" s="211"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="162"/>
-      <c r="V22" s="162"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="162"/>
-      <c r="AA22" s="162"/>
-      <c r="AB22" s="162"/>
-      <c r="AC22" s="162"/>
-      <c r="AD22" s="162"/>
-      <c r="AE22" s="163"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="159"/>
-      <c r="AH22" s="159"/>
-      <c r="AI22" s="160"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="209"/>
+      <c r="K22" s="210"/>
+      <c r="L22" s="210"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="210"/>
+      <c r="O22" s="210"/>
+      <c r="P22" s="211"/>
+      <c r="Q22" s="212"/>
+      <c r="R22" s="213"/>
+      <c r="S22" s="213"/>
+      <c r="T22" s="213"/>
+      <c r="U22" s="213"/>
+      <c r="V22" s="213"/>
+      <c r="W22" s="213"/>
+      <c r="X22" s="213"/>
+      <c r="Y22" s="213"/>
+      <c r="Z22" s="213"/>
+      <c r="AA22" s="213"/>
+      <c r="AB22" s="213"/>
+      <c r="AC22" s="213"/>
+      <c r="AD22" s="213"/>
+      <c r="AE22" s="214"/>
+      <c r="AF22" s="209"/>
+      <c r="AG22" s="210"/>
+      <c r="AH22" s="210"/>
+      <c r="AI22" s="211"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="162"/>
-      <c r="T23" s="162"/>
-      <c r="U23" s="162"/>
-      <c r="V23" s="162"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="162"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="162"/>
-      <c r="AC23" s="162"/>
-      <c r="AD23" s="162"/>
-      <c r="AE23" s="163"/>
-      <c r="AF23" s="158"/>
-      <c r="AG23" s="159"/>
-      <c r="AH23" s="159"/>
-      <c r="AI23" s="160"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="203"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="209"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="210"/>
+      <c r="M23" s="210"/>
+      <c r="N23" s="210"/>
+      <c r="O23" s="210"/>
+      <c r="P23" s="211"/>
+      <c r="Q23" s="212"/>
+      <c r="R23" s="213"/>
+      <c r="S23" s="213"/>
+      <c r="T23" s="213"/>
+      <c r="U23" s="213"/>
+      <c r="V23" s="213"/>
+      <c r="W23" s="213"/>
+      <c r="X23" s="213"/>
+      <c r="Y23" s="213"/>
+      <c r="Z23" s="213"/>
+      <c r="AA23" s="213"/>
+      <c r="AB23" s="213"/>
+      <c r="AC23" s="213"/>
+      <c r="AD23" s="213"/>
+      <c r="AE23" s="214"/>
+      <c r="AF23" s="209"/>
+      <c r="AG23" s="210"/>
+      <c r="AH23" s="210"/>
+      <c r="AI23" s="211"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="162"/>
-      <c r="T24" s="162"/>
-      <c r="U24" s="162"/>
-      <c r="V24" s="162"/>
-      <c r="W24" s="162"/>
-      <c r="X24" s="162"/>
-      <c r="Y24" s="162"/>
-      <c r="Z24" s="162"/>
-      <c r="AA24" s="162"/>
-      <c r="AB24" s="162"/>
-      <c r="AC24" s="162"/>
-      <c r="AD24" s="162"/>
-      <c r="AE24" s="163"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="159"/>
-      <c r="AH24" s="159"/>
-      <c r="AI24" s="160"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="203"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="204"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="210"/>
+      <c r="L24" s="210"/>
+      <c r="M24" s="210"/>
+      <c r="N24" s="210"/>
+      <c r="O24" s="210"/>
+      <c r="P24" s="211"/>
+      <c r="Q24" s="212"/>
+      <c r="R24" s="213"/>
+      <c r="S24" s="213"/>
+      <c r="T24" s="213"/>
+      <c r="U24" s="213"/>
+      <c r="V24" s="213"/>
+      <c r="W24" s="213"/>
+      <c r="X24" s="213"/>
+      <c r="Y24" s="213"/>
+      <c r="Z24" s="213"/>
+      <c r="AA24" s="213"/>
+      <c r="AB24" s="213"/>
+      <c r="AC24" s="213"/>
+      <c r="AD24" s="213"/>
+      <c r="AE24" s="214"/>
+      <c r="AF24" s="209"/>
+      <c r="AG24" s="210"/>
+      <c r="AH24" s="210"/>
+      <c r="AI24" s="211"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="162"/>
-      <c r="T25" s="162"/>
-      <c r="U25" s="162"/>
-      <c r="V25" s="162"/>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
-      <c r="Y25" s="162"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="162"/>
-      <c r="AC25" s="162"/>
-      <c r="AD25" s="162"/>
-      <c r="AE25" s="163"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="159"/>
-      <c r="AH25" s="159"/>
-      <c r="AI25" s="160"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="209"/>
+      <c r="K25" s="210"/>
+      <c r="L25" s="210"/>
+      <c r="M25" s="210"/>
+      <c r="N25" s="210"/>
+      <c r="O25" s="210"/>
+      <c r="P25" s="211"/>
+      <c r="Q25" s="212"/>
+      <c r="R25" s="213"/>
+      <c r="S25" s="213"/>
+      <c r="T25" s="213"/>
+      <c r="U25" s="213"/>
+      <c r="V25" s="213"/>
+      <c r="W25" s="213"/>
+      <c r="X25" s="213"/>
+      <c r="Y25" s="213"/>
+      <c r="Z25" s="213"/>
+      <c r="AA25" s="213"/>
+      <c r="AB25" s="213"/>
+      <c r="AC25" s="213"/>
+      <c r="AD25" s="213"/>
+      <c r="AE25" s="214"/>
+      <c r="AF25" s="209"/>
+      <c r="AG25" s="210"/>
+      <c r="AH25" s="210"/>
+      <c r="AI25" s="211"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="162"/>
-      <c r="T26" s="162"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="162"/>
-      <c r="Z26" s="162"/>
-      <c r="AA26" s="162"/>
-      <c r="AB26" s="162"/>
-      <c r="AC26" s="162"/>
-      <c r="AD26" s="162"/>
-      <c r="AE26" s="163"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="160"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="209"/>
+      <c r="K26" s="210"/>
+      <c r="L26" s="210"/>
+      <c r="M26" s="210"/>
+      <c r="N26" s="210"/>
+      <c r="O26" s="210"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="212"/>
+      <c r="R26" s="213"/>
+      <c r="S26" s="213"/>
+      <c r="T26" s="213"/>
+      <c r="U26" s="213"/>
+      <c r="V26" s="213"/>
+      <c r="W26" s="213"/>
+      <c r="X26" s="213"/>
+      <c r="Y26" s="213"/>
+      <c r="Z26" s="213"/>
+      <c r="AA26" s="213"/>
+      <c r="AB26" s="213"/>
+      <c r="AC26" s="213"/>
+      <c r="AD26" s="213"/>
+      <c r="AE26" s="214"/>
+      <c r="AF26" s="209"/>
+      <c r="AG26" s="210"/>
+      <c r="AH26" s="210"/>
+      <c r="AI26" s="211"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="162"/>
-      <c r="T27" s="162"/>
-      <c r="U27" s="162"/>
-      <c r="V27" s="162"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="162"/>
-      <c r="AA27" s="162"/>
-      <c r="AB27" s="162"/>
-      <c r="AC27" s="162"/>
-      <c r="AD27" s="162"/>
-      <c r="AE27" s="163"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="159"/>
-      <c r="AH27" s="159"/>
-      <c r="AI27" s="160"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="209"/>
+      <c r="K27" s="210"/>
+      <c r="L27" s="210"/>
+      <c r="M27" s="210"/>
+      <c r="N27" s="210"/>
+      <c r="O27" s="210"/>
+      <c r="P27" s="211"/>
+      <c r="Q27" s="212"/>
+      <c r="R27" s="213"/>
+      <c r="S27" s="213"/>
+      <c r="T27" s="213"/>
+      <c r="U27" s="213"/>
+      <c r="V27" s="213"/>
+      <c r="W27" s="213"/>
+      <c r="X27" s="213"/>
+      <c r="Y27" s="213"/>
+      <c r="Z27" s="213"/>
+      <c r="AA27" s="213"/>
+      <c r="AB27" s="213"/>
+      <c r="AC27" s="213"/>
+      <c r="AD27" s="213"/>
+      <c r="AE27" s="214"/>
+      <c r="AF27" s="209"/>
+      <c r="AG27" s="210"/>
+      <c r="AH27" s="210"/>
+      <c r="AI27" s="211"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="162"/>
-      <c r="T28" s="162"/>
-      <c r="U28" s="162"/>
-      <c r="V28" s="162"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="162"/>
-      <c r="AC28" s="162"/>
-      <c r="AD28" s="162"/>
-      <c r="AE28" s="163"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="159"/>
-      <c r="AH28" s="159"/>
-      <c r="AI28" s="160"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="203"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="209"/>
+      <c r="K28" s="210"/>
+      <c r="L28" s="210"/>
+      <c r="M28" s="210"/>
+      <c r="N28" s="210"/>
+      <c r="O28" s="210"/>
+      <c r="P28" s="211"/>
+      <c r="Q28" s="212"/>
+      <c r="R28" s="213"/>
+      <c r="S28" s="213"/>
+      <c r="T28" s="213"/>
+      <c r="U28" s="213"/>
+      <c r="V28" s="213"/>
+      <c r="W28" s="213"/>
+      <c r="X28" s="213"/>
+      <c r="Y28" s="213"/>
+      <c r="Z28" s="213"/>
+      <c r="AA28" s="213"/>
+      <c r="AB28" s="213"/>
+      <c r="AC28" s="213"/>
+      <c r="AD28" s="213"/>
+      <c r="AE28" s="214"/>
+      <c r="AF28" s="209"/>
+      <c r="AG28" s="210"/>
+      <c r="AH28" s="210"/>
+      <c r="AI28" s="211"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="162"/>
-      <c r="S29" s="162"/>
-      <c r="T29" s="162"/>
-      <c r="U29" s="162"/>
-      <c r="V29" s="162"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="162"/>
-      <c r="Z29" s="162"/>
-      <c r="AA29" s="162"/>
-      <c r="AB29" s="162"/>
-      <c r="AC29" s="162"/>
-      <c r="AD29" s="162"/>
-      <c r="AE29" s="163"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="159"/>
-      <c r="AH29" s="159"/>
-      <c r="AI29" s="160"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="209"/>
+      <c r="K29" s="210"/>
+      <c r="L29" s="210"/>
+      <c r="M29" s="210"/>
+      <c r="N29" s="210"/>
+      <c r="O29" s="210"/>
+      <c r="P29" s="211"/>
+      <c r="Q29" s="212"/>
+      <c r="R29" s="213"/>
+      <c r="S29" s="213"/>
+      <c r="T29" s="213"/>
+      <c r="U29" s="213"/>
+      <c r="V29" s="213"/>
+      <c r="W29" s="213"/>
+      <c r="X29" s="213"/>
+      <c r="Y29" s="213"/>
+      <c r="Z29" s="213"/>
+      <c r="AA29" s="213"/>
+      <c r="AB29" s="213"/>
+      <c r="AC29" s="213"/>
+      <c r="AD29" s="213"/>
+      <c r="AE29" s="214"/>
+      <c r="AF29" s="209"/>
+      <c r="AG29" s="210"/>
+      <c r="AH29" s="210"/>
+      <c r="AI29" s="211"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="162"/>
-      <c r="S30" s="162"/>
-      <c r="T30" s="162"/>
-      <c r="U30" s="162"/>
-      <c r="V30" s="162"/>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="162"/>
-      <c r="Z30" s="162"/>
-      <c r="AA30" s="162"/>
-      <c r="AB30" s="162"/>
-      <c r="AC30" s="162"/>
-      <c r="AD30" s="162"/>
-      <c r="AE30" s="163"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="159"/>
-      <c r="AH30" s="159"/>
-      <c r="AI30" s="160"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="207"/>
+      <c r="G30" s="203"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="209"/>
+      <c r="K30" s="210"/>
+      <c r="L30" s="210"/>
+      <c r="M30" s="210"/>
+      <c r="N30" s="210"/>
+      <c r="O30" s="210"/>
+      <c r="P30" s="211"/>
+      <c r="Q30" s="212"/>
+      <c r="R30" s="213"/>
+      <c r="S30" s="213"/>
+      <c r="T30" s="213"/>
+      <c r="U30" s="213"/>
+      <c r="V30" s="213"/>
+      <c r="W30" s="213"/>
+      <c r="X30" s="213"/>
+      <c r="Y30" s="213"/>
+      <c r="Z30" s="213"/>
+      <c r="AA30" s="213"/>
+      <c r="AB30" s="213"/>
+      <c r="AC30" s="213"/>
+      <c r="AD30" s="213"/>
+      <c r="AE30" s="214"/>
+      <c r="AF30" s="209"/>
+      <c r="AG30" s="210"/>
+      <c r="AH30" s="210"/>
+      <c r="AI30" s="211"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="159"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="162"/>
-      <c r="T31" s="162"/>
-      <c r="U31" s="162"/>
-      <c r="V31" s="162"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="162"/>
-      <c r="AB31" s="162"/>
-      <c r="AC31" s="162"/>
-      <c r="AD31" s="162"/>
-      <c r="AE31" s="163"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="159"/>
-      <c r="AH31" s="159"/>
-      <c r="AI31" s="160"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="209"/>
+      <c r="K31" s="210"/>
+      <c r="L31" s="210"/>
+      <c r="M31" s="210"/>
+      <c r="N31" s="210"/>
+      <c r="O31" s="210"/>
+      <c r="P31" s="211"/>
+      <c r="Q31" s="212"/>
+      <c r="R31" s="213"/>
+      <c r="S31" s="213"/>
+      <c r="T31" s="213"/>
+      <c r="U31" s="213"/>
+      <c r="V31" s="213"/>
+      <c r="W31" s="213"/>
+      <c r="X31" s="213"/>
+      <c r="Y31" s="213"/>
+      <c r="Z31" s="213"/>
+      <c r="AA31" s="213"/>
+      <c r="AB31" s="213"/>
+      <c r="AC31" s="213"/>
+      <c r="AD31" s="213"/>
+      <c r="AE31" s="214"/>
+      <c r="AF31" s="209"/>
+      <c r="AG31" s="210"/>
+      <c r="AH31" s="210"/>
+      <c r="AI31" s="211"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="164"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="162"/>
-      <c r="T32" s="162"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="162"/>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
-      <c r="Y32" s="162"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-      <c r="AB32" s="162"/>
-      <c r="AC32" s="162"/>
-      <c r="AD32" s="162"/>
-      <c r="AE32" s="163"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="159"/>
-      <c r="AI32" s="160"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="203"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="209"/>
+      <c r="K32" s="229"/>
+      <c r="L32" s="210"/>
+      <c r="M32" s="210"/>
+      <c r="N32" s="210"/>
+      <c r="O32" s="210"/>
+      <c r="P32" s="211"/>
+      <c r="Q32" s="212"/>
+      <c r="R32" s="213"/>
+      <c r="S32" s="213"/>
+      <c r="T32" s="213"/>
+      <c r="U32" s="213"/>
+      <c r="V32" s="213"/>
+      <c r="W32" s="213"/>
+      <c r="X32" s="213"/>
+      <c r="Y32" s="213"/>
+      <c r="Z32" s="213"/>
+      <c r="AA32" s="213"/>
+      <c r="AB32" s="213"/>
+      <c r="AC32" s="213"/>
+      <c r="AD32" s="213"/>
+      <c r="AE32" s="214"/>
+      <c r="AF32" s="209"/>
+      <c r="AG32" s="210"/>
+      <c r="AH32" s="210"/>
+      <c r="AI32" s="211"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="159"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="162"/>
-      <c r="T33" s="162"/>
-      <c r="U33" s="162"/>
-      <c r="V33" s="162"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="162"/>
-      <c r="Z33" s="162"/>
-      <c r="AA33" s="162"/>
-      <c r="AB33" s="162"/>
-      <c r="AC33" s="162"/>
-      <c r="AD33" s="162"/>
-      <c r="AE33" s="163"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="159"/>
-      <c r="AH33" s="159"/>
-      <c r="AI33" s="160"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="209"/>
+      <c r="K33" s="210"/>
+      <c r="L33" s="210"/>
+      <c r="M33" s="210"/>
+      <c r="N33" s="210"/>
+      <c r="O33" s="210"/>
+      <c r="P33" s="211"/>
+      <c r="Q33" s="212"/>
+      <c r="R33" s="213"/>
+      <c r="S33" s="213"/>
+      <c r="T33" s="213"/>
+      <c r="U33" s="213"/>
+      <c r="V33" s="213"/>
+      <c r="W33" s="213"/>
+      <c r="X33" s="213"/>
+      <c r="Y33" s="213"/>
+      <c r="Z33" s="213"/>
+      <c r="AA33" s="213"/>
+      <c r="AB33" s="213"/>
+      <c r="AC33" s="213"/>
+      <c r="AD33" s="213"/>
+      <c r="AE33" s="214"/>
+      <c r="AF33" s="209"/>
+      <c r="AG33" s="210"/>
+      <c r="AH33" s="210"/>
+      <c r="AI33" s="211"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7897,162 +7996,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8209,157 +8152,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="231" t="s">
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="233" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="233"/>
-      <c r="S1" s="219" t="str">
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="228" t="s">
+      <c r="T1" s="246"/>
+      <c r="U1" s="246"/>
+      <c r="V1" s="246"/>
+      <c r="W1" s="246"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="246"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="216">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="242">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="217"/>
-      <c r="AI1" s="218"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="244"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="228" t="s">
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="249"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="250"/>
+      <c r="AA2" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="230"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="216" t="str">
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="242" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="217"/>
-      <c r="AI2" s="218"/>
+      <c r="AH2" s="243"/>
+      <c r="AI2" s="244"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="239"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="228"/>
-      <c r="AB3" s="230"/>
-      <c r="AC3" s="179" t="str">
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="252"/>
+      <c r="U3" s="252"/>
+      <c r="V3" s="252"/>
+      <c r="W3" s="252"/>
+      <c r="X3" s="252"/>
+      <c r="Y3" s="252"/>
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="230"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="216" t="str">
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="242" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="217"/>
-      <c r="AI3" s="218"/>
+      <c r="AH3" s="243"/>
+      <c r="AI3" s="244"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="44"/>
@@ -9826,14 +9769,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9843,6 +9778,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -9871,157 +9814,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="219" t="str">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="246"/>
+      <c r="U1" s="246"/>
+      <c r="V1" s="246"/>
+      <c r="W1" s="246"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="246"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="250">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="255">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="252"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="249"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="250"/>
+      <c r="AA2" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="250" t="str">
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="252"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="179" t="str">
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="252"/>
+      <c r="U3" s="252"/>
+      <c r="V3" s="252"/>
+      <c r="W3" s="252"/>
+      <c r="X3" s="252"/>
+      <c r="Y3" s="252"/>
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="250" t="str">
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="252"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
       <c r="A4" s="30"/>
@@ -10177,92 +10120,92 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="243" t="s">
+      <c r="D8" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="253" t="s">
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="254"/>
-      <c r="J8" s="254"/>
-      <c r="K8" s="254"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="254"/>
-      <c r="R8" s="254"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="254"/>
-      <c r="V8" s="254"/>
-      <c r="W8" s="254"/>
-      <c r="X8" s="254"/>
-      <c r="Y8" s="254"/>
-      <c r="Z8" s="254"/>
-      <c r="AA8" s="254"/>
-      <c r="AB8" s="254"/>
-      <c r="AC8" s="254"/>
-      <c r="AD8" s="254"/>
-      <c r="AE8" s="254"/>
-      <c r="AF8" s="254"/>
-      <c r="AG8" s="254"/>
-      <c r="AH8" s="254"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="259"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="259"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="259"/>
+      <c r="Q8" s="259"/>
+      <c r="R8" s="259"/>
+      <c r="S8" s="259"/>
+      <c r="T8" s="259"/>
+      <c r="U8" s="259"/>
+      <c r="V8" s="259"/>
+      <c r="W8" s="259"/>
+      <c r="X8" s="259"/>
+      <c r="Y8" s="259"/>
+      <c r="Z8" s="259"/>
+      <c r="AA8" s="259"/>
+      <c r="AB8" s="259"/>
+      <c r="AC8" s="259"/>
+      <c r="AD8" s="259"/>
+      <c r="AE8" s="259"/>
+      <c r="AF8" s="259"/>
+      <c r="AG8" s="259"/>
+      <c r="AH8" s="259"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="243" t="s">
+      <c r="D9" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="249" t="s">
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="254" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="249"/>
-      <c r="J9" s="249"/>
-      <c r="K9" s="249"/>
-      <c r="L9" s="249"/>
-      <c r="M9" s="249"/>
-      <c r="N9" s="249"/>
-      <c r="O9" s="249"/>
-      <c r="P9" s="249"/>
-      <c r="Q9" s="249"/>
-      <c r="R9" s="249"/>
-      <c r="S9" s="249"/>
-      <c r="T9" s="249"/>
-      <c r="U9" s="249"/>
-      <c r="V9" s="249"/>
-      <c r="W9" s="249"/>
-      <c r="X9" s="249"/>
-      <c r="Y9" s="249"/>
-      <c r="Z9" s="249"/>
-      <c r="AA9" s="249"/>
-      <c r="AB9" s="249"/>
-      <c r="AC9" s="249"/>
-      <c r="AD9" s="249"/>
-      <c r="AE9" s="249"/>
-      <c r="AF9" s="249"/>
-      <c r="AG9" s="249"/>
-      <c r="AH9" s="249"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="254"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="254"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="254"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="254"/>
+      <c r="W9" s="254"/>
+      <c r="X9" s="254"/>
+      <c r="Y9" s="254"/>
+      <c r="Z9" s="254"/>
+      <c r="AA9" s="254"/>
+      <c r="AB9" s="254"/>
+      <c r="AC9" s="254"/>
+      <c r="AD9" s="254"/>
+      <c r="AE9" s="254"/>
+      <c r="AF9" s="254"/>
+      <c r="AG9" s="254"/>
+      <c r="AH9" s="254"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="240" t="s">
+      <c r="D10" s="263" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="242"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="265"/>
       <c r="H10" s="103" t="s">
         <v>116</v>
       </c>
@@ -10297,172 +10240,172 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="243" t="s">
+      <c r="D11" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="245"/>
-      <c r="H11" s="253" t="s">
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="262"/>
+      <c r="H11" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="254"/>
-      <c r="J11" s="254"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="254"/>
-      <c r="O11" s="254"/>
-      <c r="P11" s="254"/>
-      <c r="Q11" s="254"/>
-      <c r="R11" s="254"/>
-      <c r="S11" s="254"/>
-      <c r="T11" s="254"/>
-      <c r="U11" s="254"/>
-      <c r="V11" s="254"/>
-      <c r="W11" s="254"/>
-      <c r="X11" s="254"/>
-      <c r="Y11" s="254"/>
-      <c r="Z11" s="254"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="254"/>
-      <c r="AC11" s="254"/>
-      <c r="AD11" s="254"/>
-      <c r="AE11" s="254"/>
-      <c r="AF11" s="254"/>
-      <c r="AG11" s="254"/>
-      <c r="AH11" s="254"/>
+      <c r="I11" s="259"/>
+      <c r="J11" s="259"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="259"/>
+      <c r="N11" s="259"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="259"/>
+      <c r="Q11" s="259"/>
+      <c r="R11" s="259"/>
+      <c r="S11" s="259"/>
+      <c r="T11" s="259"/>
+      <c r="U11" s="259"/>
+      <c r="V11" s="259"/>
+      <c r="W11" s="259"/>
+      <c r="X11" s="259"/>
+      <c r="Y11" s="259"/>
+      <c r="Z11" s="259"/>
+      <c r="AA11" s="259"/>
+      <c r="AB11" s="259"/>
+      <c r="AC11" s="259"/>
+      <c r="AD11" s="259"/>
+      <c r="AE11" s="259"/>
+      <c r="AF11" s="259"/>
+      <c r="AG11" s="259"/>
+      <c r="AH11" s="259"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="243" t="s">
+      <c r="D12" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="245"/>
-      <c r="H12" s="249" t="s">
+      <c r="E12" s="261"/>
+      <c r="F12" s="261"/>
+      <c r="G12" s="262"/>
+      <c r="H12" s="254" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="249"/>
-      <c r="J12" s="249"/>
-      <c r="K12" s="249"/>
-      <c r="L12" s="249"/>
-      <c r="M12" s="249"/>
-      <c r="N12" s="249"/>
-      <c r="O12" s="249"/>
-      <c r="P12" s="249"/>
-      <c r="Q12" s="249"/>
-      <c r="R12" s="249"/>
-      <c r="S12" s="249"/>
-      <c r="T12" s="249"/>
-      <c r="U12" s="249"/>
-      <c r="V12" s="249"/>
-      <c r="W12" s="249"/>
-      <c r="X12" s="249"/>
-      <c r="Y12" s="249"/>
-      <c r="Z12" s="249"/>
-      <c r="AA12" s="249"/>
-      <c r="AB12" s="249"/>
-      <c r="AC12" s="249"/>
-      <c r="AD12" s="249"/>
-      <c r="AE12" s="249"/>
-      <c r="AF12" s="249"/>
-      <c r="AG12" s="249"/>
-      <c r="AH12" s="249"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="254"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="254"/>
+      <c r="M12" s="254"/>
+      <c r="N12" s="254"/>
+      <c r="O12" s="254"/>
+      <c r="P12" s="254"/>
+      <c r="Q12" s="254"/>
+      <c r="R12" s="254"/>
+      <c r="S12" s="254"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="254"/>
+      <c r="V12" s="254"/>
+      <c r="W12" s="254"/>
+      <c r="X12" s="254"/>
+      <c r="Y12" s="254"/>
+      <c r="Z12" s="254"/>
+      <c r="AA12" s="254"/>
+      <c r="AB12" s="254"/>
+      <c r="AC12" s="254"/>
+      <c r="AD12" s="254"/>
+      <c r="AE12" s="254"/>
+      <c r="AF12" s="254"/>
+      <c r="AG12" s="254"/>
+      <c r="AH12" s="254"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="243" t="s">
+      <c r="D13" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="245"/>
-      <c r="H13" s="249" t="s">
+      <c r="E13" s="261"/>
+      <c r="F13" s="261"/>
+      <c r="G13" s="262"/>
+      <c r="H13" s="254" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="249"/>
-      <c r="J13" s="249"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="249"/>
-      <c r="M13" s="249"/>
-      <c r="N13" s="249"/>
-      <c r="O13" s="249"/>
-      <c r="P13" s="249"/>
-      <c r="Q13" s="249"/>
-      <c r="R13" s="249"/>
-      <c r="S13" s="249"/>
-      <c r="T13" s="249"/>
-      <c r="U13" s="249"/>
-      <c r="V13" s="249"/>
-      <c r="W13" s="249"/>
-      <c r="X13" s="249"/>
-      <c r="Y13" s="249"/>
-      <c r="Z13" s="249"/>
-      <c r="AA13" s="249"/>
-      <c r="AB13" s="249"/>
-      <c r="AC13" s="249"/>
-      <c r="AD13" s="249"/>
-      <c r="AE13" s="249"/>
-      <c r="AF13" s="249"/>
-      <c r="AG13" s="249"/>
-      <c r="AH13" s="249"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="254"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="254"/>
+      <c r="N13" s="254"/>
+      <c r="O13" s="254"/>
+      <c r="P13" s="254"/>
+      <c r="Q13" s="254"/>
+      <c r="R13" s="254"/>
+      <c r="S13" s="254"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="254"/>
+      <c r="W13" s="254"/>
+      <c r="X13" s="254"/>
+      <c r="Y13" s="254"/>
+      <c r="Z13" s="254"/>
+      <c r="AA13" s="254"/>
+      <c r="AB13" s="254"/>
+      <c r="AC13" s="254"/>
+      <c r="AD13" s="254"/>
+      <c r="AE13" s="254"/>
+      <c r="AF13" s="254"/>
+      <c r="AG13" s="254"/>
+      <c r="AH13" s="254"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="243" t="s">
+      <c r="D14" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="244"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="245"/>
-      <c r="H14" s="249" t="s">
+      <c r="E14" s="261"/>
+      <c r="F14" s="261"/>
+      <c r="G14" s="262"/>
+      <c r="H14" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="249"/>
-      <c r="J14" s="249"/>
-      <c r="K14" s="249"/>
-      <c r="L14" s="249"/>
-      <c r="M14" s="249"/>
-      <c r="N14" s="249"/>
-      <c r="O14" s="249"/>
-      <c r="P14" s="249"/>
-      <c r="Q14" s="249"/>
-      <c r="R14" s="249"/>
-      <c r="S14" s="249"/>
-      <c r="T14" s="249"/>
-      <c r="U14" s="249"/>
-      <c r="V14" s="249"/>
-      <c r="W14" s="249"/>
-      <c r="X14" s="249"/>
-      <c r="Y14" s="249"/>
-      <c r="Z14" s="249"/>
-      <c r="AA14" s="249"/>
-      <c r="AB14" s="249"/>
-      <c r="AC14" s="249"/>
-      <c r="AD14" s="249"/>
-      <c r="AE14" s="249"/>
-      <c r="AF14" s="249"/>
-      <c r="AG14" s="249"/>
-      <c r="AH14" s="249"/>
+      <c r="I14" s="254"/>
+      <c r="J14" s="254"/>
+      <c r="K14" s="254"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="254"/>
+      <c r="N14" s="254"/>
+      <c r="O14" s="254"/>
+      <c r="P14" s="254"/>
+      <c r="Q14" s="254"/>
+      <c r="R14" s="254"/>
+      <c r="S14" s="254"/>
+      <c r="T14" s="254"/>
+      <c r="U14" s="254"/>
+      <c r="V14" s="254"/>
+      <c r="W14" s="254"/>
+      <c r="X14" s="254"/>
+      <c r="Y14" s="254"/>
+      <c r="Z14" s="254"/>
+      <c r="AA14" s="254"/>
+      <c r="AB14" s="254"/>
+      <c r="AC14" s="254"/>
+      <c r="AD14" s="254"/>
+      <c r="AE14" s="254"/>
+      <c r="AF14" s="254"/>
+      <c r="AG14" s="254"/>
+      <c r="AH14" s="254"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="243" t="s">
+      <c r="D15" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="244"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="245"/>
+      <c r="E15" s="261"/>
+      <c r="F15" s="261"/>
+      <c r="G15" s="262"/>
       <c r="H15" s="144" t="s">
         <v>117</v>
       </c>
@@ -10614,30 +10557,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="248"/>
-      <c r="H19" s="248"/>
-      <c r="I19" s="248"/>
-      <c r="J19" s="248"/>
-      <c r="K19" s="248"/>
-      <c r="L19" s="248"/>
-      <c r="M19" s="248"/>
-      <c r="N19" s="248"/>
-      <c r="O19" s="246"/>
-      <c r="P19" s="247"/>
-      <c r="Q19" s="247"/>
-      <c r="R19" s="247"/>
-      <c r="S19" s="247"/>
-      <c r="T19" s="247"/>
-      <c r="U19" s="247"/>
-      <c r="V19" s="247"/>
-      <c r="W19" s="247"/>
-      <c r="X19" s="247"/>
-      <c r="Y19" s="247"/>
-      <c r="Z19" s="247"/>
-      <c r="AA19" s="247"/>
-      <c r="AB19" s="247"/>
-      <c r="AC19" s="247"/>
-      <c r="AD19" s="247"/>
+      <c r="G19" s="268"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="268"/>
+      <c r="J19" s="268"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="268"/>
+      <c r="M19" s="268"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="266"/>
+      <c r="P19" s="267"/>
+      <c r="Q19" s="267"/>
+      <c r="R19" s="267"/>
+      <c r="S19" s="267"/>
+      <c r="T19" s="267"/>
+      <c r="U19" s="267"/>
+      <c r="V19" s="267"/>
+      <c r="W19" s="267"/>
+      <c r="X19" s="267"/>
+      <c r="Y19" s="267"/>
+      <c r="Z19" s="267"/>
+      <c r="AA19" s="267"/>
+      <c r="AB19" s="267"/>
+      <c r="AC19" s="267"/>
+      <c r="AD19" s="267"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
@@ -11089,14 +11032,15 @@
     <row r="34" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11113,15 +11057,14 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11150,157 +11093,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="219" t="str">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="246"/>
+      <c r="U1" s="246"/>
+      <c r="V1" s="246"/>
+      <c r="W1" s="246"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="246"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="250">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="255">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="252"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="249"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="250"/>
+      <c r="AA2" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="250" t="str">
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="252"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="179" t="str">
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="252"/>
+      <c r="U3" s="252"/>
+      <c r="V3" s="252"/>
+      <c r="W3" s="252"/>
+      <c r="X3" s="252"/>
+      <c r="Y3" s="252"/>
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="250" t="str">
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="252"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" ht="12" customHeight="1">
@@ -11315,6 +11258,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11326,12 +11275,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11345,7 +11288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11361,163 +11304,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="219" t="str">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="246"/>
+      <c r="U1" s="246"/>
+      <c r="V1" s="246"/>
+      <c r="W1" s="246"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="246"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="250">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="255">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="252"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="257"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="249"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="250"/>
+      <c r="AA2" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="250" t="str">
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="252"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="257"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="179" t="str">
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="252"/>
+      <c r="U3" s="252"/>
+      <c r="V3" s="252"/>
+      <c r="W3" s="252"/>
+      <c r="X3" s="252"/>
+      <c r="Y3" s="252"/>
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="250" t="str">
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="252"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="257"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11635,65 +11578,65 @@
     <row r="8" spans="1:38">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="301" t="s">
+      <c r="D8" s="341" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="271" t="s">
+      <c r="E8" s="343" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="272"/>
-      <c r="G8" s="272"/>
-      <c r="H8" s="272"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="277" t="s">
+      <c r="F8" s="344"/>
+      <c r="G8" s="344"/>
+      <c r="H8" s="344"/>
+      <c r="I8" s="344"/>
+      <c r="J8" s="345"/>
+      <c r="K8" s="349" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="272"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="273"/>
-      <c r="O8" s="284" t="s">
+      <c r="L8" s="344"/>
+      <c r="M8" s="344"/>
+      <c r="N8" s="345"/>
+      <c r="O8" s="353" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="289" t="s">
+      <c r="P8" s="358" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="290"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="291"/>
-      <c r="V8" s="286" t="s">
+      <c r="Q8" s="359"/>
+      <c r="R8" s="359"/>
+      <c r="S8" s="359"/>
+      <c r="T8" s="359"/>
+      <c r="U8" s="360"/>
+      <c r="V8" s="355" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="286"/>
-      <c r="X8" s="286"/>
-      <c r="Y8" s="286"/>
-      <c r="Z8" s="286"/>
-      <c r="AA8" s="286"/>
-      <c r="AB8" s="286"/>
-      <c r="AC8" s="286"/>
-      <c r="AD8" s="286"/>
-      <c r="AE8" s="286"/>
-      <c r="AF8" s="286"/>
-      <c r="AG8" s="286"/>
-      <c r="AH8" s="286"/>
+      <c r="W8" s="355"/>
+      <c r="X8" s="355"/>
+      <c r="Y8" s="355"/>
+      <c r="Z8" s="355"/>
+      <c r="AA8" s="355"/>
+      <c r="AB8" s="355"/>
+      <c r="AC8" s="355"/>
+      <c r="AD8" s="355"/>
+      <c r="AE8" s="355"/>
+      <c r="AF8" s="355"/>
+      <c r="AG8" s="355"/>
+      <c r="AH8" s="355"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="274"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
-      <c r="I9" s="275"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="274"/>
-      <c r="L9" s="275"/>
-      <c r="M9" s="275"/>
-      <c r="N9" s="276"/>
-      <c r="O9" s="285"/>
+      <c r="D9" s="342"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="347"/>
+      <c r="G9" s="347"/>
+      <c r="H9" s="347"/>
+      <c r="I9" s="347"/>
+      <c r="J9" s="348"/>
+      <c r="K9" s="346"/>
+      <c r="L9" s="347"/>
+      <c r="M9" s="347"/>
+      <c r="N9" s="348"/>
+      <c r="O9" s="354"/>
       <c r="P9" s="90" t="s">
         <v>46</v>
       </c>
@@ -11706,23 +11649,23 @@
       <c r="S9" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="287" t="s">
+      <c r="T9" s="356" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="288"/>
-      <c r="V9" s="286"/>
-      <c r="W9" s="286"/>
-      <c r="X9" s="286"/>
-      <c r="Y9" s="286"/>
-      <c r="Z9" s="286"/>
-      <c r="AA9" s="286"/>
-      <c r="AB9" s="286"/>
-      <c r="AC9" s="286"/>
-      <c r="AD9" s="286"/>
-      <c r="AE9" s="286"/>
-      <c r="AF9" s="286"/>
-      <c r="AG9" s="286"/>
-      <c r="AH9" s="286"/>
+      <c r="U9" s="357"/>
+      <c r="V9" s="355"/>
+      <c r="W9" s="355"/>
+      <c r="X9" s="355"/>
+      <c r="Y9" s="355"/>
+      <c r="Z9" s="355"/>
+      <c r="AA9" s="355"/>
+      <c r="AB9" s="355"/>
+      <c r="AC9" s="355"/>
+      <c r="AD9" s="355"/>
+      <c r="AE9" s="355"/>
+      <c r="AF9" s="355"/>
+      <c r="AG9" s="355"/>
+      <c r="AH9" s="355"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" s="30"/>
@@ -11730,20 +11673,20 @@
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="281" t="s">
+      <c r="E10" s="278" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="161" t="s">
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="163"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="214"/>
       <c r="O10" s="115" t="s">
         <v>79</v>
       </c>
@@ -11759,23 +11702,23 @@
       <c r="S10" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="282" t="s">
+      <c r="T10" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="U10" s="283"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="162"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="162"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="162"/>
-      <c r="AH10" s="163"/>
+      <c r="U10" s="271"/>
+      <c r="V10" s="212"/>
+      <c r="W10" s="213"/>
+      <c r="X10" s="213"/>
+      <c r="Y10" s="213"/>
+      <c r="Z10" s="213"/>
+      <c r="AA10" s="213"/>
+      <c r="AB10" s="213"/>
+      <c r="AC10" s="213"/>
+      <c r="AD10" s="213"/>
+      <c r="AE10" s="213"/>
+      <c r="AF10" s="213"/>
+      <c r="AG10" s="213"/>
+      <c r="AH10" s="214"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" s="30"/>
@@ -11783,20 +11726,20 @@
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="281" t="s">
+      <c r="E11" s="278" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="161" t="s">
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="212" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="163"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="214"/>
       <c r="O11" s="116" t="s">
         <v>80</v>
       </c>
@@ -11812,23 +11755,23 @@
       <c r="S11" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="T11" s="282" t="s">
+      <c r="T11" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="283"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="162"/>
-      <c r="AH11" s="163"/>
+      <c r="U11" s="271"/>
+      <c r="V11" s="212"/>
+      <c r="W11" s="213"/>
+      <c r="X11" s="213"/>
+      <c r="Y11" s="213"/>
+      <c r="Z11" s="213"/>
+      <c r="AA11" s="213"/>
+      <c r="AB11" s="213"/>
+      <c r="AC11" s="213"/>
+      <c r="AD11" s="213"/>
+      <c r="AE11" s="213"/>
+      <c r="AF11" s="213"/>
+      <c r="AG11" s="213"/>
+      <c r="AH11" s="214"/>
     </row>
     <row r="12" spans="1:38">
       <c r="B12" s="30"/>
@@ -11836,20 +11779,20 @@
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="281" t="s">
+      <c r="E12" s="278" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="161" t="s">
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="214"/>
+      <c r="K12" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="163"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="214"/>
       <c r="O12" s="116" t="s">
         <v>80</v>
       </c>
@@ -11865,23 +11808,23 @@
       <c r="S12" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="T12" s="282" t="s">
+      <c r="T12" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="U12" s="283"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="163"/>
+      <c r="U12" s="271"/>
+      <c r="V12" s="212"/>
+      <c r="W12" s="213"/>
+      <c r="X12" s="213"/>
+      <c r="Y12" s="213"/>
+      <c r="Z12" s="213"/>
+      <c r="AA12" s="213"/>
+      <c r="AB12" s="213"/>
+      <c r="AC12" s="213"/>
+      <c r="AD12" s="213"/>
+      <c r="AE12" s="213"/>
+      <c r="AF12" s="213"/>
+      <c r="AG12" s="213"/>
+      <c r="AH12" s="214"/>
     </row>
     <row r="13" spans="1:38">
       <c r="B13" s="30"/>
@@ -12031,40 +11974,40 @@
       <c r="D17" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="256" t="s">
+      <c r="E17" s="361" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="257"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="351" t="s">
+      <c r="F17" s="362"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="275" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="352"/>
-      <c r="J17" s="352"/>
-      <c r="K17" s="352"/>
-      <c r="L17" s="352"/>
-      <c r="M17" s="352"/>
-      <c r="N17" s="352"/>
-      <c r="O17" s="352"/>
-      <c r="P17" s="352"/>
-      <c r="Q17" s="352"/>
-      <c r="R17" s="352"/>
-      <c r="S17" s="352"/>
-      <c r="T17" s="352"/>
-      <c r="U17" s="352"/>
-      <c r="V17" s="352"/>
-      <c r="W17" s="352"/>
-      <c r="X17" s="352"/>
-      <c r="Y17" s="352"/>
-      <c r="Z17" s="352"/>
-      <c r="AA17" s="352"/>
-      <c r="AB17" s="352"/>
-      <c r="AC17" s="352"/>
-      <c r="AD17" s="352"/>
-      <c r="AE17" s="352"/>
-      <c r="AF17" s="352"/>
-      <c r="AG17" s="352"/>
-      <c r="AH17" s="353"/>
+      <c r="I17" s="276"/>
+      <c r="J17" s="276"/>
+      <c r="K17" s="276"/>
+      <c r="L17" s="276"/>
+      <c r="M17" s="276"/>
+      <c r="N17" s="276"/>
+      <c r="O17" s="276"/>
+      <c r="P17" s="276"/>
+      <c r="Q17" s="276"/>
+      <c r="R17" s="276"/>
+      <c r="S17" s="276"/>
+      <c r="T17" s="276"/>
+      <c r="U17" s="276"/>
+      <c r="V17" s="276"/>
+      <c r="W17" s="276"/>
+      <c r="X17" s="276"/>
+      <c r="Y17" s="276"/>
+      <c r="Z17" s="276"/>
+      <c r="AA17" s="276"/>
+      <c r="AB17" s="276"/>
+      <c r="AC17" s="276"/>
+      <c r="AD17" s="276"/>
+      <c r="AE17" s="276"/>
+      <c r="AF17" s="276"/>
+      <c r="AG17" s="276"/>
+      <c r="AH17" s="277"/>
     </row>
     <row r="18" spans="1:35" s="88" customFormat="1" ht="23.25" customHeight="1">
       <c r="B18" s="30"/>
@@ -12072,40 +12015,40 @@
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="281" t="s">
+      <c r="E18" s="278" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="162"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="281" t="s">
+      <c r="F18" s="213"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="278" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="162"/>
-      <c r="U18" s="162"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="162"/>
-      <c r="AH18" s="163"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="213"/>
+      <c r="P18" s="213"/>
+      <c r="Q18" s="213"/>
+      <c r="R18" s="213"/>
+      <c r="S18" s="213"/>
+      <c r="T18" s="213"/>
+      <c r="U18" s="213"/>
+      <c r="V18" s="213"/>
+      <c r="W18" s="213"/>
+      <c r="X18" s="213"/>
+      <c r="Y18" s="213"/>
+      <c r="Z18" s="213"/>
+      <c r="AA18" s="213"/>
+      <c r="AB18" s="213"/>
+      <c r="AC18" s="213"/>
+      <c r="AD18" s="213"/>
+      <c r="AE18" s="213"/>
+      <c r="AF18" s="213"/>
+      <c r="AG18" s="213"/>
+      <c r="AH18" s="214"/>
     </row>
     <row r="19" spans="1:35" ht="23.25" customHeight="1">
       <c r="B19" s="1"/>
@@ -12113,40 +12056,40 @@
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="281" t="s">
+      <c r="E19" s="278" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="162"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="281" t="s">
+      <c r="F19" s="213"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="278" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
-      <c r="U19" s="162"/>
-      <c r="V19" s="162"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="162"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="162"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="162"/>
-      <c r="AF19" s="162"/>
-      <c r="AG19" s="162"/>
-      <c r="AH19" s="163"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="213"/>
+      <c r="P19" s="213"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="213"/>
+      <c r="S19" s="213"/>
+      <c r="T19" s="213"/>
+      <c r="U19" s="213"/>
+      <c r="V19" s="213"/>
+      <c r="W19" s="213"/>
+      <c r="X19" s="213"/>
+      <c r="Y19" s="213"/>
+      <c r="Z19" s="213"/>
+      <c r="AA19" s="213"/>
+      <c r="AB19" s="213"/>
+      <c r="AC19" s="213"/>
+      <c r="AD19" s="213"/>
+      <c r="AE19" s="213"/>
+      <c r="AF19" s="213"/>
+      <c r="AG19" s="213"/>
+      <c r="AH19" s="214"/>
     </row>
     <row r="20" spans="1:35" ht="23.25" customHeight="1">
       <c r="B20" s="1"/>
@@ -12154,40 +12097,40 @@
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="281" t="s">
+      <c r="E20" s="278" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="162"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="281" t="s">
+      <c r="F20" s="213"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="278" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="162"/>
-      <c r="U20" s="162"/>
-      <c r="V20" s="162"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="162"/>
-      <c r="AH20" s="163"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="213"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="213"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="213"/>
+      <c r="S20" s="213"/>
+      <c r="T20" s="213"/>
+      <c r="U20" s="213"/>
+      <c r="V20" s="213"/>
+      <c r="W20" s="213"/>
+      <c r="X20" s="213"/>
+      <c r="Y20" s="213"/>
+      <c r="Z20" s="213"/>
+      <c r="AA20" s="213"/>
+      <c r="AB20" s="213"/>
+      <c r="AC20" s="213"/>
+      <c r="AD20" s="213"/>
+      <c r="AE20" s="213"/>
+      <c r="AF20" s="213"/>
+      <c r="AG20" s="213"/>
+      <c r="AH20" s="214"/>
     </row>
     <row r="21" spans="1:35">
       <c r="B21" s="87"/>
@@ -12371,42 +12314,42 @@
     <row r="26" spans="1:35">
       <c r="B26" s="87"/>
       <c r="C26" s="150"/>
-      <c r="E26" s="361" t="s">
+      <c r="E26" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="362" t="s">
+      <c r="F26" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="363"/>
-      <c r="H26" s="363"/>
-      <c r="I26" s="363"/>
-      <c r="J26" s="363"/>
-      <c r="K26" s="364"/>
-      <c r="L26" s="362" t="s">
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="M26" s="363"/>
-      <c r="N26" s="363"/>
-      <c r="O26" s="363"/>
-      <c r="P26" s="363"/>
-      <c r="Q26" s="363"/>
-      <c r="R26" s="363"/>
-      <c r="S26" s="363"/>
-      <c r="T26" s="363"/>
-      <c r="U26" s="364"/>
-      <c r="V26" s="362" t="s">
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="W26" s="362" t="s">
+      <c r="W26" s="152" t="s">
         <v>149</v>
       </c>
-      <c r="X26" s="363"/>
-      <c r="Y26" s="363"/>
-      <c r="Z26" s="363"/>
-      <c r="AA26" s="363"/>
-      <c r="AB26" s="365"/>
-      <c r="AC26" s="365"/>
-      <c r="AD26" s="366"/>
+      <c r="X26" s="153"/>
+      <c r="Y26" s="153"/>
+      <c r="Z26" s="153"/>
+      <c r="AA26" s="153"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="156"/>
       <c r="AG26" s="124"/>
       <c r="AH26" s="125"/>
     </row>
@@ -12415,42 +12358,42 @@
       <c r="B27" s="87"/>
       <c r="C27" s="150"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="367">
+      <c r="E27" s="157">
         <v>1</v>
       </c>
-      <c r="F27" s="368" t="s">
+      <c r="F27" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="369"/>
-      <c r="H27" s="369"/>
-      <c r="I27" s="369"/>
-      <c r="J27" s="369"/>
-      <c r="K27" s="370"/>
-      <c r="L27" s="368" t="s">
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="M27" s="369"/>
-      <c r="N27" s="369"/>
-      <c r="O27" s="369"/>
-      <c r="P27" s="369"/>
-      <c r="Q27" s="369"/>
-      <c r="R27" s="369"/>
-      <c r="S27" s="369"/>
-      <c r="T27" s="369"/>
-      <c r="U27" s="370"/>
-      <c r="V27" s="368" t="s">
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="W27" s="371" t="s">
+      <c r="W27" s="161" t="s">
         <v>152</v>
       </c>
-      <c r="X27" s="372"/>
-      <c r="Y27" s="372"/>
-      <c r="Z27" s="372"/>
-      <c r="AA27" s="372"/>
-      <c r="AB27" s="372"/>
-      <c r="AC27" s="373"/>
-      <c r="AD27" s="374"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="162"/>
+      <c r="AC27" s="163"/>
+      <c r="AD27" s="164"/>
       <c r="AG27" s="124"/>
       <c r="AH27" s="125"/>
     </row>
@@ -12618,43 +12561,43 @@
       <c r="E33" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="310" t="s">
+      <c r="F33" s="299" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="311"/>
-      <c r="H33" s="311"/>
-      <c r="I33" s="311"/>
-      <c r="J33" s="311"/>
-      <c r="K33" s="312"/>
-      <c r="L33" s="313" t="s">
+      <c r="G33" s="300"/>
+      <c r="H33" s="300"/>
+      <c r="I33" s="300"/>
+      <c r="J33" s="300"/>
+      <c r="K33" s="301"/>
+      <c r="L33" s="302" t="s">
         <v>97</v>
       </c>
-      <c r="M33" s="311"/>
-      <c r="N33" s="311"/>
-      <c r="O33" s="311"/>
-      <c r="P33" s="311"/>
-      <c r="Q33" s="311"/>
-      <c r="R33" s="311"/>
-      <c r="S33" s="311"/>
-      <c r="T33" s="311"/>
-      <c r="U33" s="312"/>
-      <c r="V33" s="314" t="s">
+      <c r="M33" s="300"/>
+      <c r="N33" s="300"/>
+      <c r="O33" s="300"/>
+      <c r="P33" s="300"/>
+      <c r="Q33" s="300"/>
+      <c r="R33" s="300"/>
+      <c r="S33" s="300"/>
+      <c r="T33" s="300"/>
+      <c r="U33" s="301"/>
+      <c r="V33" s="303" t="s">
         <v>98</v>
       </c>
-      <c r="W33" s="315"/>
-      <c r="X33" s="316"/>
-      <c r="Y33" s="314" t="s">
+      <c r="W33" s="304"/>
+      <c r="X33" s="305"/>
+      <c r="Y33" s="303" t="s">
         <v>99</v>
       </c>
-      <c r="Z33" s="315"/>
-      <c r="AA33" s="315"/>
-      <c r="AB33" s="316"/>
-      <c r="AC33" s="317" t="s">
+      <c r="Z33" s="304"/>
+      <c r="AA33" s="304"/>
+      <c r="AB33" s="305"/>
+      <c r="AC33" s="306" t="s">
         <v>100</v>
       </c>
-      <c r="AD33" s="318"/>
-      <c r="AE33" s="318"/>
-      <c r="AF33" s="319"/>
+      <c r="AD33" s="307"/>
+      <c r="AE33" s="307"/>
+      <c r="AF33" s="308"/>
       <c r="AG33" s="48"/>
       <c r="AH33" s="48"/>
       <c r="AI33" s="48"/>
@@ -12667,43 +12610,43 @@
       <c r="E34" s="129">
         <v>1</v>
       </c>
-      <c r="F34" s="343" t="s">
+      <c r="F34" s="333" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="323"/>
-      <c r="H34" s="323"/>
-      <c r="I34" s="323"/>
-      <c r="J34" s="323"/>
-      <c r="K34" s="324"/>
-      <c r="L34" s="261" t="s">
+      <c r="G34" s="313"/>
+      <c r="H34" s="313"/>
+      <c r="I34" s="313"/>
+      <c r="J34" s="313"/>
+      <c r="K34" s="314"/>
+      <c r="L34" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="M34" s="323"/>
-      <c r="N34" s="323"/>
-      <c r="O34" s="323"/>
-      <c r="P34" s="323"/>
-      <c r="Q34" s="323"/>
-      <c r="R34" s="323"/>
-      <c r="S34" s="323"/>
-      <c r="T34" s="323"/>
-      <c r="U34" s="324"/>
-      <c r="V34" s="344" t="s">
+      <c r="M34" s="313"/>
+      <c r="N34" s="313"/>
+      <c r="O34" s="313"/>
+      <c r="P34" s="313"/>
+      <c r="Q34" s="313"/>
+      <c r="R34" s="313"/>
+      <c r="S34" s="313"/>
+      <c r="T34" s="313"/>
+      <c r="U34" s="314"/>
+      <c r="V34" s="334" t="s">
         <v>103</v>
       </c>
-      <c r="W34" s="345"/>
-      <c r="X34" s="346"/>
-      <c r="Y34" s="320" t="s">
+      <c r="W34" s="335"/>
+      <c r="X34" s="336"/>
+      <c r="Y34" s="309" t="s">
         <v>104</v>
       </c>
-      <c r="Z34" s="321"/>
-      <c r="AA34" s="321"/>
-      <c r="AB34" s="322"/>
-      <c r="AC34" s="261" t="s">
+      <c r="Z34" s="310"/>
+      <c r="AA34" s="310"/>
+      <c r="AB34" s="311"/>
+      <c r="AC34" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="AD34" s="323"/>
-      <c r="AE34" s="323"/>
-      <c r="AF34" s="324"/>
+      <c r="AD34" s="313"/>
+      <c r="AE34" s="313"/>
+      <c r="AF34" s="314"/>
       <c r="AG34" s="48"/>
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
@@ -12789,80 +12732,80 @@
       <c r="B37" s="58"/>
       <c r="C37" s="58"/>
       <c r="D37"/>
-      <c r="E37" s="259" t="s">
+      <c r="E37" s="364" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="260"/>
-      <c r="G37" s="260"/>
-      <c r="H37" s="260"/>
-      <c r="I37" s="260"/>
-      <c r="J37" s="267" t="s">
+      <c r="F37" s="365"/>
+      <c r="G37" s="365"/>
+      <c r="H37" s="365"/>
+      <c r="I37" s="365"/>
+      <c r="J37" s="371" t="s">
         <v>129</v>
       </c>
-      <c r="K37" s="267"/>
-      <c r="L37" s="267"/>
-      <c r="M37" s="268" t="s">
+      <c r="K37" s="371"/>
+      <c r="L37" s="371"/>
+      <c r="M37" s="372" t="s">
         <v>130</v>
       </c>
-      <c r="N37" s="269"/>
-      <c r="O37" s="269"/>
-      <c r="P37" s="269"/>
-      <c r="Q37" s="269"/>
-      <c r="R37" s="269"/>
-      <c r="S37" s="270"/>
-      <c r="T37" s="268" t="s">
+      <c r="N37" s="373"/>
+      <c r="O37" s="373"/>
+      <c r="P37" s="373"/>
+      <c r="Q37" s="373"/>
+      <c r="R37" s="373"/>
+      <c r="S37" s="374"/>
+      <c r="T37" s="372" t="s">
         <v>99</v>
       </c>
-      <c r="U37" s="269"/>
-      <c r="V37" s="269"/>
-      <c r="W37" s="269"/>
-      <c r="X37" s="269"/>
-      <c r="Y37" s="269"/>
-      <c r="Z37" s="269"/>
-      <c r="AA37" s="269"/>
-      <c r="AB37" s="269"/>
-      <c r="AC37" s="269"/>
-      <c r="AD37" s="270"/>
+      <c r="U37" s="373"/>
+      <c r="V37" s="373"/>
+      <c r="W37" s="373"/>
+      <c r="X37" s="373"/>
+      <c r="Y37" s="373"/>
+      <c r="Z37" s="373"/>
+      <c r="AA37" s="373"/>
+      <c r="AB37" s="373"/>
+      <c r="AC37" s="373"/>
+      <c r="AD37" s="374"/>
     </row>
     <row r="38" spans="1:35" ht="11.25" customHeight="1">
       <c r="A38" s="58"/>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
       <c r="D38"/>
-      <c r="E38" s="261" t="s">
+      <c r="E38" s="312" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="262"/>
-      <c r="G38" s="262"/>
-      <c r="H38" s="262"/>
-      <c r="I38" s="262"/>
-      <c r="J38" s="263" t="s">
+      <c r="F38" s="366"/>
+      <c r="G38" s="366"/>
+      <c r="H38" s="366"/>
+      <c r="I38" s="366"/>
+      <c r="J38" s="367" t="s">
         <v>132</v>
       </c>
-      <c r="K38" s="263"/>
-      <c r="L38" s="263"/>
-      <c r="M38" s="264" t="s">
+      <c r="K38" s="367"/>
+      <c r="L38" s="367"/>
+      <c r="M38" s="368" t="s">
         <v>133</v>
       </c>
-      <c r="N38" s="265"/>
-      <c r="O38" s="265"/>
-      <c r="P38" s="265"/>
-      <c r="Q38" s="265"/>
-      <c r="R38" s="265"/>
-      <c r="S38" s="266"/>
-      <c r="T38" s="264" t="s">
+      <c r="N38" s="369"/>
+      <c r="O38" s="369"/>
+      <c r="P38" s="369"/>
+      <c r="Q38" s="369"/>
+      <c r="R38" s="369"/>
+      <c r="S38" s="370"/>
+      <c r="T38" s="368" t="s">
         <v>133</v>
       </c>
-      <c r="U38" s="265"/>
-      <c r="V38" s="265"/>
-      <c r="W38" s="265"/>
-      <c r="X38" s="265"/>
-      <c r="Y38" s="265"/>
-      <c r="Z38" s="265"/>
-      <c r="AA38" s="265"/>
-      <c r="AB38" s="265"/>
-      <c r="AC38" s="265"/>
-      <c r="AD38" s="266"/>
+      <c r="U38" s="369"/>
+      <c r="V38" s="369"/>
+      <c r="W38" s="369"/>
+      <c r="X38" s="369"/>
+      <c r="Y38" s="369"/>
+      <c r="Z38" s="369"/>
+      <c r="AA38" s="369"/>
+      <c r="AB38" s="369"/>
+      <c r="AC38" s="369"/>
+      <c r="AD38" s="370"/>
     </row>
     <row r="39" spans="1:35" ht="11.25" customHeight="1">
       <c r="A39" s="58"/>
@@ -13009,30 +12952,30 @@
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
-      <c r="E43" s="358" t="s">
+      <c r="E43" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="359"/>
-      <c r="G43" s="359"/>
-      <c r="H43" s="359"/>
-      <c r="I43" s="359"/>
-      <c r="J43" s="359"/>
-      <c r="K43" s="359"/>
-      <c r="L43" s="359"/>
-      <c r="M43" s="359"/>
-      <c r="N43" s="360"/>
-      <c r="O43" s="325" t="s">
+      <c r="F43" s="288"/>
+      <c r="G43" s="288"/>
+      <c r="H43" s="288"/>
+      <c r="I43" s="288"/>
+      <c r="J43" s="288"/>
+      <c r="K43" s="288"/>
+      <c r="L43" s="288"/>
+      <c r="M43" s="288"/>
+      <c r="N43" s="289"/>
+      <c r="O43" s="315" t="s">
         <v>106</v>
       </c>
-      <c r="P43" s="326"/>
-      <c r="Q43" s="326"/>
-      <c r="R43" s="326"/>
-      <c r="S43" s="326"/>
-      <c r="T43" s="326"/>
-      <c r="U43" s="326"/>
-      <c r="V43" s="326"/>
-      <c r="W43" s="326"/>
-      <c r="X43" s="327"/>
+      <c r="P43" s="316"/>
+      <c r="Q43" s="316"/>
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="316"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="316"/>
+      <c r="X43" s="317"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
       <c r="AA43" s="48"/>
@@ -13050,30 +12993,30 @@
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
-      <c r="E44" s="328" t="s">
+      <c r="E44" s="318" t="s">
         <v>107</v>
       </c>
-      <c r="F44" s="329"/>
-      <c r="G44" s="329"/>
-      <c r="H44" s="329"/>
-      <c r="I44" s="329"/>
-      <c r="J44" s="329"/>
-      <c r="K44" s="329"/>
-      <c r="L44" s="329"/>
-      <c r="M44" s="329"/>
-      <c r="N44" s="330"/>
-      <c r="O44" s="337" t="s">
+      <c r="F44" s="319"/>
+      <c r="G44" s="319"/>
+      <c r="H44" s="319"/>
+      <c r="I44" s="319"/>
+      <c r="J44" s="319"/>
+      <c r="K44" s="319"/>
+      <c r="L44" s="319"/>
+      <c r="M44" s="319"/>
+      <c r="N44" s="320"/>
+      <c r="O44" s="327" t="s">
         <v>91</v>
       </c>
-      <c r="P44" s="338"/>
-      <c r="Q44" s="338"/>
-      <c r="R44" s="338"/>
-      <c r="S44" s="338"/>
-      <c r="T44" s="338"/>
-      <c r="U44" s="338"/>
-      <c r="V44" s="338"/>
-      <c r="W44" s="338"/>
-      <c r="X44" s="339"/>
+      <c r="P44" s="328"/>
+      <c r="Q44" s="328"/>
+      <c r="R44" s="328"/>
+      <c r="S44" s="328"/>
+      <c r="T44" s="328"/>
+      <c r="U44" s="328"/>
+      <c r="V44" s="328"/>
+      <c r="W44" s="328"/>
+      <c r="X44" s="329"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
       <c r="AA44" s="48"/>
@@ -13091,28 +13034,28 @@
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
-      <c r="E45" s="331"/>
-      <c r="F45" s="332"/>
-      <c r="G45" s="332"/>
-      <c r="H45" s="332"/>
-      <c r="I45" s="332"/>
-      <c r="J45" s="332"/>
-      <c r="K45" s="332"/>
-      <c r="L45" s="332"/>
-      <c r="M45" s="332"/>
-      <c r="N45" s="333"/>
-      <c r="O45" s="337" t="s">
+      <c r="E45" s="321"/>
+      <c r="F45" s="322"/>
+      <c r="G45" s="322"/>
+      <c r="H45" s="322"/>
+      <c r="I45" s="322"/>
+      <c r="J45" s="322"/>
+      <c r="K45" s="322"/>
+      <c r="L45" s="322"/>
+      <c r="M45" s="322"/>
+      <c r="N45" s="323"/>
+      <c r="O45" s="327" t="s">
         <v>92</v>
       </c>
-      <c r="P45" s="338"/>
-      <c r="Q45" s="338"/>
-      <c r="R45" s="338"/>
-      <c r="S45" s="338"/>
-      <c r="T45" s="338"/>
-      <c r="U45" s="338"/>
-      <c r="V45" s="338"/>
-      <c r="W45" s="338"/>
-      <c r="X45" s="339"/>
+      <c r="P45" s="328"/>
+      <c r="Q45" s="328"/>
+      <c r="R45" s="328"/>
+      <c r="S45" s="328"/>
+      <c r="T45" s="328"/>
+      <c r="U45" s="328"/>
+      <c r="V45" s="328"/>
+      <c r="W45" s="328"/>
+      <c r="X45" s="329"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
       <c r="AA45" s="48"/>
@@ -13130,28 +13073,28 @@
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="334"/>
-      <c r="F46" s="335"/>
-      <c r="G46" s="335"/>
-      <c r="H46" s="335"/>
-      <c r="I46" s="335"/>
-      <c r="J46" s="335"/>
-      <c r="K46" s="335"/>
-      <c r="L46" s="335"/>
-      <c r="M46" s="335"/>
-      <c r="N46" s="336"/>
-      <c r="O46" s="340" t="s">
+      <c r="E46" s="324"/>
+      <c r="F46" s="325"/>
+      <c r="G46" s="325"/>
+      <c r="H46" s="325"/>
+      <c r="I46" s="325"/>
+      <c r="J46" s="325"/>
+      <c r="K46" s="325"/>
+      <c r="L46" s="325"/>
+      <c r="M46" s="325"/>
+      <c r="N46" s="326"/>
+      <c r="O46" s="330" t="s">
         <v>93</v>
       </c>
-      <c r="P46" s="341"/>
-      <c r="Q46" s="341"/>
-      <c r="R46" s="341"/>
-      <c r="S46" s="341"/>
-      <c r="T46" s="341"/>
-      <c r="U46" s="341"/>
-      <c r="V46" s="341"/>
-      <c r="W46" s="341"/>
-      <c r="X46" s="342"/>
+      <c r="P46" s="331"/>
+      <c r="Q46" s="331"/>
+      <c r="R46" s="331"/>
+      <c r="S46" s="331"/>
+      <c r="T46" s="331"/>
+      <c r="U46" s="331"/>
+      <c r="V46" s="331"/>
+      <c r="W46" s="331"/>
+      <c r="X46" s="332"/>
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
       <c r="AA46" s="48"/>
@@ -13169,28 +13112,28 @@
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
-      <c r="E47" s="355" t="s">
+      <c r="E47" s="284" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="356"/>
-      <c r="G47" s="356"/>
-      <c r="H47" s="356"/>
-      <c r="I47" s="356"/>
-      <c r="J47" s="356"/>
-      <c r="K47" s="356"/>
-      <c r="L47" s="356"/>
-      <c r="M47" s="356"/>
-      <c r="N47" s="356"/>
-      <c r="O47" s="356"/>
-      <c r="P47" s="356"/>
-      <c r="Q47" s="356"/>
-      <c r="R47" s="356"/>
-      <c r="S47" s="356"/>
-      <c r="T47" s="356"/>
-      <c r="U47" s="356"/>
-      <c r="V47" s="356"/>
-      <c r="W47" s="356"/>
-      <c r="X47" s="357"/>
+      <c r="F47" s="285"/>
+      <c r="G47" s="285"/>
+      <c r="H47" s="285"/>
+      <c r="I47" s="285"/>
+      <c r="J47" s="285"/>
+      <c r="K47" s="285"/>
+      <c r="L47" s="285"/>
+      <c r="M47" s="285"/>
+      <c r="N47" s="285"/>
+      <c r="O47" s="285"/>
+      <c r="P47" s="285"/>
+      <c r="Q47" s="285"/>
+      <c r="R47" s="285"/>
+      <c r="S47" s="285"/>
+      <c r="T47" s="285"/>
+      <c r="U47" s="285"/>
+      <c r="V47" s="285"/>
+      <c r="W47" s="285"/>
+      <c r="X47" s="286"/>
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
       <c r="AA47" s="48"/>
@@ -13401,80 +13344,80 @@
       <c r="B53" s="58"/>
       <c r="C53" s="58"/>
       <c r="D53"/>
-      <c r="E53" s="259" t="s">
+      <c r="E53" s="364" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="260"/>
-      <c r="G53" s="260"/>
-      <c r="H53" s="260"/>
-      <c r="I53" s="260"/>
-      <c r="J53" s="267" t="s">
+      <c r="F53" s="365"/>
+      <c r="G53" s="365"/>
+      <c r="H53" s="365"/>
+      <c r="I53" s="365"/>
+      <c r="J53" s="371" t="s">
         <v>129</v>
       </c>
-      <c r="K53" s="267"/>
-      <c r="L53" s="267"/>
-      <c r="M53" s="268" t="s">
+      <c r="K53" s="371"/>
+      <c r="L53" s="371"/>
+      <c r="M53" s="372" t="s">
         <v>130</v>
       </c>
-      <c r="N53" s="269"/>
-      <c r="O53" s="269"/>
-      <c r="P53" s="269"/>
-      <c r="Q53" s="269"/>
-      <c r="R53" s="269"/>
-      <c r="S53" s="270"/>
-      <c r="T53" s="268" t="s">
+      <c r="N53" s="373"/>
+      <c r="O53" s="373"/>
+      <c r="P53" s="373"/>
+      <c r="Q53" s="373"/>
+      <c r="R53" s="373"/>
+      <c r="S53" s="374"/>
+      <c r="T53" s="372" t="s">
         <v>99</v>
       </c>
-      <c r="U53" s="269"/>
-      <c r="V53" s="269"/>
-      <c r="W53" s="269"/>
-      <c r="X53" s="269"/>
-      <c r="Y53" s="269"/>
-      <c r="Z53" s="269"/>
-      <c r="AA53" s="269"/>
-      <c r="AB53" s="269"/>
-      <c r="AC53" s="269"/>
-      <c r="AD53" s="270"/>
+      <c r="U53" s="373"/>
+      <c r="V53" s="373"/>
+      <c r="W53" s="373"/>
+      <c r="X53" s="373"/>
+      <c r="Y53" s="373"/>
+      <c r="Z53" s="373"/>
+      <c r="AA53" s="373"/>
+      <c r="AB53" s="373"/>
+      <c r="AC53" s="373"/>
+      <c r="AD53" s="374"/>
     </row>
     <row r="54" spans="1:35" ht="11.25" customHeight="1">
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
       <c r="D54"/>
-      <c r="E54" s="261" t="s">
+      <c r="E54" s="312" t="s">
         <v>135</v>
       </c>
-      <c r="F54" s="262"/>
-      <c r="G54" s="262"/>
-      <c r="H54" s="262"/>
-      <c r="I54" s="262"/>
-      <c r="J54" s="263" t="s">
+      <c r="F54" s="366"/>
+      <c r="G54" s="366"/>
+      <c r="H54" s="366"/>
+      <c r="I54" s="366"/>
+      <c r="J54" s="367" t="s">
         <v>143</v>
       </c>
-      <c r="K54" s="263"/>
-      <c r="L54" s="263"/>
-      <c r="M54" s="264" t="s">
+      <c r="K54" s="367"/>
+      <c r="L54" s="367"/>
+      <c r="M54" s="368" t="s">
         <v>144</v>
       </c>
-      <c r="N54" s="265"/>
-      <c r="O54" s="265"/>
-      <c r="P54" s="265"/>
-      <c r="Q54" s="265"/>
-      <c r="R54" s="265"/>
-      <c r="S54" s="266"/>
-      <c r="T54" s="264" t="s">
+      <c r="N54" s="369"/>
+      <c r="O54" s="369"/>
+      <c r="P54" s="369"/>
+      <c r="Q54" s="369"/>
+      <c r="R54" s="369"/>
+      <c r="S54" s="370"/>
+      <c r="T54" s="368" t="s">
         <v>136</v>
       </c>
-      <c r="U54" s="265"/>
-      <c r="V54" s="265"/>
-      <c r="W54" s="265"/>
-      <c r="X54" s="265"/>
-      <c r="Y54" s="265"/>
-      <c r="Z54" s="265"/>
-      <c r="AA54" s="265"/>
-      <c r="AB54" s="265"/>
-      <c r="AC54" s="265"/>
-      <c r="AD54" s="266"/>
+      <c r="U54" s="369"/>
+      <c r="V54" s="369"/>
+      <c r="W54" s="369"/>
+      <c r="X54" s="369"/>
+      <c r="Y54" s="369"/>
+      <c r="Z54" s="369"/>
+      <c r="AA54" s="369"/>
+      <c r="AB54" s="369"/>
+      <c r="AC54" s="369"/>
+      <c r="AD54" s="370"/>
     </row>
     <row r="55" spans="1:35" ht="11.25" customHeight="1">
       <c r="A55" s="58"/>
@@ -13865,44 +13808,44 @@
     <row r="66" spans="3:34">
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
-      <c r="E66" s="255" t="s">
+      <c r="E66" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="255"/>
-      <c r="G66" s="278" t="s">
+      <c r="F66" s="337"/>
+      <c r="G66" s="350" t="s">
         <v>141</v>
       </c>
-      <c r="H66" s="279"/>
-      <c r="I66" s="279"/>
-      <c r="J66" s="279"/>
-      <c r="K66" s="279"/>
-      <c r="L66" s="280"/>
-      <c r="M66" s="255" t="s">
+      <c r="H66" s="351"/>
+      <c r="I66" s="351"/>
+      <c r="J66" s="351"/>
+      <c r="K66" s="351"/>
+      <c r="L66" s="352"/>
+      <c r="M66" s="337" t="s">
         <v>23</v>
       </c>
-      <c r="N66" s="255"/>
-      <c r="O66" s="278" t="s">
+      <c r="N66" s="337"/>
+      <c r="O66" s="350" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="279"/>
-      <c r="Q66" s="279"/>
-      <c r="R66" s="279"/>
-      <c r="S66" s="279"/>
-      <c r="T66" s="279"/>
-      <c r="U66" s="279"/>
-      <c r="V66" s="279"/>
-      <c r="W66" s="279"/>
-      <c r="X66" s="279"/>
-      <c r="Y66" s="279"/>
-      <c r="Z66" s="279"/>
-      <c r="AA66" s="279"/>
-      <c r="AB66" s="279"/>
-      <c r="AC66" s="279"/>
-      <c r="AD66" s="279"/>
-      <c r="AE66" s="279"/>
-      <c r="AF66" s="279"/>
-      <c r="AG66" s="279"/>
-      <c r="AH66" s="280"/>
+      <c r="P66" s="351"/>
+      <c r="Q66" s="351"/>
+      <c r="R66" s="351"/>
+      <c r="S66" s="351"/>
+      <c r="T66" s="351"/>
+      <c r="U66" s="351"/>
+      <c r="V66" s="351"/>
+      <c r="W66" s="351"/>
+      <c r="X66" s="351"/>
+      <c r="Y66" s="351"/>
+      <c r="Z66" s="351"/>
+      <c r="AA66" s="351"/>
+      <c r="AB66" s="351"/>
+      <c r="AC66" s="351"/>
+      <c r="AD66" s="351"/>
+      <c r="AE66" s="351"/>
+      <c r="AF66" s="351"/>
+      <c r="AG66" s="351"/>
+      <c r="AH66" s="352"/>
     </row>
     <row r="67" spans="3:34">
       <c r="C67" s="30"/>
@@ -14037,86 +13980,86 @@
     <row r="71" spans="3:34">
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
-      <c r="E71" s="298" t="s">
+      <c r="E71" s="338" t="s">
         <v>53</v>
       </c>
-      <c r="F71" s="292" t="s">
+      <c r="F71" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="G71" s="293"/>
-      <c r="H71" s="293"/>
-      <c r="I71" s="294"/>
-      <c r="J71" s="292" t="s">
+      <c r="G71" s="294"/>
+      <c r="H71" s="294"/>
+      <c r="I71" s="295"/>
+      <c r="J71" s="293" t="s">
         <v>25</v>
       </c>
-      <c r="K71" s="293"/>
-      <c r="L71" s="293"/>
-      <c r="M71" s="294"/>
-      <c r="N71" s="300" t="s">
+      <c r="K71" s="294"/>
+      <c r="L71" s="294"/>
+      <c r="M71" s="295"/>
+      <c r="N71" s="340" t="s">
         <v>26</v>
       </c>
-      <c r="O71" s="300"/>
-      <c r="P71" s="300"/>
-      <c r="Q71" s="300"/>
-      <c r="R71" s="300"/>
-      <c r="S71" s="300"/>
-      <c r="T71" s="300"/>
-      <c r="U71" s="300"/>
-      <c r="V71" s="300"/>
-      <c r="W71" s="292" t="s">
+      <c r="O71" s="340"/>
+      <c r="P71" s="340"/>
+      <c r="Q71" s="340"/>
+      <c r="R71" s="340"/>
+      <c r="S71" s="340"/>
+      <c r="T71" s="340"/>
+      <c r="U71" s="340"/>
+      <c r="V71" s="340"/>
+      <c r="W71" s="293" t="s">
         <v>34</v>
       </c>
-      <c r="X71" s="293"/>
-      <c r="Y71" s="293"/>
-      <c r="Z71" s="293"/>
-      <c r="AA71" s="293"/>
-      <c r="AB71" s="293"/>
-      <c r="AC71" s="294"/>
-      <c r="AD71" s="292" t="s">
+      <c r="X71" s="294"/>
+      <c r="Y71" s="294"/>
+      <c r="Z71" s="294"/>
+      <c r="AA71" s="294"/>
+      <c r="AB71" s="294"/>
+      <c r="AC71" s="295"/>
+      <c r="AD71" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="AE71" s="293"/>
-      <c r="AF71" s="293"/>
-      <c r="AG71" s="293"/>
-      <c r="AH71" s="294"/>
+      <c r="AE71" s="294"/>
+      <c r="AF71" s="294"/>
+      <c r="AG71" s="294"/>
+      <c r="AH71" s="295"/>
     </row>
     <row r="72" spans="3:34">
       <c r="C72" s="30"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="299"/>
-      <c r="F72" s="295"/>
-      <c r="G72" s="296"/>
-      <c r="H72" s="296"/>
-      <c r="I72" s="297"/>
-      <c r="J72" s="295"/>
-      <c r="K72" s="296"/>
-      <c r="L72" s="296"/>
-      <c r="M72" s="297"/>
-      <c r="N72" s="300" t="s">
+      <c r="E72" s="339"/>
+      <c r="F72" s="296"/>
+      <c r="G72" s="297"/>
+      <c r="H72" s="297"/>
+      <c r="I72" s="298"/>
+      <c r="J72" s="296"/>
+      <c r="K72" s="297"/>
+      <c r="L72" s="297"/>
+      <c r="M72" s="298"/>
+      <c r="N72" s="340" t="s">
         <v>29</v>
       </c>
-      <c r="O72" s="300"/>
-      <c r="P72" s="300"/>
-      <c r="Q72" s="300"/>
-      <c r="R72" s="300"/>
-      <c r="S72" s="347" t="s">
+      <c r="O72" s="340"/>
+      <c r="P72" s="340"/>
+      <c r="Q72" s="340"/>
+      <c r="R72" s="340"/>
+      <c r="S72" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="T72" s="347"/>
-      <c r="U72" s="347"/>
-      <c r="V72" s="347"/>
-      <c r="W72" s="295"/>
-      <c r="X72" s="296"/>
-      <c r="Y72" s="296"/>
-      <c r="Z72" s="296"/>
-      <c r="AA72" s="296"/>
-      <c r="AB72" s="296"/>
-      <c r="AC72" s="297"/>
-      <c r="AD72" s="295"/>
-      <c r="AE72" s="296"/>
-      <c r="AF72" s="296"/>
-      <c r="AG72" s="296"/>
-      <c r="AH72" s="297"/>
+      <c r="T72" s="269"/>
+      <c r="U72" s="269"/>
+      <c r="V72" s="269"/>
+      <c r="W72" s="296"/>
+      <c r="X72" s="297"/>
+      <c r="Y72" s="297"/>
+      <c r="Z72" s="297"/>
+      <c r="AA72" s="297"/>
+      <c r="AB72" s="297"/>
+      <c r="AC72" s="298"/>
+      <c r="AD72" s="296"/>
+      <c r="AE72" s="297"/>
+      <c r="AF72" s="297"/>
+      <c r="AG72" s="297"/>
+      <c r="AH72" s="298"/>
     </row>
     <row r="73" spans="3:34">
       <c r="C73" s="30"/>
@@ -14124,43 +14067,43 @@
       <c r="E73" s="41">
         <v>1</v>
       </c>
-      <c r="F73" s="307" t="s">
+      <c r="F73" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="G73" s="308"/>
-      <c r="H73" s="308"/>
-      <c r="I73" s="309"/>
-      <c r="J73" s="307" t="s">
+      <c r="G73" s="291"/>
+      <c r="H73" s="291"/>
+      <c r="I73" s="292"/>
+      <c r="J73" s="290" t="s">
         <v>84</v>
       </c>
-      <c r="K73" s="308"/>
-      <c r="L73" s="308"/>
-      <c r="M73" s="309"/>
-      <c r="N73" s="305" t="s">
+      <c r="K73" s="291"/>
+      <c r="L73" s="291"/>
+      <c r="M73" s="292"/>
+      <c r="N73" s="282" t="s">
         <v>90</v>
       </c>
-      <c r="O73" s="306"/>
-      <c r="P73" s="306"/>
-      <c r="Q73" s="306"/>
-      <c r="R73" s="306"/>
-      <c r="S73" s="303" t="s">
+      <c r="O73" s="280"/>
+      <c r="P73" s="280"/>
+      <c r="Q73" s="280"/>
+      <c r="R73" s="280"/>
+      <c r="S73" s="283" t="s">
         <v>91</v>
       </c>
-      <c r="T73" s="304"/>
-      <c r="U73" s="304"/>
-      <c r="V73" s="304"/>
-      <c r="W73" s="348"/>
-      <c r="X73" s="349"/>
-      <c r="Y73" s="349"/>
-      <c r="Z73" s="349"/>
-      <c r="AA73" s="349"/>
-      <c r="AB73" s="349"/>
-      <c r="AC73" s="350"/>
-      <c r="AD73" s="348"/>
-      <c r="AE73" s="349"/>
-      <c r="AF73" s="349"/>
-      <c r="AG73" s="349"/>
-      <c r="AH73" s="350"/>
+      <c r="T73" s="281"/>
+      <c r="U73" s="281"/>
+      <c r="V73" s="281"/>
+      <c r="W73" s="272"/>
+      <c r="X73" s="273"/>
+      <c r="Y73" s="273"/>
+      <c r="Z73" s="273"/>
+      <c r="AA73" s="273"/>
+      <c r="AB73" s="273"/>
+      <c r="AC73" s="274"/>
+      <c r="AD73" s="272"/>
+      <c r="AE73" s="273"/>
+      <c r="AF73" s="273"/>
+      <c r="AG73" s="273"/>
+      <c r="AH73" s="274"/>
     </row>
     <row r="74" spans="3:34">
       <c r="C74" s="30"/>
@@ -14168,43 +14111,43 @@
       <c r="E74" s="41">
         <v>2</v>
       </c>
-      <c r="F74" s="307" t="s">
+      <c r="F74" s="290" t="s">
         <v>88</v>
       </c>
-      <c r="G74" s="308"/>
-      <c r="H74" s="308"/>
-      <c r="I74" s="309"/>
-      <c r="J74" s="307" t="s">
+      <c r="G74" s="291"/>
+      <c r="H74" s="291"/>
+      <c r="I74" s="292"/>
+      <c r="J74" s="290" t="s">
         <v>85</v>
       </c>
-      <c r="K74" s="308"/>
-      <c r="L74" s="308"/>
-      <c r="M74" s="309"/>
-      <c r="N74" s="305" t="s">
+      <c r="K74" s="291"/>
+      <c r="L74" s="291"/>
+      <c r="M74" s="292"/>
+      <c r="N74" s="282" t="s">
         <v>90</v>
       </c>
-      <c r="O74" s="306"/>
-      <c r="P74" s="306"/>
-      <c r="Q74" s="306"/>
-      <c r="R74" s="306"/>
-      <c r="S74" s="303" t="s">
+      <c r="O74" s="280"/>
+      <c r="P74" s="280"/>
+      <c r="Q74" s="280"/>
+      <c r="R74" s="280"/>
+      <c r="S74" s="283" t="s">
         <v>92</v>
       </c>
-      <c r="T74" s="304"/>
-      <c r="U74" s="304"/>
-      <c r="V74" s="304"/>
-      <c r="W74" s="348"/>
-      <c r="X74" s="349"/>
-      <c r="Y74" s="349"/>
-      <c r="Z74" s="349"/>
-      <c r="AA74" s="349"/>
-      <c r="AB74" s="349"/>
-      <c r="AC74" s="350"/>
-      <c r="AD74" s="348"/>
-      <c r="AE74" s="349"/>
-      <c r="AF74" s="349"/>
-      <c r="AG74" s="349"/>
-      <c r="AH74" s="350"/>
+      <c r="T74" s="281"/>
+      <c r="U74" s="281"/>
+      <c r="V74" s="281"/>
+      <c r="W74" s="272"/>
+      <c r="X74" s="273"/>
+      <c r="Y74" s="273"/>
+      <c r="Z74" s="273"/>
+      <c r="AA74" s="273"/>
+      <c r="AB74" s="273"/>
+      <c r="AC74" s="274"/>
+      <c r="AD74" s="272"/>
+      <c r="AE74" s="273"/>
+      <c r="AF74" s="273"/>
+      <c r="AG74" s="273"/>
+      <c r="AH74" s="274"/>
     </row>
     <row r="75" spans="3:34">
       <c r="C75" s="30"/>
@@ -14212,43 +14155,43 @@
       <c r="E75" s="41">
         <v>3</v>
       </c>
-      <c r="F75" s="307" t="s">
+      <c r="F75" s="290" t="s">
         <v>89</v>
       </c>
-      <c r="G75" s="308"/>
-      <c r="H75" s="308"/>
-      <c r="I75" s="309"/>
-      <c r="J75" s="307" t="s">
+      <c r="G75" s="291"/>
+      <c r="H75" s="291"/>
+      <c r="I75" s="292"/>
+      <c r="J75" s="290" t="s">
         <v>86</v>
       </c>
-      <c r="K75" s="308"/>
-      <c r="L75" s="308"/>
-      <c r="M75" s="309"/>
-      <c r="N75" s="305" t="s">
+      <c r="K75" s="291"/>
+      <c r="L75" s="291"/>
+      <c r="M75" s="292"/>
+      <c r="N75" s="282" t="s">
         <v>90</v>
       </c>
-      <c r="O75" s="306"/>
-      <c r="P75" s="306"/>
-      <c r="Q75" s="306"/>
-      <c r="R75" s="306"/>
-      <c r="S75" s="303" t="s">
+      <c r="O75" s="280"/>
+      <c r="P75" s="280"/>
+      <c r="Q75" s="280"/>
+      <c r="R75" s="280"/>
+      <c r="S75" s="283" t="s">
         <v>93</v>
       </c>
-      <c r="T75" s="304"/>
-      <c r="U75" s="304"/>
-      <c r="V75" s="304"/>
-      <c r="W75" s="348"/>
-      <c r="X75" s="349"/>
-      <c r="Y75" s="349"/>
-      <c r="Z75" s="349"/>
-      <c r="AA75" s="349"/>
-      <c r="AB75" s="349"/>
-      <c r="AC75" s="350"/>
-      <c r="AD75" s="348"/>
-      <c r="AE75" s="349"/>
-      <c r="AF75" s="349"/>
-      <c r="AG75" s="349"/>
-      <c r="AH75" s="350"/>
+      <c r="T75" s="281"/>
+      <c r="U75" s="281"/>
+      <c r="V75" s="281"/>
+      <c r="W75" s="272"/>
+      <c r="X75" s="273"/>
+      <c r="Y75" s="273"/>
+      <c r="Z75" s="273"/>
+      <c r="AA75" s="273"/>
+      <c r="AB75" s="273"/>
+      <c r="AC75" s="274"/>
+      <c r="AD75" s="272"/>
+      <c r="AE75" s="273"/>
+      <c r="AF75" s="273"/>
+      <c r="AG75" s="273"/>
+      <c r="AH75" s="274"/>
     </row>
     <row r="76" spans="3:34">
       <c r="C76" s="30"/>
@@ -14256,35 +14199,35 @@
       <c r="E76" s="41">
         <v>4</v>
       </c>
-      <c r="F76" s="307"/>
-      <c r="G76" s="308"/>
-      <c r="H76" s="308"/>
-      <c r="I76" s="309"/>
-      <c r="J76" s="307"/>
-      <c r="K76" s="308"/>
-      <c r="L76" s="308"/>
-      <c r="M76" s="309"/>
-      <c r="N76" s="354"/>
-      <c r="O76" s="306"/>
-      <c r="P76" s="306"/>
-      <c r="Q76" s="306"/>
-      <c r="R76" s="306"/>
-      <c r="S76" s="304"/>
-      <c r="T76" s="304"/>
-      <c r="U76" s="304"/>
-      <c r="V76" s="304"/>
-      <c r="W76" s="348"/>
-      <c r="X76" s="349"/>
-      <c r="Y76" s="349"/>
-      <c r="Z76" s="349"/>
-      <c r="AA76" s="349"/>
-      <c r="AB76" s="349"/>
-      <c r="AC76" s="350"/>
-      <c r="AD76" s="348"/>
-      <c r="AE76" s="349"/>
-      <c r="AF76" s="349"/>
-      <c r="AG76" s="349"/>
-      <c r="AH76" s="350"/>
+      <c r="F76" s="290"/>
+      <c r="G76" s="291"/>
+      <c r="H76" s="291"/>
+      <c r="I76" s="292"/>
+      <c r="J76" s="290"/>
+      <c r="K76" s="291"/>
+      <c r="L76" s="291"/>
+      <c r="M76" s="292"/>
+      <c r="N76" s="279"/>
+      <c r="O76" s="280"/>
+      <c r="P76" s="280"/>
+      <c r="Q76" s="280"/>
+      <c r="R76" s="280"/>
+      <c r="S76" s="281"/>
+      <c r="T76" s="281"/>
+      <c r="U76" s="281"/>
+      <c r="V76" s="281"/>
+      <c r="W76" s="272"/>
+      <c r="X76" s="273"/>
+      <c r="Y76" s="273"/>
+      <c r="Z76" s="273"/>
+      <c r="AA76" s="273"/>
+      <c r="AB76" s="273"/>
+      <c r="AC76" s="274"/>
+      <c r="AD76" s="272"/>
+      <c r="AE76" s="273"/>
+      <c r="AF76" s="273"/>
+      <c r="AG76" s="273"/>
+      <c r="AH76" s="274"/>
     </row>
     <row r="77" spans="3:34">
       <c r="C77" s="30"/>
@@ -14292,38 +14235,133 @@
       <c r="E77" s="41">
         <v>5</v>
       </c>
-      <c r="F77" s="307"/>
-      <c r="G77" s="308"/>
-      <c r="H77" s="308"/>
-      <c r="I77" s="309"/>
-      <c r="J77" s="307"/>
-      <c r="K77" s="308"/>
-      <c r="L77" s="308"/>
-      <c r="M77" s="309"/>
-      <c r="N77" s="354"/>
-      <c r="O77" s="306"/>
-      <c r="P77" s="306"/>
-      <c r="Q77" s="306"/>
-      <c r="R77" s="306"/>
-      <c r="S77" s="304"/>
-      <c r="T77" s="304"/>
-      <c r="U77" s="304"/>
-      <c r="V77" s="304"/>
-      <c r="W77" s="348"/>
-      <c r="X77" s="349"/>
-      <c r="Y77" s="349"/>
-      <c r="Z77" s="349"/>
-      <c r="AA77" s="349"/>
-      <c r="AB77" s="349"/>
-      <c r="AC77" s="350"/>
-      <c r="AD77" s="348"/>
-      <c r="AE77" s="349"/>
-      <c r="AF77" s="349"/>
-      <c r="AG77" s="349"/>
-      <c r="AH77" s="350"/>
+      <c r="F77" s="290"/>
+      <c r="G77" s="291"/>
+      <c r="H77" s="291"/>
+      <c r="I77" s="292"/>
+      <c r="J77" s="290"/>
+      <c r="K77" s="291"/>
+      <c r="L77" s="291"/>
+      <c r="M77" s="292"/>
+      <c r="N77" s="279"/>
+      <c r="O77" s="280"/>
+      <c r="P77" s="280"/>
+      <c r="Q77" s="280"/>
+      <c r="R77" s="280"/>
+      <c r="S77" s="281"/>
+      <c r="T77" s="281"/>
+      <c r="U77" s="281"/>
+      <c r="V77" s="281"/>
+      <c r="W77" s="272"/>
+      <c r="X77" s="273"/>
+      <c r="Y77" s="273"/>
+      <c r="Z77" s="273"/>
+      <c r="AA77" s="273"/>
+      <c r="AB77" s="273"/>
+      <c r="AC77" s="274"/>
+      <c r="AD77" s="272"/>
+      <c r="AE77" s="273"/>
+      <c r="AF77" s="273"/>
+      <c r="AG77" s="273"/>
+      <c r="AH77" s="274"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:S54"/>
+    <mergeCell ref="T54:AD54"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AD37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AD38"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:S53"/>
+    <mergeCell ref="T53:AD53"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="O66:AH66"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="F71:I72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="N71:V71"/>
+    <mergeCell ref="N72:R72"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="S74:V74"/>
+    <mergeCell ref="N73:R73"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="W71:AC72"/>
+    <mergeCell ref="AD71:AH72"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="O43:X43"/>
+    <mergeCell ref="E44:N46"/>
+    <mergeCell ref="O44:X44"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J71:M72"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="N74:R74"/>
     <mergeCell ref="S72:V72"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="AD76:AH76"/>
@@ -14348,101 +14386,6 @@
     <mergeCell ref="E43:N43"/>
     <mergeCell ref="W73:AC73"/>
     <mergeCell ref="W74:AC74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="S74:V74"/>
-    <mergeCell ref="N73:R73"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="W71:AC72"/>
-    <mergeCell ref="AD71:AH72"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="O43:X43"/>
-    <mergeCell ref="E44:N46"/>
-    <mergeCell ref="O44:X44"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="O46:X46"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J71:M72"/>
-    <mergeCell ref="F71:I72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="N71:V71"/>
-    <mergeCell ref="N72:R72"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="O66:AH66"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:S54"/>
-    <mergeCell ref="T54:AD54"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AD37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AD38"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:S53"/>
-    <mergeCell ref="T53:AD53"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
@@ -14466,7 +14409,6 @@
     <brk id="28" max="34" man="1"/>
     <brk id="60" max="34" man="1"/>
   </rowBreaks>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
